--- a/attendance-files/BM/BM Attendance - A.xlsx
+++ b/attendance-files/BM/BM Attendance - A.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="218">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1503,7 +1503,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
-      <c r="W1" s="7"/>
+      <c r="W1" s="6"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
@@ -1534,7 +1534,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="7"/>
+      <c r="W2" s="6"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -1567,7 +1567,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="15"/>
+      <c r="W3" s="14"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -1675,7 +1675,7 @@
       <c r="V5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="29" t="s">
+      <c r="W5" s="28" t="s">
         <v>28</v>
       </c>
       <c r="X5" s="29" t="s">
@@ -1756,7 +1756,7 @@
       <c r="V6" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="32" t="s">
+      <c r="W6" s="33" t="s">
         <v>54</v>
       </c>
       <c r="X6" s="32" t="s">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F7" s="39">
         <f t="shared" ref="F7:F85" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>61</v>
@@ -1839,7 +1839,9 @@
       <c r="V7" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="43"/>
+      <c r="W7" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X7" s="43"/>
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
@@ -1864,7 +1866,7 @@
       </c>
       <c r="F8" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>61</v>
@@ -1914,7 +1916,9 @@
       <c r="V8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W8" s="43"/>
+      <c r="W8" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
@@ -1939,7 +1943,7 @@
       </c>
       <c r="F9" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>61</v>
@@ -1989,7 +1993,9 @@
       <c r="V9" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W9" s="43"/>
+      <c r="W9" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X9" s="43"/>
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
@@ -2014,7 +2020,7 @@
       </c>
       <c r="F10" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>61</v>
@@ -2064,7 +2070,9 @@
       <c r="V10" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W10" s="43"/>
+      <c r="W10" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
@@ -2085,7 +2093,7 @@
       </c>
       <c r="E11" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="39">
         <f t="shared" si="2"/>
@@ -2139,7 +2147,9 @@
       <c r="V11" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W11" s="43"/>
+      <c r="W11" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X11" s="43"/>
       <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
@@ -2164,7 +2174,7 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>60</v>
@@ -2214,7 +2224,9 @@
       <c r="V12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W12" s="43"/>
+      <c r="W12" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X12" s="43"/>
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
@@ -2239,7 +2251,7 @@
       </c>
       <c r="F13" s="39">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>61</v>
@@ -2289,7 +2301,9 @@
       <c r="V13" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W13" s="43"/>
+      <c r="W13" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X13" s="43"/>
       <c r="Y13" s="43"/>
       <c r="Z13" s="43"/>
@@ -2310,7 +2324,7 @@
       </c>
       <c r="E14" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="39">
         <f t="shared" si="2"/>
@@ -2364,7 +2378,9 @@
       <c r="V14" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W14" s="43"/>
+      <c r="W14" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X14" s="43"/>
       <c r="Y14" s="43"/>
       <c r="Z14" s="43"/>
@@ -2389,7 +2405,7 @@
       </c>
       <c r="F15" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>60</v>
@@ -2439,7 +2455,9 @@
       <c r="V15" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W15" s="43"/>
+      <c r="W15" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X15" s="43"/>
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
@@ -2464,7 +2482,7 @@
       </c>
       <c r="F16" s="39">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>61</v>
@@ -2514,7 +2532,9 @@
       <c r="V16" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W16" s="43"/>
+      <c r="W16" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
       <c r="Z16" s="43"/>
@@ -2539,7 +2559,7 @@
       </c>
       <c r="F17" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>60</v>
@@ -2589,7 +2609,9 @@
       <c r="V17" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W17" s="43"/>
+      <c r="W17" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X17" s="43"/>
       <c r="Y17" s="43"/>
       <c r="Z17" s="43"/>
@@ -2610,7 +2632,7 @@
       </c>
       <c r="E18" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="39">
         <f t="shared" si="2"/>
@@ -2664,7 +2686,9 @@
       <c r="V18" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W18" s="43"/>
+      <c r="W18" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
       <c r="Z18" s="43"/>
@@ -2685,7 +2709,7 @@
       </c>
       <c r="E19" s="39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="39">
         <f t="shared" si="2"/>
@@ -2739,7 +2763,9 @@
       <c r="V19" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W19" s="43"/>
+      <c r="W19" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X19" s="43"/>
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
@@ -2760,7 +2786,7 @@
       </c>
       <c r="E20" s="39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="39">
         <f t="shared" si="2"/>
@@ -2814,7 +2840,9 @@
       <c r="V20" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W20" s="43"/>
+      <c r="W20" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X20" s="43"/>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
@@ -2835,7 +2863,7 @@
       </c>
       <c r="E21" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="39">
         <f t="shared" si="2"/>
@@ -2889,7 +2917,9 @@
       <c r="V21" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W21" s="43"/>
+      <c r="W21" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X21" s="43"/>
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
@@ -2914,7 +2944,7 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>61</v>
@@ -2964,7 +2994,9 @@
       <c r="V22" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W22" s="43"/>
+      <c r="W22" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X22" s="43"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
@@ -2989,7 +3021,7 @@
       </c>
       <c r="F23" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>61</v>
@@ -3039,7 +3071,9 @@
       <c r="V23" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W23" s="43"/>
+      <c r="W23" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X23" s="43"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
@@ -3064,7 +3098,7 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>61</v>
@@ -3114,7 +3148,9 @@
       <c r="V24" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W24" s="43"/>
+      <c r="W24" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X24" s="43"/>
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
@@ -3139,7 +3175,7 @@
       </c>
       <c r="F25" s="39">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>61</v>
@@ -3189,7 +3225,9 @@
       <c r="V25" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="43"/>
+      <c r="W25" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X25" s="43"/>
       <c r="Y25" s="43"/>
       <c r="Z25" s="43"/>
@@ -3214,7 +3252,7 @@
       </c>
       <c r="F26" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>61</v>
@@ -3264,7 +3302,9 @@
       <c r="V26" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W26" s="43"/>
+      <c r="W26" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X26" s="43"/>
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
@@ -3289,7 +3329,7 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>61</v>
@@ -3339,7 +3379,9 @@
       <c r="V27" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W27" s="43"/>
+      <c r="W27" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X27" s="43"/>
       <c r="Y27" s="43"/>
       <c r="Z27" s="43"/>
@@ -3364,7 +3406,7 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>60</v>
@@ -3414,7 +3456,9 @@
       <c r="V28" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W28" s="43"/>
+      <c r="W28" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X28" s="43"/>
       <c r="Y28" s="43"/>
       <c r="Z28" s="43"/>
@@ -3439,7 +3483,7 @@
       </c>
       <c r="F29" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="41" t="s">
         <v>60</v>
@@ -3489,7 +3533,9 @@
       <c r="V29" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W29" s="43"/>
+      <c r="W29" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X29" s="43"/>
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
@@ -3514,7 +3560,7 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>61</v>
@@ -3564,7 +3610,9 @@
       <c r="V30" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="43"/>
+      <c r="W30" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X30" s="43"/>
       <c r="Y30" s="43"/>
       <c r="Z30" s="43"/>
@@ -3589,7 +3637,7 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>60</v>
@@ -3639,7 +3687,9 @@
       <c r="V31" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W31" s="43"/>
+      <c r="W31" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X31" s="43"/>
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
@@ -3664,7 +3714,7 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>61</v>
@@ -3714,7 +3764,9 @@
       <c r="V32" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W32" s="43"/>
+      <c r="W32" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X32" s="43"/>
       <c r="Y32" s="43"/>
       <c r="Z32" s="43"/>
@@ -3739,7 +3791,7 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" s="41" t="s">
         <v>60</v>
@@ -3789,7 +3841,9 @@
       <c r="V33" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W33" s="43"/>
+      <c r="W33" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X33" s="43"/>
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
@@ -3814,7 +3868,7 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" s="41" t="s">
         <v>60</v>
@@ -3864,7 +3918,9 @@
       <c r="V34" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W34" s="43"/>
+      <c r="W34" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X34" s="43"/>
       <c r="Y34" s="43"/>
       <c r="Z34" s="43"/>
@@ -3889,7 +3945,7 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>61</v>
@@ -3939,7 +3995,9 @@
       <c r="V35" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W35" s="43"/>
+      <c r="W35" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X35" s="43"/>
       <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
@@ -3964,7 +4022,7 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>61</v>
@@ -4014,7 +4072,9 @@
       <c r="V36" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W36" s="43"/>
+      <c r="W36" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X36" s="43"/>
       <c r="Y36" s="43"/>
       <c r="Z36" s="43"/>
@@ -4039,7 +4099,7 @@
       </c>
       <c r="F37" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>61</v>
@@ -4089,7 +4149,9 @@
       <c r="V37" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W37" s="43"/>
+      <c r="W37" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X37" s="43"/>
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
@@ -4110,7 +4172,7 @@
       </c>
       <c r="E38" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="39">
         <f t="shared" si="2"/>
@@ -4164,7 +4226,9 @@
       <c r="V38" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W38" s="43"/>
+      <c r="W38" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X38" s="43"/>
       <c r="Y38" s="43"/>
       <c r="Z38" s="43"/>
@@ -4189,7 +4253,7 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>61</v>
@@ -4239,7 +4303,9 @@
       <c r="V39" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W39" s="43"/>
+      <c r="W39" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X39" s="43"/>
       <c r="Y39" s="43"/>
       <c r="Z39" s="43"/>
@@ -4264,7 +4330,7 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>61</v>
@@ -4314,7 +4380,9 @@
       <c r="V40" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W40" s="43"/>
+      <c r="W40" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X40" s="43"/>
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
@@ -4335,7 +4403,7 @@
       </c>
       <c r="E41" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="39">
         <f t="shared" si="2"/>
@@ -4389,7 +4457,9 @@
       <c r="V41" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W41" s="43"/>
+      <c r="W41" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X41" s="43"/>
       <c r="Y41" s="43"/>
       <c r="Z41" s="43"/>
@@ -4414,7 +4484,7 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" s="40" t="s">
         <v>61</v>
@@ -4464,7 +4534,9 @@
       <c r="V42" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W42" s="43"/>
+      <c r="W42" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X42" s="43"/>
       <c r="Y42" s="43"/>
       <c r="Z42" s="43"/>
@@ -4489,7 +4561,7 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>61</v>
@@ -4539,7 +4611,9 @@
       <c r="V43" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W43" s="43"/>
+      <c r="W43" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X43" s="43"/>
       <c r="Y43" s="43"/>
       <c r="Z43" s="43"/>
@@ -4560,7 +4634,7 @@
       </c>
       <c r="E44" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="39">
         <f t="shared" si="2"/>
@@ -4614,7 +4688,9 @@
       <c r="V44" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W44" s="43"/>
+      <c r="W44" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X44" s="43"/>
       <c r="Y44" s="43"/>
       <c r="Z44" s="43"/>
@@ -4639,7 +4715,7 @@
       </c>
       <c r="F45" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>61</v>
@@ -4689,7 +4765,9 @@
       <c r="V45" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W45" s="43"/>
+      <c r="W45" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X45" s="43"/>
       <c r="Y45" s="43"/>
       <c r="Z45" s="43"/>
@@ -4714,7 +4792,7 @@
       </c>
       <c r="F46" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>61</v>
@@ -4764,7 +4842,9 @@
       <c r="V46" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W46" s="43"/>
+      <c r="W46" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X46" s="43"/>
       <c r="Y46" s="43"/>
       <c r="Z46" s="43"/>
@@ -4789,7 +4869,7 @@
       </c>
       <c r="F47" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>60</v>
@@ -4839,7 +4919,9 @@
       <c r="V47" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W47" s="43"/>
+      <c r="W47" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X47" s="43"/>
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
@@ -4864,7 +4946,7 @@
       </c>
       <c r="F48" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" s="41" t="s">
         <v>60</v>
@@ -4914,7 +4996,9 @@
       <c r="V48" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W48" s="43"/>
+      <c r="W48" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X48" s="43"/>
       <c r="Y48" s="43"/>
       <c r="Z48" s="43"/>
@@ -4939,7 +5023,7 @@
       </c>
       <c r="F49" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" s="40" t="s">
         <v>60</v>
@@ -4989,7 +5073,9 @@
       <c r="V49" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W49" s="43"/>
+      <c r="W49" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X49" s="43"/>
       <c r="Y49" s="43"/>
       <c r="Z49" s="43"/>
@@ -5014,7 +5100,7 @@
       </c>
       <c r="F50" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="41" t="s">
         <v>60</v>
@@ -5064,7 +5150,9 @@
       <c r="V50" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W50" s="43"/>
+      <c r="W50" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X50" s="43"/>
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
@@ -5089,7 +5177,7 @@
       </c>
       <c r="F51" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>60</v>
@@ -5139,7 +5227,9 @@
       <c r="V51" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W51" s="43"/>
+      <c r="W51" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X51" s="43"/>
       <c r="Y51" s="43"/>
       <c r="Z51" s="43"/>
@@ -5164,7 +5254,7 @@
       </c>
       <c r="F52" s="39">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>61</v>
@@ -5214,7 +5304,9 @@
       <c r="V52" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W52" s="43"/>
+      <c r="W52" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X52" s="43"/>
       <c r="Y52" s="43"/>
       <c r="Z52" s="43"/>
@@ -5235,7 +5327,7 @@
       </c>
       <c r="E53" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="39">
         <f t="shared" si="2"/>
@@ -5289,7 +5381,9 @@
       <c r="V53" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W53" s="43"/>
+      <c r="W53" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X53" s="43"/>
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
@@ -5310,7 +5404,7 @@
       </c>
       <c r="E54" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="39">
         <f t="shared" si="2"/>
@@ -5364,7 +5458,9 @@
       <c r="V54" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W54" s="43"/>
+      <c r="W54" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X54" s="43"/>
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
@@ -5385,7 +5481,7 @@
       </c>
       <c r="E55" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="39">
         <f t="shared" si="2"/>
@@ -5439,7 +5535,9 @@
       <c r="V55" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W55" s="43"/>
+      <c r="W55" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X55" s="43"/>
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
@@ -5460,7 +5558,7 @@
       </c>
       <c r="E56" s="39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56" s="39">
         <f t="shared" si="2"/>
@@ -5514,7 +5612,9 @@
       <c r="V56" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W56" s="43"/>
+      <c r="W56" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X56" s="43"/>
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
@@ -5539,7 +5639,7 @@
       </c>
       <c r="F57" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" s="40" t="s">
         <v>61</v>
@@ -5589,7 +5689,9 @@
       <c r="V57" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W57" s="43"/>
+      <c r="W57" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X57" s="43"/>
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
@@ -5610,7 +5712,7 @@
       </c>
       <c r="E58" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="39">
         <f t="shared" si="2"/>
@@ -5664,7 +5766,9 @@
       <c r="V58" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W58" s="43"/>
+      <c r="W58" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X58" s="43"/>
       <c r="Y58" s="43"/>
       <c r="Z58" s="43"/>
@@ -5685,7 +5789,7 @@
       </c>
       <c r="E59" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" s="39">
         <f t="shared" si="2"/>
@@ -5739,7 +5843,9 @@
       <c r="V59" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W59" s="43"/>
+      <c r="W59" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X59" s="43"/>
       <c r="Y59" s="43"/>
       <c r="Z59" s="43"/>
@@ -5764,7 +5870,7 @@
       </c>
       <c r="F60" s="39">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G60" s="40" t="s">
         <v>61</v>
@@ -5814,7 +5920,9 @@
       <c r="V60" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W60" s="43"/>
+      <c r="W60" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X60" s="43"/>
       <c r="Y60" s="43"/>
       <c r="Z60" s="43"/>
@@ -5839,7 +5947,7 @@
       </c>
       <c r="F61" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>61</v>
@@ -5889,7 +5997,9 @@
       <c r="V61" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W61" s="43"/>
+      <c r="W61" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X61" s="43"/>
       <c r="Y61" s="43"/>
       <c r="Z61" s="43"/>
@@ -5910,7 +6020,7 @@
       </c>
       <c r="E62" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="39">
         <f t="shared" si="2"/>
@@ -5964,7 +6074,9 @@
       <c r="V62" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W62" s="43"/>
+      <c r="W62" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X62" s="43"/>
       <c r="Y62" s="43"/>
       <c r="Z62" s="43"/>
@@ -5989,7 +6101,7 @@
       </c>
       <c r="F63" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>61</v>
@@ -6039,7 +6151,9 @@
       <c r="V63" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W63" s="43"/>
+      <c r="W63" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X63" s="43"/>
       <c r="Y63" s="43"/>
       <c r="Z63" s="43"/>
@@ -6064,7 +6178,7 @@
       </c>
       <c r="F64" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" s="40" t="s">
         <v>61</v>
@@ -6114,7 +6228,9 @@
       <c r="V64" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W64" s="43"/>
+      <c r="W64" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X64" s="43"/>
       <c r="Y64" s="43"/>
       <c r="Z64" s="43"/>
@@ -6135,7 +6251,7 @@
       </c>
       <c r="E65" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="39">
         <f t="shared" si="2"/>
@@ -6189,7 +6305,9 @@
       <c r="V65" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W65" s="43"/>
+      <c r="W65" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X65" s="43"/>
       <c r="Y65" s="43"/>
       <c r="Z65" s="43"/>
@@ -6210,7 +6328,7 @@
       </c>
       <c r="E66" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="39">
         <f t="shared" si="2"/>
@@ -6264,7 +6382,9 @@
       <c r="V66" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W66" s="43"/>
+      <c r="W66" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X66" s="43"/>
       <c r="Y66" s="43"/>
       <c r="Z66" s="43"/>
@@ -6285,7 +6405,7 @@
       </c>
       <c r="E67" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="39">
         <f t="shared" si="2"/>
@@ -6339,7 +6459,9 @@
       <c r="V67" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W67" s="43"/>
+      <c r="W67" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X67" s="43"/>
       <c r="Y67" s="43"/>
       <c r="Z67" s="43"/>
@@ -6364,7 +6486,7 @@
       </c>
       <c r="F68" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>61</v>
@@ -6414,7 +6536,9 @@
       <c r="V68" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W68" s="43"/>
+      <c r="W68" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X68" s="43"/>
       <c r="Y68" s="43"/>
       <c r="Z68" s="43"/>
@@ -6439,7 +6563,7 @@
       </c>
       <c r="F69" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>61</v>
@@ -6489,7 +6613,9 @@
       <c r="V69" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W69" s="43"/>
+      <c r="W69" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X69" s="43"/>
       <c r="Y69" s="43"/>
       <c r="Z69" s="43"/>
@@ -6510,7 +6636,7 @@
       </c>
       <c r="E70" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="39">
         <f t="shared" si="2"/>
@@ -6564,7 +6690,9 @@
       <c r="V70" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W70" s="43"/>
+      <c r="W70" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X70" s="43"/>
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
@@ -6589,7 +6717,7 @@
       </c>
       <c r="F71" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" s="40" t="s">
         <v>61</v>
@@ -6639,7 +6767,9 @@
       <c r="V71" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W71" s="43"/>
+      <c r="W71" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X71" s="43"/>
       <c r="Y71" s="43"/>
       <c r="Z71" s="43"/>
@@ -6664,7 +6794,7 @@
       </c>
       <c r="F72" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" s="40" t="s">
         <v>61</v>
@@ -6714,7 +6844,9 @@
       <c r="V72" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W72" s="43"/>
+      <c r="W72" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X72" s="43"/>
       <c r="Y72" s="43"/>
       <c r="Z72" s="43"/>
@@ -6739,7 +6871,7 @@
       </c>
       <c r="F73" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G73" s="41" t="s">
         <v>60</v>
@@ -6789,7 +6921,9 @@
       <c r="V73" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W73" s="43"/>
+      <c r="W73" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X73" s="43"/>
       <c r="Y73" s="43"/>
       <c r="Z73" s="43"/>
@@ -6810,7 +6944,7 @@
       </c>
       <c r="E74" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="39">
         <f t="shared" si="2"/>
@@ -6864,7 +6998,9 @@
       <c r="V74" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W74" s="43"/>
+      <c r="W74" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X74" s="43"/>
       <c r="Y74" s="43"/>
       <c r="Z74" s="43"/>
@@ -6889,7 +7025,7 @@
       </c>
       <c r="F75" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>61</v>
@@ -6939,7 +7075,9 @@
       <c r="V75" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W75" s="43"/>
+      <c r="W75" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X75" s="43"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="43"/>
@@ -6964,7 +7102,7 @@
       </c>
       <c r="F76" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" s="41" t="s">
         <v>60</v>
@@ -7014,7 +7152,9 @@
       <c r="V76" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W76" s="43"/>
+      <c r="W76" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X76" s="43"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="43"/>
@@ -7035,7 +7175,7 @@
       </c>
       <c r="E77" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="39">
         <f t="shared" si="2"/>
@@ -7089,7 +7229,9 @@
       <c r="V77" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W77" s="43"/>
+      <c r="W77" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X77" s="43"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="43"/>
@@ -7114,7 +7256,7 @@
       </c>
       <c r="F78" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G78" s="40" t="s">
         <v>61</v>
@@ -7164,7 +7306,9 @@
       <c r="V78" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W78" s="43"/>
+      <c r="W78" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X78" s="43"/>
       <c r="Y78" s="43"/>
       <c r="Z78" s="43"/>
@@ -7189,7 +7333,7 @@
       </c>
       <c r="F79" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" s="40" t="s">
         <v>61</v>
@@ -7239,7 +7383,9 @@
       <c r="V79" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W79" s="43"/>
+      <c r="W79" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X79" s="43"/>
       <c r="Y79" s="43"/>
       <c r="Z79" s="43"/>
@@ -7264,7 +7410,7 @@
       </c>
       <c r="F80" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>61</v>
@@ -7314,7 +7460,9 @@
       <c r="V80" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W80" s="43"/>
+      <c r="W80" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X80" s="43"/>
       <c r="Y80" s="43"/>
       <c r="Z80" s="43"/>
@@ -7339,7 +7487,7 @@
       </c>
       <c r="F81" s="39">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G81" s="40" t="s">
         <v>61</v>
@@ -7389,7 +7537,9 @@
       <c r="V81" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W81" s="43"/>
+      <c r="W81" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X81" s="43"/>
       <c r="Y81" s="43"/>
       <c r="Z81" s="43"/>
@@ -7414,7 +7564,7 @@
       </c>
       <c r="F82" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" s="40" t="s">
         <v>61</v>
@@ -7464,7 +7614,9 @@
       <c r="V82" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W82" s="43"/>
+      <c r="W82" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X82" s="43"/>
       <c r="Y82" s="43"/>
       <c r="Z82" s="43"/>
@@ -7489,7 +7641,7 @@
       </c>
       <c r="F83" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G83" s="40" t="s">
         <v>61</v>
@@ -7539,7 +7691,9 @@
       <c r="V83" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W83" s="43"/>
+      <c r="W83" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X83" s="43"/>
       <c r="Y83" s="43"/>
       <c r="Z83" s="43"/>
@@ -7564,7 +7718,7 @@
       </c>
       <c r="F84" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" s="40" t="s">
         <v>61</v>
@@ -7614,7 +7768,9 @@
       <c r="V84" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="W84" s="43"/>
+      <c r="W84" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="X84" s="43"/>
       <c r="Y84" s="43"/>
       <c r="Z84" s="43"/>
@@ -7635,7 +7791,7 @@
       </c>
       <c r="E85" s="39">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F85" s="39">
         <f t="shared" si="2"/>
@@ -7689,7 +7845,9 @@
       <c r="V85" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="W85" s="43"/>
+      <c r="W85" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X85" s="43"/>
       <c r="Y85" s="43"/>
       <c r="Z85" s="43"/>
@@ -7718,7 +7876,7 @@
       <c r="T86" s="48"/>
       <c r="U86" s="48"/>
       <c r="V86" s="42"/>
-      <c r="W86" s="43"/>
+      <c r="W86" s="48"/>
       <c r="X86" s="43"/>
       <c r="Y86" s="43"/>
       <c r="Z86" s="43"/>
@@ -7747,7 +7905,7 @@
       <c r="T87" s="48"/>
       <c r="U87" s="48"/>
       <c r="V87" s="42"/>
-      <c r="W87" s="43"/>
+      <c r="W87" s="48"/>
       <c r="X87" s="43"/>
       <c r="Y87" s="43"/>
       <c r="Z87" s="43"/>
@@ -7776,7 +7934,7 @@
       <c r="T88" s="48"/>
       <c r="U88" s="48"/>
       <c r="V88" s="42"/>
-      <c r="W88" s="43"/>
+      <c r="W88" s="48"/>
       <c r="X88" s="43"/>
       <c r="Y88" s="43"/>
       <c r="Z88" s="43"/>
@@ -7805,7 +7963,7 @@
       <c r="T89" s="48"/>
       <c r="U89" s="48"/>
       <c r="V89" s="48"/>
-      <c r="W89" s="43"/>
+      <c r="W89" s="48"/>
       <c r="X89" s="43"/>
       <c r="Y89" s="43"/>
       <c r="Z89" s="43"/>
@@ -7834,7 +7992,7 @@
       <c r="T90" s="48"/>
       <c r="U90" s="48"/>
       <c r="V90" s="48"/>
-      <c r="W90" s="43"/>
+      <c r="W90" s="48"/>
       <c r="X90" s="43"/>
       <c r="Y90" s="43"/>
       <c r="Z90" s="43"/>
@@ -7863,7 +8021,7 @@
       <c r="T91" s="48"/>
       <c r="U91" s="48"/>
       <c r="V91" s="48"/>
-      <c r="W91" s="43"/>
+      <c r="W91" s="48"/>
       <c r="X91" s="43"/>
       <c r="Y91" s="43"/>
       <c r="Z91" s="43"/>
@@ -7892,7 +8050,7 @@
       <c r="T92" s="51"/>
       <c r="U92" s="51"/>
       <c r="V92" s="51"/>
-      <c r="W92" s="49"/>
+      <c r="W92" s="51"/>
       <c r="X92" s="49"/>
       <c r="Y92" s="49"/>
       <c r="Z92" s="49"/>
@@ -7921,7 +8079,7 @@
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
-      <c r="W93" s="7"/>
+      <c r="W93" s="6"/>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
@@ -7950,7 +8108,7 @@
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
-      <c r="W94" s="7"/>
+      <c r="W94" s="6"/>
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
@@ -7979,7 +8137,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
-      <c r="W95" s="7"/>
+      <c r="W95" s="6"/>
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
@@ -8008,7 +8166,7 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
-      <c r="W96" s="7"/>
+      <c r="W96" s="6"/>
       <c r="X96" s="7"/>
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
@@ -8037,7 +8195,7 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
-      <c r="W97" s="7"/>
+      <c r="W97" s="6"/>
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
@@ -8066,7 +8224,7 @@
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
-      <c r="W98" s="7"/>
+      <c r="W98" s="6"/>
       <c r="X98" s="7"/>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
@@ -8095,7 +8253,7 @@
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
-      <c r="W99" s="7"/>
+      <c r="W99" s="6"/>
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
@@ -8124,7 +8282,7 @@
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
-      <c r="W100" s="7"/>
+      <c r="W100" s="6"/>
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
@@ -8153,7 +8311,7 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
-      <c r="W101" s="7"/>
+      <c r="W101" s="6"/>
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
@@ -8182,7 +8340,7 @@
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
-      <c r="W102" s="7"/>
+      <c r="W102" s="6"/>
       <c r="X102" s="7"/>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
@@ -8211,7 +8369,7 @@
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
-      <c r="W103" s="7"/>
+      <c r="W103" s="6"/>
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
@@ -8240,7 +8398,7 @@
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
-      <c r="W104" s="7"/>
+      <c r="W104" s="6"/>
       <c r="X104" s="7"/>
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
@@ -8269,7 +8427,7 @@
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
-      <c r="W105" s="7"/>
+      <c r="W105" s="6"/>
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
@@ -8298,7 +8456,7 @@
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
-      <c r="W106" s="7"/>
+      <c r="W106" s="6"/>
       <c r="X106" s="7"/>
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
@@ -8327,7 +8485,7 @@
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
-      <c r="W107" s="7"/>
+      <c r="W107" s="6"/>
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
@@ -8356,7 +8514,7 @@
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
-      <c r="W108" s="7"/>
+      <c r="W108" s="6"/>
       <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
@@ -8385,7 +8543,7 @@
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
-      <c r="W109" s="7"/>
+      <c r="W109" s="6"/>
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
@@ -8414,7 +8572,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
-      <c r="W110" s="7"/>
+      <c r="W110" s="6"/>
       <c r="X110" s="7"/>
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
@@ -8443,7 +8601,7 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
-      <c r="W111" s="7"/>
+      <c r="W111" s="6"/>
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
@@ -8472,7 +8630,7 @@
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
-      <c r="W112" s="7"/>
+      <c r="W112" s="6"/>
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
@@ -8501,7 +8659,7 @@
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
-      <c r="W113" s="7"/>
+      <c r="W113" s="6"/>
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
@@ -8530,7 +8688,7 @@
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
-      <c r="W114" s="7"/>
+      <c r="W114" s="6"/>
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
@@ -8559,7 +8717,7 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
-      <c r="W115" s="7"/>
+      <c r="W115" s="6"/>
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
@@ -8588,7 +8746,7 @@
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
-      <c r="W116" s="7"/>
+      <c r="W116" s="6"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
@@ -8617,7 +8775,7 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
-      <c r="W117" s="7"/>
+      <c r="W117" s="6"/>
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
@@ -8646,7 +8804,7 @@
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
       <c r="V118" s="6"/>
-      <c r="W118" s="7"/>
+      <c r="W118" s="6"/>
       <c r="X118" s="7"/>
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
@@ -8675,7 +8833,7 @@
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
       <c r="V119" s="6"/>
-      <c r="W119" s="7"/>
+      <c r="W119" s="6"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
@@ -8704,7 +8862,7 @@
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
       <c r="V120" s="6"/>
-      <c r="W120" s="7"/>
+      <c r="W120" s="6"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
@@ -8733,7 +8891,7 @@
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
       <c r="V121" s="6"/>
-      <c r="W121" s="7"/>
+      <c r="W121" s="6"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
@@ -8762,7 +8920,7 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
-      <c r="W122" s="7"/>
+      <c r="W122" s="6"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
@@ -8791,7 +8949,7 @@
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
-      <c r="W123" s="7"/>
+      <c r="W123" s="6"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
@@ -8820,7 +8978,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="6"/>
-      <c r="W124" s="7"/>
+      <c r="W124" s="6"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
@@ -8849,7 +9007,7 @@
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
       <c r="V125" s="6"/>
-      <c r="W125" s="7"/>
+      <c r="W125" s="6"/>
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
@@ -8878,7 +9036,7 @@
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
-      <c r="W126" s="7"/>
+      <c r="W126" s="6"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
@@ -8907,7 +9065,7 @@
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
       <c r="V127" s="6"/>
-      <c r="W127" s="7"/>
+      <c r="W127" s="6"/>
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
@@ -8936,7 +9094,7 @@
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
       <c r="V128" s="6"/>
-      <c r="W128" s="7"/>
+      <c r="W128" s="6"/>
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
@@ -8965,7 +9123,7 @@
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
       <c r="V129" s="6"/>
-      <c r="W129" s="7"/>
+      <c r="W129" s="6"/>
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
@@ -8994,7 +9152,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="6"/>
-      <c r="W130" s="7"/>
+      <c r="W130" s="6"/>
       <c r="X130" s="7"/>
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
@@ -9023,7 +9181,7 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
-      <c r="W131" s="7"/>
+      <c r="W131" s="6"/>
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
@@ -9052,7 +9210,7 @@
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
       <c r="V132" s="6"/>
-      <c r="W132" s="7"/>
+      <c r="W132" s="6"/>
       <c r="X132" s="7"/>
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
@@ -9081,7 +9239,7 @@
       <c r="T133" s="6"/>
       <c r="U133" s="6"/>
       <c r="V133" s="6"/>
-      <c r="W133" s="7"/>
+      <c r="W133" s="6"/>
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
@@ -9110,7 +9268,7 @@
       <c r="T134" s="6"/>
       <c r="U134" s="6"/>
       <c r="V134" s="6"/>
-      <c r="W134" s="7"/>
+      <c r="W134" s="6"/>
       <c r="X134" s="7"/>
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
@@ -9139,7 +9297,7 @@
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
-      <c r="W135" s="7"/>
+      <c r="W135" s="6"/>
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
       <c r="Z135" s="7"/>
@@ -9168,7 +9326,7 @@
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
       <c r="V136" s="6"/>
-      <c r="W136" s="7"/>
+      <c r="W136" s="6"/>
       <c r="X136" s="7"/>
       <c r="Y136" s="7"/>
       <c r="Z136" s="7"/>
@@ -9197,7 +9355,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
-      <c r="W137" s="7"/>
+      <c r="W137" s="6"/>
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
@@ -9226,7 +9384,7 @@
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
       <c r="V138" s="6"/>
-      <c r="W138" s="7"/>
+      <c r="W138" s="6"/>
       <c r="X138" s="7"/>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
@@ -9255,7 +9413,7 @@
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
       <c r="V139" s="6"/>
-      <c r="W139" s="7"/>
+      <c r="W139" s="6"/>
       <c r="X139" s="7"/>
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
@@ -9284,7 +9442,7 @@
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
-      <c r="W140" s="7"/>
+      <c r="W140" s="6"/>
       <c r="X140" s="7"/>
       <c r="Y140" s="7"/>
       <c r="Z140" s="7"/>
@@ -9313,7 +9471,7 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
-      <c r="W141" s="7"/>
+      <c r="W141" s="6"/>
       <c r="X141" s="7"/>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
@@ -9342,7 +9500,7 @@
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
-      <c r="W142" s="7"/>
+      <c r="W142" s="6"/>
       <c r="X142" s="7"/>
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
@@ -9371,7 +9529,7 @@
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
-      <c r="W143" s="7"/>
+      <c r="W143" s="6"/>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
       <c r="Z143" s="7"/>
@@ -9400,7 +9558,7 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
-      <c r="W144" s="7"/>
+      <c r="W144" s="6"/>
       <c r="X144" s="7"/>
       <c r="Y144" s="7"/>
       <c r="Z144" s="7"/>
@@ -9429,7 +9587,7 @@
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
-      <c r="W145" s="7"/>
+      <c r="W145" s="6"/>
       <c r="X145" s="7"/>
       <c r="Y145" s="7"/>
       <c r="Z145" s="7"/>
@@ -9458,7 +9616,7 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
-      <c r="W146" s="7"/>
+      <c r="W146" s="6"/>
       <c r="X146" s="7"/>
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
@@ -9487,7 +9645,7 @@
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
-      <c r="W147" s="7"/>
+      <c r="W147" s="6"/>
       <c r="X147" s="7"/>
       <c r="Y147" s="7"/>
       <c r="Z147" s="7"/>
@@ -9516,7 +9674,7 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
-      <c r="W148" s="7"/>
+      <c r="W148" s="6"/>
       <c r="X148" s="7"/>
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
@@ -9545,7 +9703,7 @@
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
-      <c r="W149" s="7"/>
+      <c r="W149" s="6"/>
       <c r="X149" s="7"/>
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
@@ -9574,7 +9732,7 @@
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
-      <c r="W150" s="7"/>
+      <c r="W150" s="6"/>
       <c r="X150" s="7"/>
       <c r="Y150" s="7"/>
       <c r="Z150" s="7"/>
@@ -9603,7 +9761,7 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="6"/>
-      <c r="W151" s="7"/>
+      <c r="W151" s="6"/>
       <c r="X151" s="7"/>
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
@@ -9632,7 +9790,7 @@
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
       <c r="V152" s="6"/>
-      <c r="W152" s="7"/>
+      <c r="W152" s="6"/>
       <c r="X152" s="7"/>
       <c r="Y152" s="7"/>
       <c r="Z152" s="7"/>
@@ -9661,7 +9819,7 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
-      <c r="W153" s="7"/>
+      <c r="W153" s="6"/>
       <c r="X153" s="7"/>
       <c r="Y153" s="7"/>
       <c r="Z153" s="7"/>
@@ -9690,7 +9848,7 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
-      <c r="W154" s="7"/>
+      <c r="W154" s="6"/>
       <c r="X154" s="7"/>
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
@@ -9719,7 +9877,7 @@
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
-      <c r="W155" s="7"/>
+      <c r="W155" s="6"/>
       <c r="X155" s="7"/>
       <c r="Y155" s="7"/>
       <c r="Z155" s="7"/>
@@ -9748,7 +9906,7 @@
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
-      <c r="W156" s="7"/>
+      <c r="W156" s="6"/>
       <c r="X156" s="7"/>
       <c r="Y156" s="7"/>
       <c r="Z156" s="7"/>
@@ -9777,7 +9935,7 @@
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
-      <c r="W157" s="7"/>
+      <c r="W157" s="6"/>
       <c r="X157" s="7"/>
       <c r="Y157" s="7"/>
       <c r="Z157" s="7"/>
@@ -9806,7 +9964,7 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
-      <c r="W158" s="7"/>
+      <c r="W158" s="6"/>
       <c r="X158" s="7"/>
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
@@ -9835,7 +9993,7 @@
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
-      <c r="W159" s="7"/>
+      <c r="W159" s="6"/>
       <c r="X159" s="7"/>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
@@ -9864,7 +10022,7 @@
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
-      <c r="W160" s="7"/>
+      <c r="W160" s="6"/>
       <c r="X160" s="7"/>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
@@ -9893,7 +10051,7 @@
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
-      <c r="W161" s="7"/>
+      <c r="W161" s="6"/>
       <c r="X161" s="7"/>
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
@@ -9922,7 +10080,7 @@
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
-      <c r="W162" s="7"/>
+      <c r="W162" s="6"/>
       <c r="X162" s="7"/>
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
@@ -9951,7 +10109,7 @@
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
-      <c r="W163" s="7"/>
+      <c r="W163" s="6"/>
       <c r="X163" s="7"/>
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
@@ -9980,7 +10138,7 @@
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
-      <c r="W164" s="7"/>
+      <c r="W164" s="6"/>
       <c r="X164" s="7"/>
       <c r="Y164" s="7"/>
       <c r="Z164" s="7"/>
@@ -10009,7 +10167,7 @@
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
-      <c r="W165" s="7"/>
+      <c r="W165" s="6"/>
       <c r="X165" s="7"/>
       <c r="Y165" s="7"/>
       <c r="Z165" s="7"/>
@@ -10038,7 +10196,7 @@
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
-      <c r="W166" s="7"/>
+      <c r="W166" s="6"/>
       <c r="X166" s="7"/>
       <c r="Y166" s="7"/>
       <c r="Z166" s="7"/>
@@ -10067,7 +10225,7 @@
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
-      <c r="W167" s="7"/>
+      <c r="W167" s="6"/>
       <c r="X167" s="7"/>
       <c r="Y167" s="7"/>
       <c r="Z167" s="7"/>
@@ -10096,7 +10254,7 @@
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>
-      <c r="W168" s="7"/>
+      <c r="W168" s="6"/>
       <c r="X168" s="7"/>
       <c r="Y168" s="7"/>
       <c r="Z168" s="7"/>
@@ -10125,7 +10283,7 @@
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
       <c r="V169" s="6"/>
-      <c r="W169" s="7"/>
+      <c r="W169" s="6"/>
       <c r="X169" s="7"/>
       <c r="Y169" s="7"/>
       <c r="Z169" s="7"/>
@@ -10154,7 +10312,7 @@
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
       <c r="V170" s="6"/>
-      <c r="W170" s="7"/>
+      <c r="W170" s="6"/>
       <c r="X170" s="7"/>
       <c r="Y170" s="7"/>
       <c r="Z170" s="7"/>
@@ -10183,7 +10341,7 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="6"/>
-      <c r="W171" s="7"/>
+      <c r="W171" s="6"/>
       <c r="X171" s="7"/>
       <c r="Y171" s="7"/>
       <c r="Z171" s="7"/>
@@ -10212,7 +10370,7 @@
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
       <c r="V172" s="6"/>
-      <c r="W172" s="7"/>
+      <c r="W172" s="6"/>
       <c r="X172" s="7"/>
       <c r="Y172" s="7"/>
       <c r="Z172" s="7"/>
@@ -10241,7 +10399,7 @@
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
-      <c r="W173" s="7"/>
+      <c r="W173" s="6"/>
       <c r="X173" s="7"/>
       <c r="Y173" s="7"/>
       <c r="Z173" s="7"/>
@@ -10270,7 +10428,7 @@
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6"/>
-      <c r="W174" s="7"/>
+      <c r="W174" s="6"/>
       <c r="X174" s="7"/>
       <c r="Y174" s="7"/>
       <c r="Z174" s="7"/>
@@ -10299,7 +10457,7 @@
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
       <c r="V175" s="6"/>
-      <c r="W175" s="7"/>
+      <c r="W175" s="6"/>
       <c r="X175" s="7"/>
       <c r="Y175" s="7"/>
       <c r="Z175" s="7"/>
@@ -10328,7 +10486,7 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
-      <c r="W176" s="7"/>
+      <c r="W176" s="6"/>
       <c r="X176" s="7"/>
       <c r="Y176" s="7"/>
       <c r="Z176" s="7"/>
@@ -10357,7 +10515,7 @@
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
-      <c r="W177" s="7"/>
+      <c r="W177" s="6"/>
       <c r="X177" s="7"/>
       <c r="Y177" s="7"/>
       <c r="Z177" s="7"/>
@@ -10386,7 +10544,7 @@
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
-      <c r="W178" s="7"/>
+      <c r="W178" s="6"/>
       <c r="X178" s="7"/>
       <c r="Y178" s="7"/>
       <c r="Z178" s="7"/>
@@ -10415,7 +10573,7 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="6"/>
-      <c r="W179" s="7"/>
+      <c r="W179" s="6"/>
       <c r="X179" s="7"/>
       <c r="Y179" s="7"/>
       <c r="Z179" s="7"/>
@@ -10444,7 +10602,7 @@
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
-      <c r="W180" s="7"/>
+      <c r="W180" s="6"/>
       <c r="X180" s="7"/>
       <c r="Y180" s="7"/>
       <c r="Z180" s="7"/>
@@ -10473,7 +10631,7 @@
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
-      <c r="W181" s="7"/>
+      <c r="W181" s="6"/>
       <c r="X181" s="7"/>
       <c r="Y181" s="7"/>
       <c r="Z181" s="7"/>
@@ -10502,7 +10660,7 @@
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
       <c r="V182" s="6"/>
-      <c r="W182" s="7"/>
+      <c r="W182" s="6"/>
       <c r="X182" s="7"/>
       <c r="Y182" s="7"/>
       <c r="Z182" s="7"/>
@@ -10531,7 +10689,7 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
-      <c r="W183" s="7"/>
+      <c r="W183" s="6"/>
       <c r="X183" s="7"/>
       <c r="Y183" s="7"/>
       <c r="Z183" s="7"/>
@@ -10560,7 +10718,7 @@
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
-      <c r="W184" s="7"/>
+      <c r="W184" s="6"/>
       <c r="X184" s="7"/>
       <c r="Y184" s="7"/>
       <c r="Z184" s="7"/>
@@ -10589,7 +10747,7 @@
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
-      <c r="W185" s="7"/>
+      <c r="W185" s="6"/>
       <c r="X185" s="7"/>
       <c r="Y185" s="7"/>
       <c r="Z185" s="7"/>
@@ -10618,7 +10776,7 @@
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
-      <c r="W186" s="7"/>
+      <c r="W186" s="6"/>
       <c r="X186" s="7"/>
       <c r="Y186" s="7"/>
       <c r="Z186" s="7"/>
@@ -10647,7 +10805,7 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
-      <c r="W187" s="7"/>
+      <c r="W187" s="6"/>
       <c r="X187" s="7"/>
       <c r="Y187" s="7"/>
       <c r="Z187" s="7"/>
@@ -10676,7 +10834,7 @@
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
-      <c r="W188" s="7"/>
+      <c r="W188" s="6"/>
       <c r="X188" s="7"/>
       <c r="Y188" s="7"/>
       <c r="Z188" s="7"/>
@@ -10705,7 +10863,7 @@
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
       <c r="V189" s="6"/>
-      <c r="W189" s="7"/>
+      <c r="W189" s="6"/>
       <c r="X189" s="7"/>
       <c r="Y189" s="7"/>
       <c r="Z189" s="7"/>
@@ -10734,7 +10892,7 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6"/>
-      <c r="W190" s="7"/>
+      <c r="W190" s="6"/>
       <c r="X190" s="7"/>
       <c r="Y190" s="7"/>
       <c r="Z190" s="7"/>
@@ -10763,7 +10921,7 @@
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
       <c r="V191" s="6"/>
-      <c r="W191" s="7"/>
+      <c r="W191" s="6"/>
       <c r="X191" s="7"/>
       <c r="Y191" s="7"/>
       <c r="Z191" s="7"/>
@@ -10792,7 +10950,7 @@
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
       <c r="V192" s="6"/>
-      <c r="W192" s="7"/>
+      <c r="W192" s="6"/>
       <c r="X192" s="7"/>
       <c r="Y192" s="7"/>
       <c r="Z192" s="7"/>
@@ -10821,7 +10979,7 @@
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
       <c r="V193" s="6"/>
-      <c r="W193" s="7"/>
+      <c r="W193" s="6"/>
       <c r="X193" s="7"/>
       <c r="Y193" s="7"/>
       <c r="Z193" s="7"/>
@@ -10850,7 +11008,7 @@
       <c r="T194" s="6"/>
       <c r="U194" s="6"/>
       <c r="V194" s="6"/>
-      <c r="W194" s="7"/>
+      <c r="W194" s="6"/>
       <c r="X194" s="7"/>
       <c r="Y194" s="7"/>
       <c r="Z194" s="7"/>
@@ -10879,7 +11037,7 @@
       <c r="T195" s="6"/>
       <c r="U195" s="6"/>
       <c r="V195" s="6"/>
-      <c r="W195" s="7"/>
+      <c r="W195" s="6"/>
       <c r="X195" s="7"/>
       <c r="Y195" s="7"/>
       <c r="Z195" s="7"/>
@@ -10908,7 +11066,7 @@
       <c r="T196" s="6"/>
       <c r="U196" s="6"/>
       <c r="V196" s="6"/>
-      <c r="W196" s="7"/>
+      <c r="W196" s="6"/>
       <c r="X196" s="7"/>
       <c r="Y196" s="7"/>
       <c r="Z196" s="7"/>
@@ -10937,7 +11095,7 @@
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="6"/>
-      <c r="W197" s="7"/>
+      <c r="W197" s="6"/>
       <c r="X197" s="7"/>
       <c r="Y197" s="7"/>
       <c r="Z197" s="7"/>
@@ -10966,7 +11124,7 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="6"/>
-      <c r="W198" s="7"/>
+      <c r="W198" s="6"/>
       <c r="X198" s="7"/>
       <c r="Y198" s="7"/>
       <c r="Z198" s="7"/>
@@ -10995,7 +11153,7 @@
       <c r="T199" s="6"/>
       <c r="U199" s="6"/>
       <c r="V199" s="6"/>
-      <c r="W199" s="7"/>
+      <c r="W199" s="6"/>
       <c r="X199" s="7"/>
       <c r="Y199" s="7"/>
       <c r="Z199" s="7"/>
@@ -11024,7 +11182,7 @@
       <c r="T200" s="6"/>
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
-      <c r="W200" s="7"/>
+      <c r="W200" s="6"/>
       <c r="X200" s="7"/>
       <c r="Y200" s="7"/>
       <c r="Z200" s="7"/>
@@ -11053,7 +11211,7 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="6"/>
-      <c r="W201" s="7"/>
+      <c r="W201" s="6"/>
       <c r="X201" s="7"/>
       <c r="Y201" s="7"/>
       <c r="Z201" s="7"/>
@@ -11082,7 +11240,7 @@
       <c r="T202" s="6"/>
       <c r="U202" s="6"/>
       <c r="V202" s="6"/>
-      <c r="W202" s="7"/>
+      <c r="W202" s="6"/>
       <c r="X202" s="7"/>
       <c r="Y202" s="7"/>
       <c r="Z202" s="7"/>
@@ -11111,7 +11269,7 @@
       <c r="T203" s="6"/>
       <c r="U203" s="6"/>
       <c r="V203" s="6"/>
-      <c r="W203" s="7"/>
+      <c r="W203" s="6"/>
       <c r="X203" s="7"/>
       <c r="Y203" s="7"/>
       <c r="Z203" s="7"/>
@@ -11140,7 +11298,7 @@
       <c r="T204" s="6"/>
       <c r="U204" s="6"/>
       <c r="V204" s="6"/>
-      <c r="W204" s="7"/>
+      <c r="W204" s="6"/>
       <c r="X204" s="7"/>
       <c r="Y204" s="7"/>
       <c r="Z204" s="7"/>
@@ -11169,7 +11327,7 @@
       <c r="T205" s="6"/>
       <c r="U205" s="6"/>
       <c r="V205" s="6"/>
-      <c r="W205" s="7"/>
+      <c r="W205" s="6"/>
       <c r="X205" s="7"/>
       <c r="Y205" s="7"/>
       <c r="Z205" s="7"/>
@@ -11198,7 +11356,7 @@
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
       <c r="V206" s="6"/>
-      <c r="W206" s="7"/>
+      <c r="W206" s="6"/>
       <c r="X206" s="7"/>
       <c r="Y206" s="7"/>
       <c r="Z206" s="7"/>
@@ -11227,7 +11385,7 @@
       <c r="T207" s="6"/>
       <c r="U207" s="6"/>
       <c r="V207" s="6"/>
-      <c r="W207" s="7"/>
+      <c r="W207" s="6"/>
       <c r="X207" s="7"/>
       <c r="Y207" s="7"/>
       <c r="Z207" s="7"/>
@@ -11256,7 +11414,7 @@
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="6"/>
-      <c r="W208" s="7"/>
+      <c r="W208" s="6"/>
       <c r="X208" s="7"/>
       <c r="Y208" s="7"/>
       <c r="Z208" s="7"/>
@@ -11285,7 +11443,7 @@
       <c r="T209" s="6"/>
       <c r="U209" s="6"/>
       <c r="V209" s="6"/>
-      <c r="W209" s="7"/>
+      <c r="W209" s="6"/>
       <c r="X209" s="7"/>
       <c r="Y209" s="7"/>
       <c r="Z209" s="7"/>
@@ -11314,7 +11472,7 @@
       <c r="T210" s="6"/>
       <c r="U210" s="6"/>
       <c r="V210" s="6"/>
-      <c r="W210" s="7"/>
+      <c r="W210" s="6"/>
       <c r="X210" s="7"/>
       <c r="Y210" s="7"/>
       <c r="Z210" s="7"/>
@@ -11343,7 +11501,7 @@
       <c r="T211" s="6"/>
       <c r="U211" s="6"/>
       <c r="V211" s="6"/>
-      <c r="W211" s="7"/>
+      <c r="W211" s="6"/>
       <c r="X211" s="7"/>
       <c r="Y211" s="7"/>
       <c r="Z211" s="7"/>
@@ -11372,7 +11530,7 @@
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="6"/>
-      <c r="W212" s="7"/>
+      <c r="W212" s="6"/>
       <c r="X212" s="7"/>
       <c r="Y212" s="7"/>
       <c r="Z212" s="7"/>
@@ -11401,7 +11559,7 @@
       <c r="T213" s="6"/>
       <c r="U213" s="6"/>
       <c r="V213" s="6"/>
-      <c r="W213" s="7"/>
+      <c r="W213" s="6"/>
       <c r="X213" s="7"/>
       <c r="Y213" s="7"/>
       <c r="Z213" s="7"/>
@@ -11430,7 +11588,7 @@
       <c r="T214" s="6"/>
       <c r="U214" s="6"/>
       <c r="V214" s="6"/>
-      <c r="W214" s="7"/>
+      <c r="W214" s="6"/>
       <c r="X214" s="7"/>
       <c r="Y214" s="7"/>
       <c r="Z214" s="7"/>
@@ -11459,7 +11617,7 @@
       <c r="T215" s="6"/>
       <c r="U215" s="6"/>
       <c r="V215" s="6"/>
-      <c r="W215" s="7"/>
+      <c r="W215" s="6"/>
       <c r="X215" s="7"/>
       <c r="Y215" s="7"/>
       <c r="Z215" s="7"/>
@@ -11488,7 +11646,7 @@
       <c r="T216" s="6"/>
       <c r="U216" s="6"/>
       <c r="V216" s="6"/>
-      <c r="W216" s="7"/>
+      <c r="W216" s="6"/>
       <c r="X216" s="7"/>
       <c r="Y216" s="7"/>
       <c r="Z216" s="7"/>
@@ -11517,7 +11675,7 @@
       <c r="T217" s="6"/>
       <c r="U217" s="6"/>
       <c r="V217" s="6"/>
-      <c r="W217" s="7"/>
+      <c r="W217" s="6"/>
       <c r="X217" s="7"/>
       <c r="Y217" s="7"/>
       <c r="Z217" s="7"/>
@@ -11546,7 +11704,7 @@
       <c r="T218" s="6"/>
       <c r="U218" s="6"/>
       <c r="V218" s="6"/>
-      <c r="W218" s="7"/>
+      <c r="W218" s="6"/>
       <c r="X218" s="7"/>
       <c r="Y218" s="7"/>
       <c r="Z218" s="7"/>
@@ -11575,7 +11733,7 @@
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
       <c r="V219" s="6"/>
-      <c r="W219" s="7"/>
+      <c r="W219" s="6"/>
       <c r="X219" s="7"/>
       <c r="Y219" s="7"/>
       <c r="Z219" s="7"/>
@@ -11604,7 +11762,7 @@
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="6"/>
-      <c r="W220" s="7"/>
+      <c r="W220" s="6"/>
       <c r="X220" s="7"/>
       <c r="Y220" s="7"/>
       <c r="Z220" s="7"/>
@@ -11633,7 +11791,7 @@
       <c r="T221" s="6"/>
       <c r="U221" s="6"/>
       <c r="V221" s="6"/>
-      <c r="W221" s="7"/>
+      <c r="W221" s="6"/>
       <c r="X221" s="7"/>
       <c r="Y221" s="7"/>
       <c r="Z221" s="7"/>
@@ -11662,7 +11820,7 @@
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
-      <c r="W222" s="7"/>
+      <c r="W222" s="6"/>
       <c r="X222" s="7"/>
       <c r="Y222" s="7"/>
       <c r="Z222" s="7"/>
@@ -11691,7 +11849,7 @@
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
-      <c r="W223" s="7"/>
+      <c r="W223" s="6"/>
       <c r="X223" s="7"/>
       <c r="Y223" s="7"/>
       <c r="Z223" s="7"/>
@@ -11720,7 +11878,7 @@
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
       <c r="V224" s="6"/>
-      <c r="W224" s="7"/>
+      <c r="W224" s="6"/>
       <c r="X224" s="7"/>
       <c r="Y224" s="7"/>
       <c r="Z224" s="7"/>
@@ -11749,7 +11907,7 @@
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
-      <c r="W225" s="7"/>
+      <c r="W225" s="6"/>
       <c r="X225" s="7"/>
       <c r="Y225" s="7"/>
       <c r="Z225" s="7"/>
@@ -11778,7 +11936,7 @@
       <c r="T226" s="6"/>
       <c r="U226" s="6"/>
       <c r="V226" s="6"/>
-      <c r="W226" s="7"/>
+      <c r="W226" s="6"/>
       <c r="X226" s="7"/>
       <c r="Y226" s="7"/>
       <c r="Z226" s="7"/>
@@ -11807,7 +11965,7 @@
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
       <c r="V227" s="6"/>
-      <c r="W227" s="7"/>
+      <c r="W227" s="6"/>
       <c r="X227" s="7"/>
       <c r="Y227" s="7"/>
       <c r="Z227" s="7"/>
@@ -11836,7 +11994,7 @@
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
       <c r="V228" s="6"/>
-      <c r="W228" s="7"/>
+      <c r="W228" s="6"/>
       <c r="X228" s="7"/>
       <c r="Y228" s="7"/>
       <c r="Z228" s="7"/>
@@ -11865,7 +12023,7 @@
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="6"/>
-      <c r="W229" s="7"/>
+      <c r="W229" s="6"/>
       <c r="X229" s="7"/>
       <c r="Y229" s="7"/>
       <c r="Z229" s="7"/>
@@ -11894,7 +12052,7 @@
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
       <c r="V230" s="6"/>
-      <c r="W230" s="7"/>
+      <c r="W230" s="6"/>
       <c r="X230" s="7"/>
       <c r="Y230" s="7"/>
       <c r="Z230" s="7"/>
@@ -11923,7 +12081,7 @@
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
       <c r="V231" s="6"/>
-      <c r="W231" s="7"/>
+      <c r="W231" s="6"/>
       <c r="X231" s="7"/>
       <c r="Y231" s="7"/>
       <c r="Z231" s="7"/>
@@ -11952,7 +12110,7 @@
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
       <c r="V232" s="6"/>
-      <c r="W232" s="7"/>
+      <c r="W232" s="6"/>
       <c r="X232" s="7"/>
       <c r="Y232" s="7"/>
       <c r="Z232" s="7"/>
@@ -11981,7 +12139,7 @@
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
       <c r="V233" s="6"/>
-      <c r="W233" s="7"/>
+      <c r="W233" s="6"/>
       <c r="X233" s="7"/>
       <c r="Y233" s="7"/>
       <c r="Z233" s="7"/>
@@ -12010,7 +12168,7 @@
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
       <c r="V234" s="6"/>
-      <c r="W234" s="7"/>
+      <c r="W234" s="6"/>
       <c r="X234" s="7"/>
       <c r="Y234" s="7"/>
       <c r="Z234" s="7"/>
@@ -12039,7 +12197,7 @@
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
       <c r="V235" s="6"/>
-      <c r="W235" s="7"/>
+      <c r="W235" s="6"/>
       <c r="X235" s="7"/>
       <c r="Y235" s="7"/>
       <c r="Z235" s="7"/>
@@ -12068,7 +12226,7 @@
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
       <c r="V236" s="6"/>
-      <c r="W236" s="7"/>
+      <c r="W236" s="6"/>
       <c r="X236" s="7"/>
       <c r="Y236" s="7"/>
       <c r="Z236" s="7"/>
@@ -12097,7 +12255,7 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="6"/>
-      <c r="W237" s="7"/>
+      <c r="W237" s="6"/>
       <c r="X237" s="7"/>
       <c r="Y237" s="7"/>
       <c r="Z237" s="7"/>
@@ -12126,7 +12284,7 @@
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
       <c r="V238" s="6"/>
-      <c r="W238" s="7"/>
+      <c r="W238" s="6"/>
       <c r="X238" s="7"/>
       <c r="Y238" s="7"/>
       <c r="Z238" s="7"/>
@@ -12155,7 +12313,7 @@
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
       <c r="V239" s="6"/>
-      <c r="W239" s="7"/>
+      <c r="W239" s="6"/>
       <c r="X239" s="7"/>
       <c r="Y239" s="7"/>
       <c r="Z239" s="7"/>
@@ -12184,7 +12342,7 @@
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
       <c r="V240" s="6"/>
-      <c r="W240" s="7"/>
+      <c r="W240" s="6"/>
       <c r="X240" s="7"/>
       <c r="Y240" s="7"/>
       <c r="Z240" s="7"/>
@@ -12213,7 +12371,7 @@
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
       <c r="V241" s="6"/>
-      <c r="W241" s="7"/>
+      <c r="W241" s="6"/>
       <c r="X241" s="7"/>
       <c r="Y241" s="7"/>
       <c r="Z241" s="7"/>
@@ -12242,7 +12400,7 @@
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="6"/>
-      <c r="W242" s="7"/>
+      <c r="W242" s="6"/>
       <c r="X242" s="7"/>
       <c r="Y242" s="7"/>
       <c r="Z242" s="7"/>
@@ -12271,7 +12429,7 @@
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
       <c r="V243" s="6"/>
-      <c r="W243" s="7"/>
+      <c r="W243" s="6"/>
       <c r="X243" s="7"/>
       <c r="Y243" s="7"/>
       <c r="Z243" s="7"/>
@@ -12300,7 +12458,7 @@
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
       <c r="V244" s="6"/>
-      <c r="W244" s="7"/>
+      <c r="W244" s="6"/>
       <c r="X244" s="7"/>
       <c r="Y244" s="7"/>
       <c r="Z244" s="7"/>
@@ -12329,7 +12487,7 @@
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
       <c r="V245" s="6"/>
-      <c r="W245" s="7"/>
+      <c r="W245" s="6"/>
       <c r="X245" s="7"/>
       <c r="Y245" s="7"/>
       <c r="Z245" s="7"/>
@@ -12358,7 +12516,7 @@
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
       <c r="V246" s="6"/>
-      <c r="W246" s="7"/>
+      <c r="W246" s="6"/>
       <c r="X246" s="7"/>
       <c r="Y246" s="7"/>
       <c r="Z246" s="7"/>
@@ -12387,7 +12545,7 @@
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
       <c r="V247" s="6"/>
-      <c r="W247" s="7"/>
+      <c r="W247" s="6"/>
       <c r="X247" s="7"/>
       <c r="Y247" s="7"/>
       <c r="Z247" s="7"/>
@@ -12416,7 +12574,7 @@
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
       <c r="V248" s="6"/>
-      <c r="W248" s="7"/>
+      <c r="W248" s="6"/>
       <c r="X248" s="7"/>
       <c r="Y248" s="7"/>
       <c r="Z248" s="7"/>
@@ -12445,7 +12603,7 @@
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
       <c r="V249" s="6"/>
-      <c r="W249" s="7"/>
+      <c r="W249" s="6"/>
       <c r="X249" s="7"/>
       <c r="Y249" s="7"/>
       <c r="Z249" s="7"/>
@@ -12474,7 +12632,7 @@
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
       <c r="V250" s="6"/>
-      <c r="W250" s="7"/>
+      <c r="W250" s="6"/>
       <c r="X250" s="7"/>
       <c r="Y250" s="7"/>
       <c r="Z250" s="7"/>
@@ -12503,7 +12661,7 @@
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
       <c r="V251" s="6"/>
-      <c r="W251" s="7"/>
+      <c r="W251" s="6"/>
       <c r="X251" s="7"/>
       <c r="Y251" s="7"/>
       <c r="Z251" s="7"/>
@@ -12532,7 +12690,7 @@
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
       <c r="V252" s="6"/>
-      <c r="W252" s="7"/>
+      <c r="W252" s="6"/>
       <c r="X252" s="7"/>
       <c r="Y252" s="7"/>
       <c r="Z252" s="7"/>
@@ -12561,7 +12719,7 @@
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>
       <c r="V253" s="6"/>
-      <c r="W253" s="7"/>
+      <c r="W253" s="6"/>
       <c r="X253" s="7"/>
       <c r="Y253" s="7"/>
       <c r="Z253" s="7"/>
@@ -12590,7 +12748,7 @@
       <c r="T254" s="6"/>
       <c r="U254" s="6"/>
       <c r="V254" s="6"/>
-      <c r="W254" s="7"/>
+      <c r="W254" s="6"/>
       <c r="X254" s="7"/>
       <c r="Y254" s="7"/>
       <c r="Z254" s="7"/>
@@ -12619,7 +12777,7 @@
       <c r="T255" s="6"/>
       <c r="U255" s="6"/>
       <c r="V255" s="6"/>
-      <c r="W255" s="7"/>
+      <c r="W255" s="6"/>
       <c r="X255" s="7"/>
       <c r="Y255" s="7"/>
       <c r="Z255" s="7"/>
@@ -12648,7 +12806,7 @@
       <c r="T256" s="6"/>
       <c r="U256" s="6"/>
       <c r="V256" s="6"/>
-      <c r="W256" s="7"/>
+      <c r="W256" s="6"/>
       <c r="X256" s="7"/>
       <c r="Y256" s="7"/>
       <c r="Z256" s="7"/>
@@ -12677,7 +12835,7 @@
       <c r="T257" s="6"/>
       <c r="U257" s="6"/>
       <c r="V257" s="6"/>
-      <c r="W257" s="7"/>
+      <c r="W257" s="6"/>
       <c r="X257" s="7"/>
       <c r="Y257" s="7"/>
       <c r="Z257" s="7"/>
@@ -12706,7 +12864,7 @@
       <c r="T258" s="6"/>
       <c r="U258" s="6"/>
       <c r="V258" s="6"/>
-      <c r="W258" s="7"/>
+      <c r="W258" s="6"/>
       <c r="X258" s="7"/>
       <c r="Y258" s="7"/>
       <c r="Z258" s="7"/>
@@ -12735,7 +12893,7 @@
       <c r="T259" s="6"/>
       <c r="U259" s="6"/>
       <c r="V259" s="6"/>
-      <c r="W259" s="7"/>
+      <c r="W259" s="6"/>
       <c r="X259" s="7"/>
       <c r="Y259" s="7"/>
       <c r="Z259" s="7"/>
@@ -12764,7 +12922,7 @@
       <c r="T260" s="6"/>
       <c r="U260" s="6"/>
       <c r="V260" s="6"/>
-      <c r="W260" s="7"/>
+      <c r="W260" s="6"/>
       <c r="X260" s="7"/>
       <c r="Y260" s="7"/>
       <c r="Z260" s="7"/>
@@ -12793,7 +12951,7 @@
       <c r="T261" s="6"/>
       <c r="U261" s="6"/>
       <c r="V261" s="6"/>
-      <c r="W261" s="7"/>
+      <c r="W261" s="6"/>
       <c r="X261" s="7"/>
       <c r="Y261" s="7"/>
       <c r="Z261" s="7"/>
@@ -12822,7 +12980,7 @@
       <c r="T262" s="6"/>
       <c r="U262" s="6"/>
       <c r="V262" s="6"/>
-      <c r="W262" s="7"/>
+      <c r="W262" s="6"/>
       <c r="X262" s="7"/>
       <c r="Y262" s="7"/>
       <c r="Z262" s="7"/>
@@ -12851,7 +13009,7 @@
       <c r="T263" s="6"/>
       <c r="U263" s="6"/>
       <c r="V263" s="6"/>
-      <c r="W263" s="7"/>
+      <c r="W263" s="6"/>
       <c r="X263" s="7"/>
       <c r="Y263" s="7"/>
       <c r="Z263" s="7"/>
@@ -12880,7 +13038,7 @@
       <c r="T264" s="6"/>
       <c r="U264" s="6"/>
       <c r="V264" s="6"/>
-      <c r="W264" s="7"/>
+      <c r="W264" s="6"/>
       <c r="X264" s="7"/>
       <c r="Y264" s="7"/>
       <c r="Z264" s="7"/>
@@ -12909,7 +13067,7 @@
       <c r="T265" s="6"/>
       <c r="U265" s="6"/>
       <c r="V265" s="6"/>
-      <c r="W265" s="7"/>
+      <c r="W265" s="6"/>
       <c r="X265" s="7"/>
       <c r="Y265" s="7"/>
       <c r="Z265" s="7"/>
@@ -12938,7 +13096,7 @@
       <c r="T266" s="6"/>
       <c r="U266" s="6"/>
       <c r="V266" s="6"/>
-      <c r="W266" s="7"/>
+      <c r="W266" s="6"/>
       <c r="X266" s="7"/>
       <c r="Y266" s="7"/>
       <c r="Z266" s="7"/>
@@ -12967,7 +13125,7 @@
       <c r="T267" s="6"/>
       <c r="U267" s="6"/>
       <c r="V267" s="6"/>
-      <c r="W267" s="7"/>
+      <c r="W267" s="6"/>
       <c r="X267" s="7"/>
       <c r="Y267" s="7"/>
       <c r="Z267" s="7"/>
@@ -12996,7 +13154,7 @@
       <c r="T268" s="6"/>
       <c r="U268" s="6"/>
       <c r="V268" s="6"/>
-      <c r="W268" s="7"/>
+      <c r="W268" s="6"/>
       <c r="X268" s="7"/>
       <c r="Y268" s="7"/>
       <c r="Z268" s="7"/>
@@ -13025,7 +13183,7 @@
       <c r="T269" s="6"/>
       <c r="U269" s="6"/>
       <c r="V269" s="6"/>
-      <c r="W269" s="7"/>
+      <c r="W269" s="6"/>
       <c r="X269" s="7"/>
       <c r="Y269" s="7"/>
       <c r="Z269" s="7"/>
@@ -13054,7 +13212,7 @@
       <c r="T270" s="6"/>
       <c r="U270" s="6"/>
       <c r="V270" s="6"/>
-      <c r="W270" s="7"/>
+      <c r="W270" s="6"/>
       <c r="X270" s="7"/>
       <c r="Y270" s="7"/>
       <c r="Z270" s="7"/>
@@ -13083,7 +13241,7 @@
       <c r="T271" s="6"/>
       <c r="U271" s="6"/>
       <c r="V271" s="6"/>
-      <c r="W271" s="7"/>
+      <c r="W271" s="6"/>
       <c r="X271" s="7"/>
       <c r="Y271" s="7"/>
       <c r="Z271" s="7"/>
@@ -13112,7 +13270,7 @@
       <c r="T272" s="6"/>
       <c r="U272" s="6"/>
       <c r="V272" s="6"/>
-      <c r="W272" s="7"/>
+      <c r="W272" s="6"/>
       <c r="X272" s="7"/>
       <c r="Y272" s="7"/>
       <c r="Z272" s="7"/>
@@ -13141,7 +13299,7 @@
       <c r="T273" s="6"/>
       <c r="U273" s="6"/>
       <c r="V273" s="6"/>
-      <c r="W273" s="7"/>
+      <c r="W273" s="6"/>
       <c r="X273" s="7"/>
       <c r="Y273" s="7"/>
       <c r="Z273" s="7"/>
@@ -13170,7 +13328,7 @@
       <c r="T274" s="6"/>
       <c r="U274" s="6"/>
       <c r="V274" s="6"/>
-      <c r="W274" s="7"/>
+      <c r="W274" s="6"/>
       <c r="X274" s="7"/>
       <c r="Y274" s="7"/>
       <c r="Z274" s="7"/>
@@ -13199,7 +13357,7 @@
       <c r="T275" s="6"/>
       <c r="U275" s="6"/>
       <c r="V275" s="6"/>
-      <c r="W275" s="7"/>
+      <c r="W275" s="6"/>
       <c r="X275" s="7"/>
       <c r="Y275" s="7"/>
       <c r="Z275" s="7"/>
@@ -13228,7 +13386,7 @@
       <c r="T276" s="6"/>
       <c r="U276" s="6"/>
       <c r="V276" s="6"/>
-      <c r="W276" s="7"/>
+      <c r="W276" s="6"/>
       <c r="X276" s="7"/>
       <c r="Y276" s="7"/>
       <c r="Z276" s="7"/>
@@ -13257,7 +13415,7 @@
       <c r="T277" s="6"/>
       <c r="U277" s="6"/>
       <c r="V277" s="6"/>
-      <c r="W277" s="7"/>
+      <c r="W277" s="6"/>
       <c r="X277" s="7"/>
       <c r="Y277" s="7"/>
       <c r="Z277" s="7"/>
@@ -13286,7 +13444,7 @@
       <c r="T278" s="6"/>
       <c r="U278" s="6"/>
       <c r="V278" s="6"/>
-      <c r="W278" s="7"/>
+      <c r="W278" s="6"/>
       <c r="X278" s="7"/>
       <c r="Y278" s="7"/>
       <c r="Z278" s="7"/>
@@ -13315,7 +13473,7 @@
       <c r="T279" s="6"/>
       <c r="U279" s="6"/>
       <c r="V279" s="6"/>
-      <c r="W279" s="7"/>
+      <c r="W279" s="6"/>
       <c r="X279" s="7"/>
       <c r="Y279" s="7"/>
       <c r="Z279" s="7"/>
@@ -13344,7 +13502,7 @@
       <c r="T280" s="6"/>
       <c r="U280" s="6"/>
       <c r="V280" s="6"/>
-      <c r="W280" s="7"/>
+      <c r="W280" s="6"/>
       <c r="X280" s="7"/>
       <c r="Y280" s="7"/>
       <c r="Z280" s="7"/>
@@ -13373,7 +13531,7 @@
       <c r="T281" s="6"/>
       <c r="U281" s="6"/>
       <c r="V281" s="6"/>
-      <c r="W281" s="7"/>
+      <c r="W281" s="6"/>
       <c r="X281" s="7"/>
       <c r="Y281" s="7"/>
       <c r="Z281" s="7"/>
@@ -13402,7 +13560,7 @@
       <c r="T282" s="6"/>
       <c r="U282" s="6"/>
       <c r="V282" s="6"/>
-      <c r="W282" s="7"/>
+      <c r="W282" s="6"/>
       <c r="X282" s="7"/>
       <c r="Y282" s="7"/>
       <c r="Z282" s="7"/>
@@ -13431,7 +13589,7 @@
       <c r="T283" s="6"/>
       <c r="U283" s="6"/>
       <c r="V283" s="6"/>
-      <c r="W283" s="7"/>
+      <c r="W283" s="6"/>
       <c r="X283" s="7"/>
       <c r="Y283" s="7"/>
       <c r="Z283" s="7"/>
@@ -13460,7 +13618,7 @@
       <c r="T284" s="6"/>
       <c r="U284" s="6"/>
       <c r="V284" s="6"/>
-      <c r="W284" s="7"/>
+      <c r="W284" s="6"/>
       <c r="X284" s="7"/>
       <c r="Y284" s="7"/>
       <c r="Z284" s="7"/>
@@ -13489,7 +13647,7 @@
       <c r="T285" s="6"/>
       <c r="U285" s="6"/>
       <c r="V285" s="6"/>
-      <c r="W285" s="7"/>
+      <c r="W285" s="6"/>
       <c r="X285" s="7"/>
       <c r="Y285" s="7"/>
       <c r="Z285" s="7"/>
@@ -13518,7 +13676,7 @@
       <c r="T286" s="6"/>
       <c r="U286" s="6"/>
       <c r="V286" s="6"/>
-      <c r="W286" s="7"/>
+      <c r="W286" s="6"/>
       <c r="X286" s="7"/>
       <c r="Y286" s="7"/>
       <c r="Z286" s="7"/>
@@ -13547,7 +13705,7 @@
       <c r="T287" s="6"/>
       <c r="U287" s="6"/>
       <c r="V287" s="6"/>
-      <c r="W287" s="7"/>
+      <c r="W287" s="6"/>
       <c r="X287" s="7"/>
       <c r="Y287" s="7"/>
       <c r="Z287" s="7"/>
@@ -13576,7 +13734,7 @@
       <c r="T288" s="6"/>
       <c r="U288" s="6"/>
       <c r="V288" s="6"/>
-      <c r="W288" s="7"/>
+      <c r="W288" s="6"/>
       <c r="X288" s="7"/>
       <c r="Y288" s="7"/>
       <c r="Z288" s="7"/>
@@ -13605,7 +13763,7 @@
       <c r="T289" s="6"/>
       <c r="U289" s="6"/>
       <c r="V289" s="6"/>
-      <c r="W289" s="7"/>
+      <c r="W289" s="6"/>
       <c r="X289" s="7"/>
       <c r="Y289" s="7"/>
       <c r="Z289" s="7"/>
@@ -13634,7 +13792,7 @@
       <c r="T290" s="6"/>
       <c r="U290" s="6"/>
       <c r="V290" s="6"/>
-      <c r="W290" s="7"/>
+      <c r="W290" s="6"/>
       <c r="X290" s="7"/>
       <c r="Y290" s="7"/>
       <c r="Z290" s="7"/>
@@ -13663,7 +13821,7 @@
       <c r="T291" s="6"/>
       <c r="U291" s="6"/>
       <c r="V291" s="6"/>
-      <c r="W291" s="7"/>
+      <c r="W291" s="6"/>
       <c r="X291" s="7"/>
       <c r="Y291" s="7"/>
       <c r="Z291" s="7"/>
@@ -13676,6 +13834,7 @@
       <c r="T292" s="52"/>
       <c r="U292" s="52"/>
       <c r="V292" s="52"/>
+      <c r="W292" s="52"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="Q293" s="52"/>
@@ -13684,6 +13843,7 @@
       <c r="T293" s="52"/>
       <c r="U293" s="52"/>
       <c r="V293" s="52"/>
+      <c r="W293" s="52"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="Q294" s="52"/>
@@ -13692,6 +13852,7 @@
       <c r="T294" s="52"/>
       <c r="U294" s="52"/>
       <c r="V294" s="52"/>
+      <c r="W294" s="52"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="Q295" s="52"/>
@@ -13700,6 +13861,7 @@
       <c r="T295" s="52"/>
       <c r="U295" s="52"/>
       <c r="V295" s="52"/>
+      <c r="W295" s="52"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="Q296" s="52"/>
@@ -13708,6 +13870,7 @@
       <c r="T296" s="52"/>
       <c r="U296" s="52"/>
       <c r="V296" s="52"/>
+      <c r="W296" s="52"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="Q297" s="52"/>
@@ -13716,6 +13879,7 @@
       <c r="T297" s="52"/>
       <c r="U297" s="52"/>
       <c r="V297" s="52"/>
+      <c r="W297" s="52"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="Q298" s="52"/>
@@ -13724,6 +13888,7 @@
       <c r="T298" s="52"/>
       <c r="U298" s="52"/>
       <c r="V298" s="52"/>
+      <c r="W298" s="52"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="Q299" s="52"/>
@@ -13732,6 +13897,7 @@
       <c r="T299" s="52"/>
       <c r="U299" s="52"/>
       <c r="V299" s="52"/>
+      <c r="W299" s="52"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="Q300" s="52"/>
@@ -13740,6 +13906,7 @@
       <c r="T300" s="52"/>
       <c r="U300" s="52"/>
       <c r="V300" s="52"/>
+      <c r="W300" s="52"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="Q301" s="52"/>
@@ -13748,6 +13915,7 @@
       <c r="T301" s="52"/>
       <c r="U301" s="52"/>
       <c r="V301" s="52"/>
+      <c r="W301" s="52"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="Q302" s="52"/>
@@ -13756,6 +13924,7 @@
       <c r="T302" s="52"/>
       <c r="U302" s="52"/>
       <c r="V302" s="52"/>
+      <c r="W302" s="52"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="Q303" s="52"/>
@@ -13764,6 +13933,7 @@
       <c r="T303" s="52"/>
       <c r="U303" s="52"/>
       <c r="V303" s="52"/>
+      <c r="W303" s="52"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="Q304" s="52"/>
@@ -13772,6 +13942,7 @@
       <c r="T304" s="52"/>
       <c r="U304" s="52"/>
       <c r="V304" s="52"/>
+      <c r="W304" s="52"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="Q305" s="52"/>
@@ -13780,6 +13951,7 @@
       <c r="T305" s="52"/>
       <c r="U305" s="52"/>
       <c r="V305" s="52"/>
+      <c r="W305" s="52"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="Q306" s="52"/>
@@ -13788,6 +13960,7 @@
       <c r="T306" s="52"/>
       <c r="U306" s="52"/>
       <c r="V306" s="52"/>
+      <c r="W306" s="52"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="Q307" s="52"/>
@@ -13796,6 +13969,7 @@
       <c r="T307" s="52"/>
       <c r="U307" s="52"/>
       <c r="V307" s="52"/>
+      <c r="W307" s="52"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="Q308" s="52"/>
@@ -13804,6 +13978,7 @@
       <c r="T308" s="52"/>
       <c r="U308" s="52"/>
       <c r="V308" s="52"/>
+      <c r="W308" s="52"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="Q309" s="52"/>
@@ -13812,6 +13987,7 @@
       <c r="T309" s="52"/>
       <c r="U309" s="52"/>
       <c r="V309" s="52"/>
+      <c r="W309" s="52"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="Q310" s="52"/>
@@ -13820,6 +13996,7 @@
       <c r="T310" s="52"/>
       <c r="U310" s="52"/>
       <c r="V310" s="52"/>
+      <c r="W310" s="52"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="Q311" s="52"/>
@@ -13828,6 +14005,7 @@
       <c r="T311" s="52"/>
       <c r="U311" s="52"/>
       <c r="V311" s="52"/>
+      <c r="W311" s="52"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="Q312" s="52"/>
@@ -13836,6 +14014,7 @@
       <c r="T312" s="52"/>
       <c r="U312" s="52"/>
       <c r="V312" s="52"/>
+      <c r="W312" s="52"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="Q313" s="52"/>
@@ -13844,6 +14023,7 @@
       <c r="T313" s="52"/>
       <c r="U313" s="52"/>
       <c r="V313" s="52"/>
+      <c r="W313" s="52"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="Q314" s="52"/>
@@ -13852,6 +14032,7 @@
       <c r="T314" s="52"/>
       <c r="U314" s="52"/>
       <c r="V314" s="52"/>
+      <c r="W314" s="52"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="Q315" s="52"/>
@@ -13860,6 +14041,7 @@
       <c r="T315" s="52"/>
       <c r="U315" s="52"/>
       <c r="V315" s="52"/>
+      <c r="W315" s="52"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="Q316" s="52"/>
@@ -13868,6 +14050,7 @@
       <c r="T316" s="52"/>
       <c r="U316" s="52"/>
       <c r="V316" s="52"/>
+      <c r="W316" s="52"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="Q317" s="52"/>
@@ -13876,6 +14059,7 @@
       <c r="T317" s="52"/>
       <c r="U317" s="52"/>
       <c r="V317" s="52"/>
+      <c r="W317" s="52"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="Q318" s="52"/>
@@ -13884,6 +14068,7 @@
       <c r="T318" s="52"/>
       <c r="U318" s="52"/>
       <c r="V318" s="52"/>
+      <c r="W318" s="52"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="Q319" s="52"/>
@@ -13892,6 +14077,7 @@
       <c r="T319" s="52"/>
       <c r="U319" s="52"/>
       <c r="V319" s="52"/>
+      <c r="W319" s="52"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="Q320" s="52"/>
@@ -13900,6 +14086,7 @@
       <c r="T320" s="52"/>
       <c r="U320" s="52"/>
       <c r="V320" s="52"/>
+      <c r="W320" s="52"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="Q321" s="52"/>
@@ -13908,6 +14095,7 @@
       <c r="T321" s="52"/>
       <c r="U321" s="52"/>
       <c r="V321" s="52"/>
+      <c r="W321" s="52"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="Q322" s="52"/>
@@ -13916,6 +14104,7 @@
       <c r="T322" s="52"/>
       <c r="U322" s="52"/>
       <c r="V322" s="52"/>
+      <c r="W322" s="52"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="Q323" s="52"/>
@@ -13924,6 +14113,7 @@
       <c r="T323" s="52"/>
       <c r="U323" s="52"/>
       <c r="V323" s="52"/>
+      <c r="W323" s="52"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="Q324" s="52"/>
@@ -13932,6 +14122,7 @@
       <c r="T324" s="52"/>
       <c r="U324" s="52"/>
       <c r="V324" s="52"/>
+      <c r="W324" s="52"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="Q325" s="52"/>
@@ -13940,6 +14131,7 @@
       <c r="T325" s="52"/>
       <c r="U325" s="52"/>
       <c r="V325" s="52"/>
+      <c r="W325" s="52"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="Q326" s="52"/>
@@ -13948,6 +14140,7 @@
       <c r="T326" s="52"/>
       <c r="U326" s="52"/>
       <c r="V326" s="52"/>
+      <c r="W326" s="52"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="Q327" s="52"/>
@@ -13956,6 +14149,7 @@
       <c r="T327" s="52"/>
       <c r="U327" s="52"/>
       <c r="V327" s="52"/>
+      <c r="W327" s="52"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="Q328" s="52"/>
@@ -13964,6 +14158,7 @@
       <c r="T328" s="52"/>
       <c r="U328" s="52"/>
       <c r="V328" s="52"/>
+      <c r="W328" s="52"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="Q329" s="52"/>
@@ -13972,6 +14167,7 @@
       <c r="T329" s="52"/>
       <c r="U329" s="52"/>
       <c r="V329" s="52"/>
+      <c r="W329" s="52"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="Q330" s="52"/>
@@ -13980,6 +14176,7 @@
       <c r="T330" s="52"/>
       <c r="U330" s="52"/>
       <c r="V330" s="52"/>
+      <c r="W330" s="52"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="Q331" s="52"/>
@@ -13988,6 +14185,7 @@
       <c r="T331" s="52"/>
       <c r="U331" s="52"/>
       <c r="V331" s="52"/>
+      <c r="W331" s="52"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="Q332" s="52"/>
@@ -13996,6 +14194,7 @@
       <c r="T332" s="52"/>
       <c r="U332" s="52"/>
       <c r="V332" s="52"/>
+      <c r="W332" s="52"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="Q333" s="52"/>
@@ -14004,6 +14203,7 @@
       <c r="T333" s="52"/>
       <c r="U333" s="52"/>
       <c r="V333" s="52"/>
+      <c r="W333" s="52"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="Q334" s="52"/>
@@ -14012,6 +14212,7 @@
       <c r="T334" s="52"/>
       <c r="U334" s="52"/>
       <c r="V334" s="52"/>
+      <c r="W334" s="52"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="Q335" s="52"/>
@@ -14020,6 +14221,7 @@
       <c r="T335" s="52"/>
       <c r="U335" s="52"/>
       <c r="V335" s="52"/>
+      <c r="W335" s="52"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="Q336" s="52"/>
@@ -14028,6 +14230,7 @@
       <c r="T336" s="52"/>
       <c r="U336" s="52"/>
       <c r="V336" s="52"/>
+      <c r="W336" s="52"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="Q337" s="52"/>
@@ -14036,6 +14239,7 @@
       <c r="T337" s="52"/>
       <c r="U337" s="52"/>
       <c r="V337" s="52"/>
+      <c r="W337" s="52"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="Q338" s="52"/>
@@ -14044,6 +14248,7 @@
       <c r="T338" s="52"/>
       <c r="U338" s="52"/>
       <c r="V338" s="52"/>
+      <c r="W338" s="52"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="Q339" s="52"/>
@@ -14052,6 +14257,7 @@
       <c r="T339" s="52"/>
       <c r="U339" s="52"/>
       <c r="V339" s="52"/>
+      <c r="W339" s="52"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="Q340" s="52"/>
@@ -14060,6 +14266,7 @@
       <c r="T340" s="52"/>
       <c r="U340" s="52"/>
       <c r="V340" s="52"/>
+      <c r="W340" s="52"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="Q341" s="52"/>
@@ -14068,6 +14275,7 @@
       <c r="T341" s="52"/>
       <c r="U341" s="52"/>
       <c r="V341" s="52"/>
+      <c r="W341" s="52"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="Q342" s="52"/>
@@ -14076,6 +14284,7 @@
       <c r="T342" s="52"/>
       <c r="U342" s="52"/>
       <c r="V342" s="52"/>
+      <c r="W342" s="52"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="Q343" s="52"/>
@@ -14084,6 +14293,7 @@
       <c r="T343" s="52"/>
       <c r="U343" s="52"/>
       <c r="V343" s="52"/>
+      <c r="W343" s="52"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="Q344" s="52"/>
@@ -14092,6 +14302,7 @@
       <c r="T344" s="52"/>
       <c r="U344" s="52"/>
       <c r="V344" s="52"/>
+      <c r="W344" s="52"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="Q345" s="52"/>
@@ -14100,6 +14311,7 @@
       <c r="T345" s="52"/>
       <c r="U345" s="52"/>
       <c r="V345" s="52"/>
+      <c r="W345" s="52"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="Q346" s="52"/>
@@ -14108,6 +14320,7 @@
       <c r="T346" s="52"/>
       <c r="U346" s="52"/>
       <c r="V346" s="52"/>
+      <c r="W346" s="52"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="Q347" s="52"/>
@@ -14116,6 +14329,7 @@
       <c r="T347" s="52"/>
       <c r="U347" s="52"/>
       <c r="V347" s="52"/>
+      <c r="W347" s="52"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="Q348" s="52"/>
@@ -14124,6 +14338,7 @@
       <c r="T348" s="52"/>
       <c r="U348" s="52"/>
       <c r="V348" s="52"/>
+      <c r="W348" s="52"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="Q349" s="52"/>
@@ -14132,6 +14347,7 @@
       <c r="T349" s="52"/>
       <c r="U349" s="52"/>
       <c r="V349" s="52"/>
+      <c r="W349" s="52"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="Q350" s="52"/>
@@ -14140,6 +14356,7 @@
       <c r="T350" s="52"/>
       <c r="U350" s="52"/>
       <c r="V350" s="52"/>
+      <c r="W350" s="52"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="Q351" s="52"/>
@@ -14148,6 +14365,7 @@
       <c r="T351" s="52"/>
       <c r="U351" s="52"/>
       <c r="V351" s="52"/>
+      <c r="W351" s="52"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="Q352" s="52"/>
@@ -14156,6 +14374,7 @@
       <c r="T352" s="52"/>
       <c r="U352" s="52"/>
       <c r="V352" s="52"/>
+      <c r="W352" s="52"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="Q353" s="52"/>
@@ -14164,6 +14383,7 @@
       <c r="T353" s="52"/>
       <c r="U353" s="52"/>
       <c r="V353" s="52"/>
+      <c r="W353" s="52"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="Q354" s="52"/>
@@ -14172,6 +14392,7 @@
       <c r="T354" s="52"/>
       <c r="U354" s="52"/>
       <c r="V354" s="52"/>
+      <c r="W354" s="52"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="Q355" s="52"/>
@@ -14180,6 +14401,7 @@
       <c r="T355" s="52"/>
       <c r="U355" s="52"/>
       <c r="V355" s="52"/>
+      <c r="W355" s="52"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="Q356" s="52"/>
@@ -14188,6 +14410,7 @@
       <c r="T356" s="52"/>
       <c r="U356" s="52"/>
       <c r="V356" s="52"/>
+      <c r="W356" s="52"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="Q357" s="52"/>
@@ -14196,6 +14419,7 @@
       <c r="T357" s="52"/>
       <c r="U357" s="52"/>
       <c r="V357" s="52"/>
+      <c r="W357" s="52"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="Q358" s="52"/>
@@ -14204,6 +14428,7 @@
       <c r="T358" s="52"/>
       <c r="U358" s="52"/>
       <c r="V358" s="52"/>
+      <c r="W358" s="52"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="Q359" s="52"/>
@@ -14212,6 +14437,7 @@
       <c r="T359" s="52"/>
       <c r="U359" s="52"/>
       <c r="V359" s="52"/>
+      <c r="W359" s="52"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="Q360" s="52"/>
@@ -14220,6 +14446,7 @@
       <c r="T360" s="52"/>
       <c r="U360" s="52"/>
       <c r="V360" s="52"/>
+      <c r="W360" s="52"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="Q361" s="52"/>
@@ -14228,6 +14455,7 @@
       <c r="T361" s="52"/>
       <c r="U361" s="52"/>
       <c r="V361" s="52"/>
+      <c r="W361" s="52"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="Q362" s="52"/>
@@ -14236,6 +14464,7 @@
       <c r="T362" s="52"/>
       <c r="U362" s="52"/>
       <c r="V362" s="52"/>
+      <c r="W362" s="52"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="Q363" s="52"/>
@@ -14244,6 +14473,7 @@
       <c r="T363" s="52"/>
       <c r="U363" s="52"/>
       <c r="V363" s="52"/>
+      <c r="W363" s="52"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="Q364" s="52"/>
@@ -14252,6 +14482,7 @@
       <c r="T364" s="52"/>
       <c r="U364" s="52"/>
       <c r="V364" s="52"/>
+      <c r="W364" s="52"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="Q365" s="52"/>
@@ -14260,6 +14491,7 @@
       <c r="T365" s="52"/>
       <c r="U365" s="52"/>
       <c r="V365" s="52"/>
+      <c r="W365" s="52"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="Q366" s="52"/>
@@ -14268,6 +14500,7 @@
       <c r="T366" s="52"/>
       <c r="U366" s="52"/>
       <c r="V366" s="52"/>
+      <c r="W366" s="52"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="Q367" s="52"/>
@@ -14276,6 +14509,7 @@
       <c r="T367" s="52"/>
       <c r="U367" s="52"/>
       <c r="V367" s="52"/>
+      <c r="W367" s="52"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="Q368" s="52"/>
@@ -14284,6 +14518,7 @@
       <c r="T368" s="52"/>
       <c r="U368" s="52"/>
       <c r="V368" s="52"/>
+      <c r="W368" s="52"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="Q369" s="52"/>
@@ -14292,6 +14527,7 @@
       <c r="T369" s="52"/>
       <c r="U369" s="52"/>
       <c r="V369" s="52"/>
+      <c r="W369" s="52"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="Q370" s="52"/>
@@ -14300,6 +14536,7 @@
       <c r="T370" s="52"/>
       <c r="U370" s="52"/>
       <c r="V370" s="52"/>
+      <c r="W370" s="52"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="Q371" s="52"/>
@@ -14308,6 +14545,7 @@
       <c r="T371" s="52"/>
       <c r="U371" s="52"/>
       <c r="V371" s="52"/>
+      <c r="W371" s="52"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="Q372" s="52"/>
@@ -14316,6 +14554,7 @@
       <c r="T372" s="52"/>
       <c r="U372" s="52"/>
       <c r="V372" s="52"/>
+      <c r="W372" s="52"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="Q373" s="52"/>
@@ -14324,6 +14563,7 @@
       <c r="T373" s="52"/>
       <c r="U373" s="52"/>
       <c r="V373" s="52"/>
+      <c r="W373" s="52"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="Q374" s="52"/>
@@ -14332,6 +14572,7 @@
       <c r="T374" s="52"/>
       <c r="U374" s="52"/>
       <c r="V374" s="52"/>
+      <c r="W374" s="52"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="Q375" s="52"/>
@@ -14340,6 +14581,7 @@
       <c r="T375" s="52"/>
       <c r="U375" s="52"/>
       <c r="V375" s="52"/>
+      <c r="W375" s="52"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="Q376" s="52"/>
@@ -14348,6 +14590,7 @@
       <c r="T376" s="52"/>
       <c r="U376" s="52"/>
       <c r="V376" s="52"/>
+      <c r="W376" s="52"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="Q377" s="52"/>
@@ -14356,6 +14599,7 @@
       <c r="T377" s="52"/>
       <c r="U377" s="52"/>
       <c r="V377" s="52"/>
+      <c r="W377" s="52"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="Q378" s="52"/>
@@ -14364,6 +14608,7 @@
       <c r="T378" s="52"/>
       <c r="U378" s="52"/>
       <c r="V378" s="52"/>
+      <c r="W378" s="52"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="Q379" s="52"/>
@@ -14372,6 +14617,7 @@
       <c r="T379" s="52"/>
       <c r="U379" s="52"/>
       <c r="V379" s="52"/>
+      <c r="W379" s="52"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="Q380" s="52"/>
@@ -14380,6 +14626,7 @@
       <c r="T380" s="52"/>
       <c r="U380" s="52"/>
       <c r="V380" s="52"/>
+      <c r="W380" s="52"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="Q381" s="52"/>
@@ -14388,6 +14635,7 @@
       <c r="T381" s="52"/>
       <c r="U381" s="52"/>
       <c r="V381" s="52"/>
+      <c r="W381" s="52"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="Q382" s="52"/>
@@ -14396,6 +14644,7 @@
       <c r="T382" s="52"/>
       <c r="U382" s="52"/>
       <c r="V382" s="52"/>
+      <c r="W382" s="52"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="Q383" s="52"/>
@@ -14404,6 +14653,7 @@
       <c r="T383" s="52"/>
       <c r="U383" s="52"/>
       <c r="V383" s="52"/>
+      <c r="W383" s="52"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="Q384" s="52"/>
@@ -14412,6 +14662,7 @@
       <c r="T384" s="52"/>
       <c r="U384" s="52"/>
       <c r="V384" s="52"/>
+      <c r="W384" s="52"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="Q385" s="52"/>
@@ -14420,6 +14671,7 @@
       <c r="T385" s="52"/>
       <c r="U385" s="52"/>
       <c r="V385" s="52"/>
+      <c r="W385" s="52"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="Q386" s="52"/>
@@ -14428,6 +14680,7 @@
       <c r="T386" s="52"/>
       <c r="U386" s="52"/>
       <c r="V386" s="52"/>
+      <c r="W386" s="52"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="Q387" s="52"/>
@@ -14436,6 +14689,7 @@
       <c r="T387" s="52"/>
       <c r="U387" s="52"/>
       <c r="V387" s="52"/>
+      <c r="W387" s="52"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="Q388" s="52"/>
@@ -14444,6 +14698,7 @@
       <c r="T388" s="52"/>
       <c r="U388" s="52"/>
       <c r="V388" s="52"/>
+      <c r="W388" s="52"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="Q389" s="52"/>
@@ -14452,6 +14707,7 @@
       <c r="T389" s="52"/>
       <c r="U389" s="52"/>
       <c r="V389" s="52"/>
+      <c r="W389" s="52"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="Q390" s="52"/>
@@ -14460,6 +14716,7 @@
       <c r="T390" s="52"/>
       <c r="U390" s="52"/>
       <c r="V390" s="52"/>
+      <c r="W390" s="52"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="Q391" s="52"/>
@@ -14468,6 +14725,7 @@
       <c r="T391" s="52"/>
       <c r="U391" s="52"/>
       <c r="V391" s="52"/>
+      <c r="W391" s="52"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="Q392" s="52"/>
@@ -14476,6 +14734,7 @@
       <c r="T392" s="52"/>
       <c r="U392" s="52"/>
       <c r="V392" s="52"/>
+      <c r="W392" s="52"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="Q393" s="52"/>
@@ -14484,6 +14743,7 @@
       <c r="T393" s="52"/>
       <c r="U393" s="52"/>
       <c r="V393" s="52"/>
+      <c r="W393" s="52"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="Q394" s="52"/>
@@ -14492,6 +14752,7 @@
       <c r="T394" s="52"/>
       <c r="U394" s="52"/>
       <c r="V394" s="52"/>
+      <c r="W394" s="52"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="Q395" s="52"/>
@@ -14500,6 +14761,7 @@
       <c r="T395" s="52"/>
       <c r="U395" s="52"/>
       <c r="V395" s="52"/>
+      <c r="W395" s="52"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="Q396" s="52"/>
@@ -14508,6 +14770,7 @@
       <c r="T396" s="52"/>
       <c r="U396" s="52"/>
       <c r="V396" s="52"/>
+      <c r="W396" s="52"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="Q397" s="52"/>
@@ -14516,6 +14779,7 @@
       <c r="T397" s="52"/>
       <c r="U397" s="52"/>
       <c r="V397" s="52"/>
+      <c r="W397" s="52"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="Q398" s="52"/>
@@ -14524,6 +14788,7 @@
       <c r="T398" s="52"/>
       <c r="U398" s="52"/>
       <c r="V398" s="52"/>
+      <c r="W398" s="52"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="Q399" s="52"/>
@@ -14532,6 +14797,7 @@
       <c r="T399" s="52"/>
       <c r="U399" s="52"/>
       <c r="V399" s="52"/>
+      <c r="W399" s="52"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="Q400" s="52"/>
@@ -14540,6 +14806,7 @@
       <c r="T400" s="52"/>
       <c r="U400" s="52"/>
       <c r="V400" s="52"/>
+      <c r="W400" s="52"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="Q401" s="52"/>
@@ -14548,6 +14815,7 @@
       <c r="T401" s="52"/>
       <c r="U401" s="52"/>
       <c r="V401" s="52"/>
+      <c r="W401" s="52"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="Q402" s="52"/>
@@ -14556,6 +14824,7 @@
       <c r="T402" s="52"/>
       <c r="U402" s="52"/>
       <c r="V402" s="52"/>
+      <c r="W402" s="52"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="Q403" s="52"/>
@@ -14564,6 +14833,7 @@
       <c r="T403" s="52"/>
       <c r="U403" s="52"/>
       <c r="V403" s="52"/>
+      <c r="W403" s="52"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="Q404" s="52"/>
@@ -14572,6 +14842,7 @@
       <c r="T404" s="52"/>
       <c r="U404" s="52"/>
       <c r="V404" s="52"/>
+      <c r="W404" s="52"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="Q405" s="52"/>
@@ -14580,6 +14851,7 @@
       <c r="T405" s="52"/>
       <c r="U405" s="52"/>
       <c r="V405" s="52"/>
+      <c r="W405" s="52"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="Q406" s="52"/>
@@ -14588,6 +14860,7 @@
       <c r="T406" s="52"/>
       <c r="U406" s="52"/>
       <c r="V406" s="52"/>
+      <c r="W406" s="52"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="Q407" s="52"/>
@@ -14596,6 +14869,7 @@
       <c r="T407" s="52"/>
       <c r="U407" s="52"/>
       <c r="V407" s="52"/>
+      <c r="W407" s="52"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="Q408" s="52"/>
@@ -14604,6 +14878,7 @@
       <c r="T408" s="52"/>
       <c r="U408" s="52"/>
       <c r="V408" s="52"/>
+      <c r="W408" s="52"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="Q409" s="52"/>
@@ -14612,6 +14887,7 @@
       <c r="T409" s="52"/>
       <c r="U409" s="52"/>
       <c r="V409" s="52"/>
+      <c r="W409" s="52"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="Q410" s="52"/>
@@ -14620,6 +14896,7 @@
       <c r="T410" s="52"/>
       <c r="U410" s="52"/>
       <c r="V410" s="52"/>
+      <c r="W410" s="52"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="Q411" s="52"/>
@@ -14628,6 +14905,7 @@
       <c r="T411" s="52"/>
       <c r="U411" s="52"/>
       <c r="V411" s="52"/>
+      <c r="W411" s="52"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="Q412" s="52"/>
@@ -14636,6 +14914,7 @@
       <c r="T412" s="52"/>
       <c r="U412" s="52"/>
       <c r="V412" s="52"/>
+      <c r="W412" s="52"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="Q413" s="52"/>
@@ -14644,6 +14923,7 @@
       <c r="T413" s="52"/>
       <c r="U413" s="52"/>
       <c r="V413" s="52"/>
+      <c r="W413" s="52"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="Q414" s="52"/>
@@ -14652,6 +14932,7 @@
       <c r="T414" s="52"/>
       <c r="U414" s="52"/>
       <c r="V414" s="52"/>
+      <c r="W414" s="52"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="Q415" s="52"/>
@@ -14660,6 +14941,7 @@
       <c r="T415" s="52"/>
       <c r="U415" s="52"/>
       <c r="V415" s="52"/>
+      <c r="W415" s="52"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="Q416" s="52"/>
@@ -14668,6 +14950,7 @@
       <c r="T416" s="52"/>
       <c r="U416" s="52"/>
       <c r="V416" s="52"/>
+      <c r="W416" s="52"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="Q417" s="52"/>
@@ -14676,6 +14959,7 @@
       <c r="T417" s="52"/>
       <c r="U417" s="52"/>
       <c r="V417" s="52"/>
+      <c r="W417" s="52"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="Q418" s="52"/>
@@ -14684,6 +14968,7 @@
       <c r="T418" s="52"/>
       <c r="U418" s="52"/>
       <c r="V418" s="52"/>
+      <c r="W418" s="52"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="Q419" s="52"/>
@@ -14692,6 +14977,7 @@
       <c r="T419" s="52"/>
       <c r="U419" s="52"/>
       <c r="V419" s="52"/>
+      <c r="W419" s="52"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="Q420" s="52"/>
@@ -14700,6 +14986,7 @@
       <c r="T420" s="52"/>
       <c r="U420" s="52"/>
       <c r="V420" s="52"/>
+      <c r="W420" s="52"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="Q421" s="52"/>
@@ -14708,6 +14995,7 @@
       <c r="T421" s="52"/>
       <c r="U421" s="52"/>
       <c r="V421" s="52"/>
+      <c r="W421" s="52"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="Q422" s="52"/>
@@ -14716,6 +15004,7 @@
       <c r="T422" s="52"/>
       <c r="U422" s="52"/>
       <c r="V422" s="52"/>
+      <c r="W422" s="52"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="Q423" s="52"/>
@@ -14724,6 +15013,7 @@
       <c r="T423" s="52"/>
       <c r="U423" s="52"/>
       <c r="V423" s="52"/>
+      <c r="W423" s="52"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="Q424" s="52"/>
@@ -14732,6 +15022,7 @@
       <c r="T424" s="52"/>
       <c r="U424" s="52"/>
       <c r="V424" s="52"/>
+      <c r="W424" s="52"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="Q425" s="52"/>
@@ -14740,6 +15031,7 @@
       <c r="T425" s="52"/>
       <c r="U425" s="52"/>
       <c r="V425" s="52"/>
+      <c r="W425" s="52"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="Q426" s="52"/>
@@ -14748,6 +15040,7 @@
       <c r="T426" s="52"/>
       <c r="U426" s="52"/>
       <c r="V426" s="52"/>
+      <c r="W426" s="52"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="Q427" s="52"/>
@@ -14756,6 +15049,7 @@
       <c r="T427" s="52"/>
       <c r="U427" s="52"/>
       <c r="V427" s="52"/>
+      <c r="W427" s="52"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="Q428" s="52"/>
@@ -14764,6 +15058,7 @@
       <c r="T428" s="52"/>
       <c r="U428" s="52"/>
       <c r="V428" s="52"/>
+      <c r="W428" s="52"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="Q429" s="52"/>
@@ -14772,6 +15067,7 @@
       <c r="T429" s="52"/>
       <c r="U429" s="52"/>
       <c r="V429" s="52"/>
+      <c r="W429" s="52"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="Q430" s="52"/>
@@ -14780,6 +15076,7 @@
       <c r="T430" s="52"/>
       <c r="U430" s="52"/>
       <c r="V430" s="52"/>
+      <c r="W430" s="52"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="Q431" s="52"/>
@@ -14788,6 +15085,7 @@
       <c r="T431" s="52"/>
       <c r="U431" s="52"/>
       <c r="V431" s="52"/>
+      <c r="W431" s="52"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="Q432" s="52"/>
@@ -14796,6 +15094,7 @@
       <c r="T432" s="52"/>
       <c r="U432" s="52"/>
       <c r="V432" s="52"/>
+      <c r="W432" s="52"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="Q433" s="52"/>
@@ -14804,6 +15103,7 @@
       <c r="T433" s="52"/>
       <c r="U433" s="52"/>
       <c r="V433" s="52"/>
+      <c r="W433" s="52"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="Q434" s="52"/>
@@ -14812,6 +15112,7 @@
       <c r="T434" s="52"/>
       <c r="U434" s="52"/>
       <c r="V434" s="52"/>
+      <c r="W434" s="52"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="Q435" s="52"/>
@@ -14820,6 +15121,7 @@
       <c r="T435" s="52"/>
       <c r="U435" s="52"/>
       <c r="V435" s="52"/>
+      <c r="W435" s="52"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="Q436" s="52"/>
@@ -14828,6 +15130,7 @@
       <c r="T436" s="52"/>
       <c r="U436" s="52"/>
       <c r="V436" s="52"/>
+      <c r="W436" s="52"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="Q437" s="52"/>
@@ -14836,6 +15139,7 @@
       <c r="T437" s="52"/>
       <c r="U437" s="52"/>
       <c r="V437" s="52"/>
+      <c r="W437" s="52"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="Q438" s="52"/>
@@ -14844,6 +15148,7 @@
       <c r="T438" s="52"/>
       <c r="U438" s="52"/>
       <c r="V438" s="52"/>
+      <c r="W438" s="52"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="Q439" s="52"/>
@@ -14852,6 +15157,7 @@
       <c r="T439" s="52"/>
       <c r="U439" s="52"/>
       <c r="V439" s="52"/>
+      <c r="W439" s="52"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="Q440" s="52"/>
@@ -14860,6 +15166,7 @@
       <c r="T440" s="52"/>
       <c r="U440" s="52"/>
       <c r="V440" s="52"/>
+      <c r="W440" s="52"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="Q441" s="52"/>
@@ -14868,6 +15175,7 @@
       <c r="T441" s="52"/>
       <c r="U441" s="52"/>
       <c r="V441" s="52"/>
+      <c r="W441" s="52"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="Q442" s="52"/>
@@ -14876,6 +15184,7 @@
       <c r="T442" s="52"/>
       <c r="U442" s="52"/>
       <c r="V442" s="52"/>
+      <c r="W442" s="52"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="Q443" s="52"/>
@@ -14884,6 +15193,7 @@
       <c r="T443" s="52"/>
       <c r="U443" s="52"/>
       <c r="V443" s="52"/>
+      <c r="W443" s="52"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="Q444" s="52"/>
@@ -14892,6 +15202,7 @@
       <c r="T444" s="52"/>
       <c r="U444" s="52"/>
       <c r="V444" s="52"/>
+      <c r="W444" s="52"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="Q445" s="52"/>
@@ -14900,6 +15211,7 @@
       <c r="T445" s="52"/>
       <c r="U445" s="52"/>
       <c r="V445" s="52"/>
+      <c r="W445" s="52"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="Q446" s="52"/>
@@ -14908,6 +15220,7 @@
       <c r="T446" s="52"/>
       <c r="U446" s="52"/>
       <c r="V446" s="52"/>
+      <c r="W446" s="52"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="Q447" s="52"/>
@@ -14916,6 +15229,7 @@
       <c r="T447" s="52"/>
       <c r="U447" s="52"/>
       <c r="V447" s="52"/>
+      <c r="W447" s="52"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="Q448" s="52"/>
@@ -14924,6 +15238,7 @@
       <c r="T448" s="52"/>
       <c r="U448" s="52"/>
       <c r="V448" s="52"/>
+      <c r="W448" s="52"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="Q449" s="52"/>
@@ -14932,6 +15247,7 @@
       <c r="T449" s="52"/>
       <c r="U449" s="52"/>
       <c r="V449" s="52"/>
+      <c r="W449" s="52"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="Q450" s="52"/>
@@ -14940,6 +15256,7 @@
       <c r="T450" s="52"/>
       <c r="U450" s="52"/>
       <c r="V450" s="52"/>
+      <c r="W450" s="52"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="Q451" s="52"/>
@@ -14948,6 +15265,7 @@
       <c r="T451" s="52"/>
       <c r="U451" s="52"/>
       <c r="V451" s="52"/>
+      <c r="W451" s="52"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="Q452" s="52"/>
@@ -14956,6 +15274,7 @@
       <c r="T452" s="52"/>
       <c r="U452" s="52"/>
       <c r="V452" s="52"/>
+      <c r="W452" s="52"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="Q453" s="52"/>
@@ -14964,6 +15283,7 @@
       <c r="T453" s="52"/>
       <c r="U453" s="52"/>
       <c r="V453" s="52"/>
+      <c r="W453" s="52"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="Q454" s="52"/>
@@ -14972,6 +15292,7 @@
       <c r="T454" s="52"/>
       <c r="U454" s="52"/>
       <c r="V454" s="52"/>
+      <c r="W454" s="52"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="Q455" s="52"/>
@@ -14980,6 +15301,7 @@
       <c r="T455" s="52"/>
       <c r="U455" s="52"/>
       <c r="V455" s="52"/>
+      <c r="W455" s="52"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="Q456" s="52"/>
@@ -14988,6 +15310,7 @@
       <c r="T456" s="52"/>
       <c r="U456" s="52"/>
       <c r="V456" s="52"/>
+      <c r="W456" s="52"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="Q457" s="52"/>
@@ -14996,6 +15319,7 @@
       <c r="T457" s="52"/>
       <c r="U457" s="52"/>
       <c r="V457" s="52"/>
+      <c r="W457" s="52"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="Q458" s="52"/>
@@ -15004,6 +15328,7 @@
       <c r="T458" s="52"/>
       <c r="U458" s="52"/>
       <c r="V458" s="52"/>
+      <c r="W458" s="52"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="Q459" s="52"/>
@@ -15012,6 +15337,7 @@
       <c r="T459" s="52"/>
       <c r="U459" s="52"/>
       <c r="V459" s="52"/>
+      <c r="W459" s="52"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="Q460" s="52"/>
@@ -15020,6 +15346,7 @@
       <c r="T460" s="52"/>
       <c r="U460" s="52"/>
       <c r="V460" s="52"/>
+      <c r="W460" s="52"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="Q461" s="52"/>
@@ -15028,6 +15355,7 @@
       <c r="T461" s="52"/>
       <c r="U461" s="52"/>
       <c r="V461" s="52"/>
+      <c r="W461" s="52"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="Q462" s="52"/>
@@ -15036,6 +15364,7 @@
       <c r="T462" s="52"/>
       <c r="U462" s="52"/>
       <c r="V462" s="52"/>
+      <c r="W462" s="52"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="Q463" s="52"/>
@@ -15044,6 +15373,7 @@
       <c r="T463" s="52"/>
       <c r="U463" s="52"/>
       <c r="V463" s="52"/>
+      <c r="W463" s="52"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="Q464" s="52"/>
@@ -15052,6 +15382,7 @@
       <c r="T464" s="52"/>
       <c r="U464" s="52"/>
       <c r="V464" s="52"/>
+      <c r="W464" s="52"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="Q465" s="52"/>
@@ -15060,6 +15391,7 @@
       <c r="T465" s="52"/>
       <c r="U465" s="52"/>
       <c r="V465" s="52"/>
+      <c r="W465" s="52"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="Q466" s="52"/>
@@ -15068,6 +15400,7 @@
       <c r="T466" s="52"/>
       <c r="U466" s="52"/>
       <c r="V466" s="52"/>
+      <c r="W466" s="52"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="Q467" s="52"/>
@@ -15076,6 +15409,7 @@
       <c r="T467" s="52"/>
       <c r="U467" s="52"/>
       <c r="V467" s="52"/>
+      <c r="W467" s="52"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="Q468" s="52"/>
@@ -15084,6 +15418,7 @@
       <c r="T468" s="52"/>
       <c r="U468" s="52"/>
       <c r="V468" s="52"/>
+      <c r="W468" s="52"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="Q469" s="52"/>
@@ -15092,6 +15427,7 @@
       <c r="T469" s="52"/>
       <c r="U469" s="52"/>
       <c r="V469" s="52"/>
+      <c r="W469" s="52"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="Q470" s="52"/>
@@ -15100,6 +15436,7 @@
       <c r="T470" s="52"/>
       <c r="U470" s="52"/>
       <c r="V470" s="52"/>
+      <c r="W470" s="52"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="Q471" s="52"/>
@@ -15108,6 +15445,7 @@
       <c r="T471" s="52"/>
       <c r="U471" s="52"/>
       <c r="V471" s="52"/>
+      <c r="W471" s="52"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="Q472" s="52"/>
@@ -15116,6 +15454,7 @@
       <c r="T472" s="52"/>
       <c r="U472" s="52"/>
       <c r="V472" s="52"/>
+      <c r="W472" s="52"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="Q473" s="52"/>
@@ -15124,6 +15463,7 @@
       <c r="T473" s="52"/>
       <c r="U473" s="52"/>
       <c r="V473" s="52"/>
+      <c r="W473" s="52"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="Q474" s="52"/>
@@ -15132,6 +15472,7 @@
       <c r="T474" s="52"/>
       <c r="U474" s="52"/>
       <c r="V474" s="52"/>
+      <c r="W474" s="52"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="Q475" s="52"/>
@@ -15140,6 +15481,7 @@
       <c r="T475" s="52"/>
       <c r="U475" s="52"/>
       <c r="V475" s="52"/>
+      <c r="W475" s="52"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="Q476" s="52"/>
@@ -15148,6 +15490,7 @@
       <c r="T476" s="52"/>
       <c r="U476" s="52"/>
       <c r="V476" s="52"/>
+      <c r="W476" s="52"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="Q477" s="52"/>
@@ -15156,6 +15499,7 @@
       <c r="T477" s="52"/>
       <c r="U477" s="52"/>
       <c r="V477" s="52"/>
+      <c r="W477" s="52"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="Q478" s="52"/>
@@ -15164,6 +15508,7 @@
       <c r="T478" s="52"/>
       <c r="U478" s="52"/>
       <c r="V478" s="52"/>
+      <c r="W478" s="52"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="Q479" s="52"/>
@@ -15172,6 +15517,7 @@
       <c r="T479" s="52"/>
       <c r="U479" s="52"/>
       <c r="V479" s="52"/>
+      <c r="W479" s="52"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="Q480" s="52"/>
@@ -15180,6 +15526,7 @@
       <c r="T480" s="52"/>
       <c r="U480" s="52"/>
       <c r="V480" s="52"/>
+      <c r="W480" s="52"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="Q481" s="52"/>
@@ -15188,6 +15535,7 @@
       <c r="T481" s="52"/>
       <c r="U481" s="52"/>
       <c r="V481" s="52"/>
+      <c r="W481" s="52"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="Q482" s="52"/>
@@ -15196,6 +15544,7 @@
       <c r="T482" s="52"/>
       <c r="U482" s="52"/>
       <c r="V482" s="52"/>
+      <c r="W482" s="52"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="Q483" s="52"/>
@@ -15204,6 +15553,7 @@
       <c r="T483" s="52"/>
       <c r="U483" s="52"/>
       <c r="V483" s="52"/>
+      <c r="W483" s="52"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="Q484" s="52"/>
@@ -15212,6 +15562,7 @@
       <c r="T484" s="52"/>
       <c r="U484" s="52"/>
       <c r="V484" s="52"/>
+      <c r="W484" s="52"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="Q485" s="52"/>
@@ -15220,6 +15571,7 @@
       <c r="T485" s="52"/>
       <c r="U485" s="52"/>
       <c r="V485" s="52"/>
+      <c r="W485" s="52"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="Q486" s="52"/>
@@ -15228,6 +15580,7 @@
       <c r="T486" s="52"/>
       <c r="U486" s="52"/>
       <c r="V486" s="52"/>
+      <c r="W486" s="52"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="Q487" s="52"/>
@@ -15236,6 +15589,7 @@
       <c r="T487" s="52"/>
       <c r="U487" s="52"/>
       <c r="V487" s="52"/>
+      <c r="W487" s="52"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="Q488" s="52"/>
@@ -15244,6 +15598,7 @@
       <c r="T488" s="52"/>
       <c r="U488" s="52"/>
       <c r="V488" s="52"/>
+      <c r="W488" s="52"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="Q489" s="52"/>
@@ -15252,6 +15607,7 @@
       <c r="T489" s="52"/>
       <c r="U489" s="52"/>
       <c r="V489" s="52"/>
+      <c r="W489" s="52"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="Q490" s="52"/>
@@ -15260,6 +15616,7 @@
       <c r="T490" s="52"/>
       <c r="U490" s="52"/>
       <c r="V490" s="52"/>
+      <c r="W490" s="52"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="Q491" s="52"/>
@@ -15268,6 +15625,7 @@
       <c r="T491" s="52"/>
       <c r="U491" s="52"/>
       <c r="V491" s="52"/>
+      <c r="W491" s="52"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="Q492" s="52"/>
@@ -15276,6 +15634,7 @@
       <c r="T492" s="52"/>
       <c r="U492" s="52"/>
       <c r="V492" s="52"/>
+      <c r="W492" s="52"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="Q493" s="52"/>
@@ -15284,6 +15643,7 @@
       <c r="T493" s="52"/>
       <c r="U493" s="52"/>
       <c r="V493" s="52"/>
+      <c r="W493" s="52"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="Q494" s="52"/>
@@ -15292,6 +15652,7 @@
       <c r="T494" s="52"/>
       <c r="U494" s="52"/>
       <c r="V494" s="52"/>
+      <c r="W494" s="52"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="Q495" s="52"/>
@@ -15300,6 +15661,7 @@
       <c r="T495" s="52"/>
       <c r="U495" s="52"/>
       <c r="V495" s="52"/>
+      <c r="W495" s="52"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="Q496" s="52"/>
@@ -15308,6 +15670,7 @@
       <c r="T496" s="52"/>
       <c r="U496" s="52"/>
       <c r="V496" s="52"/>
+      <c r="W496" s="52"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="Q497" s="52"/>
@@ -15316,6 +15679,7 @@
       <c r="T497" s="52"/>
       <c r="U497" s="52"/>
       <c r="V497" s="52"/>
+      <c r="W497" s="52"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="Q498" s="52"/>
@@ -15324,6 +15688,7 @@
       <c r="T498" s="52"/>
       <c r="U498" s="52"/>
       <c r="V498" s="52"/>
+      <c r="W498" s="52"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="Q499" s="52"/>
@@ -15332,6 +15697,7 @@
       <c r="T499" s="52"/>
       <c r="U499" s="52"/>
       <c r="V499" s="52"/>
+      <c r="W499" s="52"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="Q500" s="52"/>
@@ -15340,6 +15706,7 @@
       <c r="T500" s="52"/>
       <c r="U500" s="52"/>
       <c r="V500" s="52"/>
+      <c r="W500" s="52"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="Q501" s="52"/>
@@ -15348,6 +15715,7 @@
       <c r="T501" s="52"/>
       <c r="U501" s="52"/>
       <c r="V501" s="52"/>
+      <c r="W501" s="52"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="Q502" s="52"/>
@@ -15356,6 +15724,7 @@
       <c r="T502" s="52"/>
       <c r="U502" s="52"/>
       <c r="V502" s="52"/>
+      <c r="W502" s="52"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="Q503" s="52"/>
@@ -15364,6 +15733,7 @@
       <c r="T503" s="52"/>
       <c r="U503" s="52"/>
       <c r="V503" s="52"/>
+      <c r="W503" s="52"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="Q504" s="52"/>
@@ -15372,6 +15742,7 @@
       <c r="T504" s="52"/>
       <c r="U504" s="52"/>
       <c r="V504" s="52"/>
+      <c r="W504" s="52"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="Q505" s="52"/>
@@ -15380,6 +15751,7 @@
       <c r="T505" s="52"/>
       <c r="U505" s="52"/>
       <c r="V505" s="52"/>
+      <c r="W505" s="52"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="Q506" s="52"/>
@@ -15388,6 +15760,7 @@
       <c r="T506" s="52"/>
       <c r="U506" s="52"/>
       <c r="V506" s="52"/>
+      <c r="W506" s="52"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="Q507" s="52"/>
@@ -15396,6 +15769,7 @@
       <c r="T507" s="52"/>
       <c r="U507" s="52"/>
       <c r="V507" s="52"/>
+      <c r="W507" s="52"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="Q508" s="52"/>
@@ -15404,6 +15778,7 @@
       <c r="T508" s="52"/>
       <c r="U508" s="52"/>
       <c r="V508" s="52"/>
+      <c r="W508" s="52"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="Q509" s="52"/>
@@ -15412,6 +15787,7 @@
       <c r="T509" s="52"/>
       <c r="U509" s="52"/>
       <c r="V509" s="52"/>
+      <c r="W509" s="52"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="Q510" s="52"/>
@@ -15420,6 +15796,7 @@
       <c r="T510" s="52"/>
       <c r="U510" s="52"/>
       <c r="V510" s="52"/>
+      <c r="W510" s="52"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="Q511" s="52"/>
@@ -15428,6 +15805,7 @@
       <c r="T511" s="52"/>
       <c r="U511" s="52"/>
       <c r="V511" s="52"/>
+      <c r="W511" s="52"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="Q512" s="52"/>
@@ -15436,6 +15814,7 @@
       <c r="T512" s="52"/>
       <c r="U512" s="52"/>
       <c r="V512" s="52"/>
+      <c r="W512" s="52"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="Q513" s="52"/>
@@ -15444,6 +15823,7 @@
       <c r="T513" s="52"/>
       <c r="U513" s="52"/>
       <c r="V513" s="52"/>
+      <c r="W513" s="52"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="Q514" s="52"/>
@@ -15452,6 +15832,7 @@
       <c r="T514" s="52"/>
       <c r="U514" s="52"/>
       <c r="V514" s="52"/>
+      <c r="W514" s="52"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="Q515" s="52"/>
@@ -15460,6 +15841,7 @@
       <c r="T515" s="52"/>
       <c r="U515" s="52"/>
       <c r="V515" s="52"/>
+      <c r="W515" s="52"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="Q516" s="52"/>
@@ -15468,6 +15850,7 @@
       <c r="T516" s="52"/>
       <c r="U516" s="52"/>
       <c r="V516" s="52"/>
+      <c r="W516" s="52"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="Q517" s="52"/>
@@ -15476,6 +15859,7 @@
       <c r="T517" s="52"/>
       <c r="U517" s="52"/>
       <c r="V517" s="52"/>
+      <c r="W517" s="52"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="Q518" s="52"/>
@@ -15484,6 +15868,7 @@
       <c r="T518" s="52"/>
       <c r="U518" s="52"/>
       <c r="V518" s="52"/>
+      <c r="W518" s="52"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="Q519" s="52"/>
@@ -15492,6 +15877,7 @@
       <c r="T519" s="52"/>
       <c r="U519" s="52"/>
       <c r="V519" s="52"/>
+      <c r="W519" s="52"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="Q520" s="52"/>
@@ -15500,6 +15886,7 @@
       <c r="T520" s="52"/>
       <c r="U520" s="52"/>
       <c r="V520" s="52"/>
+      <c r="W520" s="52"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="Q521" s="52"/>
@@ -15508,6 +15895,7 @@
       <c r="T521" s="52"/>
       <c r="U521" s="52"/>
       <c r="V521" s="52"/>
+      <c r="W521" s="52"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="Q522" s="52"/>
@@ -15516,6 +15904,7 @@
       <c r="T522" s="52"/>
       <c r="U522" s="52"/>
       <c r="V522" s="52"/>
+      <c r="W522" s="52"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="Q523" s="52"/>
@@ -15524,6 +15913,7 @@
       <c r="T523" s="52"/>
       <c r="U523" s="52"/>
       <c r="V523" s="52"/>
+      <c r="W523" s="52"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="Q524" s="52"/>
@@ -15532,6 +15922,7 @@
       <c r="T524" s="52"/>
       <c r="U524" s="52"/>
       <c r="V524" s="52"/>
+      <c r="W524" s="52"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="Q525" s="52"/>
@@ -15540,6 +15931,7 @@
       <c r="T525" s="52"/>
       <c r="U525" s="52"/>
       <c r="V525" s="52"/>
+      <c r="W525" s="52"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="Q526" s="52"/>
@@ -15548,6 +15940,7 @@
       <c r="T526" s="52"/>
       <c r="U526" s="52"/>
       <c r="V526" s="52"/>
+      <c r="W526" s="52"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="Q527" s="52"/>
@@ -15556,6 +15949,7 @@
       <c r="T527" s="52"/>
       <c r="U527" s="52"/>
       <c r="V527" s="52"/>
+      <c r="W527" s="52"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="Q528" s="52"/>
@@ -15564,6 +15958,7 @@
       <c r="T528" s="52"/>
       <c r="U528" s="52"/>
       <c r="V528" s="52"/>
+      <c r="W528" s="52"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="Q529" s="52"/>
@@ -15572,6 +15967,7 @@
       <c r="T529" s="52"/>
       <c r="U529" s="52"/>
       <c r="V529" s="52"/>
+      <c r="W529" s="52"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="Q530" s="52"/>
@@ -15580,6 +15976,7 @@
       <c r="T530" s="52"/>
       <c r="U530" s="52"/>
       <c r="V530" s="52"/>
+      <c r="W530" s="52"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="Q531" s="52"/>
@@ -15588,6 +15985,7 @@
       <c r="T531" s="52"/>
       <c r="U531" s="52"/>
       <c r="V531" s="52"/>
+      <c r="W531" s="52"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="Q532" s="52"/>
@@ -15596,6 +15994,7 @@
       <c r="T532" s="52"/>
       <c r="U532" s="52"/>
       <c r="V532" s="52"/>
+      <c r="W532" s="52"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="Q533" s="52"/>
@@ -15604,6 +16003,7 @@
       <c r="T533" s="52"/>
       <c r="U533" s="52"/>
       <c r="V533" s="52"/>
+      <c r="W533" s="52"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="Q534" s="52"/>
@@ -15612,6 +16012,7 @@
       <c r="T534" s="52"/>
       <c r="U534" s="52"/>
       <c r="V534" s="52"/>
+      <c r="W534" s="52"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="Q535" s="52"/>
@@ -15620,6 +16021,7 @@
       <c r="T535" s="52"/>
       <c r="U535" s="52"/>
       <c r="V535" s="52"/>
+      <c r="W535" s="52"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="Q536" s="52"/>
@@ -15628,6 +16030,7 @@
       <c r="T536" s="52"/>
       <c r="U536" s="52"/>
       <c r="V536" s="52"/>
+      <c r="W536" s="52"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="Q537" s="52"/>
@@ -15636,6 +16039,7 @@
       <c r="T537" s="52"/>
       <c r="U537" s="52"/>
       <c r="V537" s="52"/>
+      <c r="W537" s="52"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="Q538" s="52"/>
@@ -15644,6 +16048,7 @@
       <c r="T538" s="52"/>
       <c r="U538" s="52"/>
       <c r="V538" s="52"/>
+      <c r="W538" s="52"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="Q539" s="52"/>
@@ -15652,6 +16057,7 @@
       <c r="T539" s="52"/>
       <c r="U539" s="52"/>
       <c r="V539" s="52"/>
+      <c r="W539" s="52"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="Q540" s="52"/>
@@ -15660,6 +16066,7 @@
       <c r="T540" s="52"/>
       <c r="U540" s="52"/>
       <c r="V540" s="52"/>
+      <c r="W540" s="52"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="Q541" s="52"/>
@@ -15668,6 +16075,7 @@
       <c r="T541" s="52"/>
       <c r="U541" s="52"/>
       <c r="V541" s="52"/>
+      <c r="W541" s="52"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="Q542" s="52"/>
@@ -15676,6 +16084,7 @@
       <c r="T542" s="52"/>
       <c r="U542" s="52"/>
       <c r="V542" s="52"/>
+      <c r="W542" s="52"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="Q543" s="52"/>
@@ -15684,6 +16093,7 @@
       <c r="T543" s="52"/>
       <c r="U543" s="52"/>
       <c r="V543" s="52"/>
+      <c r="W543" s="52"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="Q544" s="52"/>
@@ -15692,6 +16102,7 @@
       <c r="T544" s="52"/>
       <c r="U544" s="52"/>
       <c r="V544" s="52"/>
+      <c r="W544" s="52"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="Q545" s="52"/>
@@ -15700,6 +16111,7 @@
       <c r="T545" s="52"/>
       <c r="U545" s="52"/>
       <c r="V545" s="52"/>
+      <c r="W545" s="52"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="Q546" s="52"/>
@@ -15708,6 +16120,7 @@
       <c r="T546" s="52"/>
       <c r="U546" s="52"/>
       <c r="V546" s="52"/>
+      <c r="W546" s="52"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="Q547" s="52"/>
@@ -15716,6 +16129,7 @@
       <c r="T547" s="52"/>
       <c r="U547" s="52"/>
       <c r="V547" s="52"/>
+      <c r="W547" s="52"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="Q548" s="52"/>
@@ -15724,6 +16138,7 @@
       <c r="T548" s="52"/>
       <c r="U548" s="52"/>
       <c r="V548" s="52"/>
+      <c r="W548" s="52"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="Q549" s="52"/>
@@ -15732,6 +16147,7 @@
       <c r="T549" s="52"/>
       <c r="U549" s="52"/>
       <c r="V549" s="52"/>
+      <c r="W549" s="52"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="Q550" s="52"/>
@@ -15740,6 +16156,7 @@
       <c r="T550" s="52"/>
       <c r="U550" s="52"/>
       <c r="V550" s="52"/>
+      <c r="W550" s="52"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="Q551" s="52"/>
@@ -15748,6 +16165,7 @@
       <c r="T551" s="52"/>
       <c r="U551" s="52"/>
       <c r="V551" s="52"/>
+      <c r="W551" s="52"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="Q552" s="52"/>
@@ -15756,6 +16174,7 @@
       <c r="T552" s="52"/>
       <c r="U552" s="52"/>
       <c r="V552" s="52"/>
+      <c r="W552" s="52"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="Q553" s="52"/>
@@ -15764,6 +16183,7 @@
       <c r="T553" s="52"/>
       <c r="U553" s="52"/>
       <c r="V553" s="52"/>
+      <c r="W553" s="52"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="Q554" s="52"/>
@@ -15772,6 +16192,7 @@
       <c r="T554" s="52"/>
       <c r="U554" s="52"/>
       <c r="V554" s="52"/>
+      <c r="W554" s="52"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="Q555" s="52"/>
@@ -15780,6 +16201,7 @@
       <c r="T555" s="52"/>
       <c r="U555" s="52"/>
       <c r="V555" s="52"/>
+      <c r="W555" s="52"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="Q556" s="52"/>
@@ -15788,6 +16210,7 @@
       <c r="T556" s="52"/>
       <c r="U556" s="52"/>
       <c r="V556" s="52"/>
+      <c r="W556" s="52"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="Q557" s="52"/>
@@ -15796,6 +16219,7 @@
       <c r="T557" s="52"/>
       <c r="U557" s="52"/>
       <c r="V557" s="52"/>
+      <c r="W557" s="52"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="Q558" s="52"/>
@@ -15804,6 +16228,7 @@
       <c r="T558" s="52"/>
       <c r="U558" s="52"/>
       <c r="V558" s="52"/>
+      <c r="W558" s="52"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="Q559" s="52"/>
@@ -15812,6 +16237,7 @@
       <c r="T559" s="52"/>
       <c r="U559" s="52"/>
       <c r="V559" s="52"/>
+      <c r="W559" s="52"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="Q560" s="52"/>
@@ -15820,6 +16246,7 @@
       <c r="T560" s="52"/>
       <c r="U560" s="52"/>
       <c r="V560" s="52"/>
+      <c r="W560" s="52"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="Q561" s="52"/>
@@ -15828,6 +16255,7 @@
       <c r="T561" s="52"/>
       <c r="U561" s="52"/>
       <c r="V561" s="52"/>
+      <c r="W561" s="52"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="Q562" s="52"/>
@@ -15836,6 +16264,7 @@
       <c r="T562" s="52"/>
       <c r="U562" s="52"/>
       <c r="V562" s="52"/>
+      <c r="W562" s="52"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="Q563" s="52"/>
@@ -15844,6 +16273,7 @@
       <c r="T563" s="52"/>
       <c r="U563" s="52"/>
       <c r="V563" s="52"/>
+      <c r="W563" s="52"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="Q564" s="52"/>
@@ -15852,6 +16282,7 @@
       <c r="T564" s="52"/>
       <c r="U564" s="52"/>
       <c r="V564" s="52"/>
+      <c r="W564" s="52"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="Q565" s="52"/>
@@ -15860,6 +16291,7 @@
       <c r="T565" s="52"/>
       <c r="U565" s="52"/>
       <c r="V565" s="52"/>
+      <c r="W565" s="52"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="Q566" s="52"/>
@@ -15868,6 +16300,7 @@
       <c r="T566" s="52"/>
       <c r="U566" s="52"/>
       <c r="V566" s="52"/>
+      <c r="W566" s="52"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="Q567" s="52"/>
@@ -15876,6 +16309,7 @@
       <c r="T567" s="52"/>
       <c r="U567" s="52"/>
       <c r="V567" s="52"/>
+      <c r="W567" s="52"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="Q568" s="52"/>
@@ -15884,6 +16318,7 @@
       <c r="T568" s="52"/>
       <c r="U568" s="52"/>
       <c r="V568" s="52"/>
+      <c r="W568" s="52"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="Q569" s="52"/>
@@ -15892,6 +16327,7 @@
       <c r="T569" s="52"/>
       <c r="U569" s="52"/>
       <c r="V569" s="52"/>
+      <c r="W569" s="52"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="Q570" s="52"/>
@@ -15900,6 +16336,7 @@
       <c r="T570" s="52"/>
       <c r="U570" s="52"/>
       <c r="V570" s="52"/>
+      <c r="W570" s="52"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="Q571" s="52"/>
@@ -15908,6 +16345,7 @@
       <c r="T571" s="52"/>
       <c r="U571" s="52"/>
       <c r="V571" s="52"/>
+      <c r="W571" s="52"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="Q572" s="52"/>
@@ -15916,6 +16354,7 @@
       <c r="T572" s="52"/>
       <c r="U572" s="52"/>
       <c r="V572" s="52"/>
+      <c r="W572" s="52"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="Q573" s="52"/>
@@ -15924,6 +16363,7 @@
       <c r="T573" s="52"/>
       <c r="U573" s="52"/>
       <c r="V573" s="52"/>
+      <c r="W573" s="52"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="Q574" s="52"/>
@@ -15932,6 +16372,7 @@
       <c r="T574" s="52"/>
       <c r="U574" s="52"/>
       <c r="V574" s="52"/>
+      <c r="W574" s="52"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="Q575" s="52"/>
@@ -15940,6 +16381,7 @@
       <c r="T575" s="52"/>
       <c r="U575" s="52"/>
       <c r="V575" s="52"/>
+      <c r="W575" s="52"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="Q576" s="52"/>
@@ -15948,6 +16390,7 @@
       <c r="T576" s="52"/>
       <c r="U576" s="52"/>
       <c r="V576" s="52"/>
+      <c r="W576" s="52"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="Q577" s="52"/>
@@ -15956,6 +16399,7 @@
       <c r="T577" s="52"/>
       <c r="U577" s="52"/>
       <c r="V577" s="52"/>
+      <c r="W577" s="52"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="Q578" s="52"/>
@@ -15964,6 +16408,7 @@
       <c r="T578" s="52"/>
       <c r="U578" s="52"/>
       <c r="V578" s="52"/>
+      <c r="W578" s="52"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="Q579" s="52"/>
@@ -15972,6 +16417,7 @@
       <c r="T579" s="52"/>
       <c r="U579" s="52"/>
       <c r="V579" s="52"/>
+      <c r="W579" s="52"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="Q580" s="52"/>
@@ -15980,6 +16426,7 @@
       <c r="T580" s="52"/>
       <c r="U580" s="52"/>
       <c r="V580" s="52"/>
+      <c r="W580" s="52"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="Q581" s="52"/>
@@ -15988,6 +16435,7 @@
       <c r="T581" s="52"/>
       <c r="U581" s="52"/>
       <c r="V581" s="52"/>
+      <c r="W581" s="52"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="Q582" s="52"/>
@@ -15996,6 +16444,7 @@
       <c r="T582" s="52"/>
       <c r="U582" s="52"/>
       <c r="V582" s="52"/>
+      <c r="W582" s="52"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="Q583" s="52"/>
@@ -16004,6 +16453,7 @@
       <c r="T583" s="52"/>
       <c r="U583" s="52"/>
       <c r="V583" s="52"/>
+      <c r="W583" s="52"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="Q584" s="52"/>
@@ -16012,6 +16462,7 @@
       <c r="T584" s="52"/>
       <c r="U584" s="52"/>
       <c r="V584" s="52"/>
+      <c r="W584" s="52"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="Q585" s="52"/>
@@ -16020,6 +16471,7 @@
       <c r="T585" s="52"/>
       <c r="U585" s="52"/>
       <c r="V585" s="52"/>
+      <c r="W585" s="52"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="Q586" s="52"/>
@@ -16028,6 +16480,7 @@
       <c r="T586" s="52"/>
       <c r="U586" s="52"/>
       <c r="V586" s="52"/>
+      <c r="W586" s="52"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="Q587" s="52"/>
@@ -16036,6 +16489,7 @@
       <c r="T587" s="52"/>
       <c r="U587" s="52"/>
       <c r="V587" s="52"/>
+      <c r="W587" s="52"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="Q588" s="52"/>
@@ -16044,6 +16498,7 @@
       <c r="T588" s="52"/>
       <c r="U588" s="52"/>
       <c r="V588" s="52"/>
+      <c r="W588" s="52"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="Q589" s="52"/>
@@ -16052,6 +16507,7 @@
       <c r="T589" s="52"/>
       <c r="U589" s="52"/>
       <c r="V589" s="52"/>
+      <c r="W589" s="52"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="Q590" s="52"/>
@@ -16060,6 +16516,7 @@
       <c r="T590" s="52"/>
       <c r="U590" s="52"/>
       <c r="V590" s="52"/>
+      <c r="W590" s="52"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="Q591" s="52"/>
@@ -16068,6 +16525,7 @@
       <c r="T591" s="52"/>
       <c r="U591" s="52"/>
       <c r="V591" s="52"/>
+      <c r="W591" s="52"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="Q592" s="52"/>
@@ -16076,6 +16534,7 @@
       <c r="T592" s="52"/>
       <c r="U592" s="52"/>
       <c r="V592" s="52"/>
+      <c r="W592" s="52"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="Q593" s="52"/>
@@ -16084,6 +16543,7 @@
       <c r="T593" s="52"/>
       <c r="U593" s="52"/>
       <c r="V593" s="52"/>
+      <c r="W593" s="52"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="Q594" s="52"/>
@@ -16092,6 +16552,7 @@
       <c r="T594" s="52"/>
       <c r="U594" s="52"/>
       <c r="V594" s="52"/>
+      <c r="W594" s="52"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="Q595" s="52"/>
@@ -16100,6 +16561,7 @@
       <c r="T595" s="52"/>
       <c r="U595" s="52"/>
       <c r="V595" s="52"/>
+      <c r="W595" s="52"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="Q596" s="52"/>
@@ -16108,6 +16570,7 @@
       <c r="T596" s="52"/>
       <c r="U596" s="52"/>
       <c r="V596" s="52"/>
+      <c r="W596" s="52"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="Q597" s="52"/>
@@ -16116,6 +16579,7 @@
       <c r="T597" s="52"/>
       <c r="U597" s="52"/>
       <c r="V597" s="52"/>
+      <c r="W597" s="52"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="Q598" s="52"/>
@@ -16124,6 +16588,7 @@
       <c r="T598" s="52"/>
       <c r="U598" s="52"/>
       <c r="V598" s="52"/>
+      <c r="W598" s="52"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="Q599" s="52"/>
@@ -16132,6 +16597,7 @@
       <c r="T599" s="52"/>
       <c r="U599" s="52"/>
       <c r="V599" s="52"/>
+      <c r="W599" s="52"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="Q600" s="52"/>
@@ -16140,6 +16606,7 @@
       <c r="T600" s="52"/>
       <c r="U600" s="52"/>
       <c r="V600" s="52"/>
+      <c r="W600" s="52"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="Q601" s="52"/>
@@ -16148,6 +16615,7 @@
       <c r="T601" s="52"/>
       <c r="U601" s="52"/>
       <c r="V601" s="52"/>
+      <c r="W601" s="52"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="Q602" s="52"/>
@@ -16156,6 +16624,7 @@
       <c r="T602" s="52"/>
       <c r="U602" s="52"/>
       <c r="V602" s="52"/>
+      <c r="W602" s="52"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="Q603" s="52"/>
@@ -16164,6 +16633,7 @@
       <c r="T603" s="52"/>
       <c r="U603" s="52"/>
       <c r="V603" s="52"/>
+      <c r="W603" s="52"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="Q604" s="52"/>
@@ -16172,6 +16642,7 @@
       <c r="T604" s="52"/>
       <c r="U604" s="52"/>
       <c r="V604" s="52"/>
+      <c r="W604" s="52"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="Q605" s="52"/>
@@ -16180,6 +16651,7 @@
       <c r="T605" s="52"/>
       <c r="U605" s="52"/>
       <c r="V605" s="52"/>
+      <c r="W605" s="52"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="Q606" s="52"/>
@@ -16188,6 +16660,7 @@
       <c r="T606" s="52"/>
       <c r="U606" s="52"/>
       <c r="V606" s="52"/>
+      <c r="W606" s="52"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="Q607" s="52"/>
@@ -16196,6 +16669,7 @@
       <c r="T607" s="52"/>
       <c r="U607" s="52"/>
       <c r="V607" s="52"/>
+      <c r="W607" s="52"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="Q608" s="52"/>
@@ -16204,6 +16678,7 @@
       <c r="T608" s="52"/>
       <c r="U608" s="52"/>
       <c r="V608" s="52"/>
+      <c r="W608" s="52"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="Q609" s="52"/>
@@ -16212,6 +16687,7 @@
       <c r="T609" s="52"/>
       <c r="U609" s="52"/>
       <c r="V609" s="52"/>
+      <c r="W609" s="52"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="Q610" s="52"/>
@@ -16220,6 +16696,7 @@
       <c r="T610" s="52"/>
       <c r="U610" s="52"/>
       <c r="V610" s="52"/>
+      <c r="W610" s="52"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="Q611" s="52"/>
@@ -16228,6 +16705,7 @@
       <c r="T611" s="52"/>
       <c r="U611" s="52"/>
       <c r="V611" s="52"/>
+      <c r="W611" s="52"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="Q612" s="52"/>
@@ -16236,6 +16714,7 @@
       <c r="T612" s="52"/>
       <c r="U612" s="52"/>
       <c r="V612" s="52"/>
+      <c r="W612" s="52"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="Q613" s="52"/>
@@ -16244,6 +16723,7 @@
       <c r="T613" s="52"/>
       <c r="U613" s="52"/>
       <c r="V613" s="52"/>
+      <c r="W613" s="52"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="Q614" s="52"/>
@@ -16252,6 +16732,7 @@
       <c r="T614" s="52"/>
       <c r="U614" s="52"/>
       <c r="V614" s="52"/>
+      <c r="W614" s="52"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="Q615" s="52"/>
@@ -16260,6 +16741,7 @@
       <c r="T615" s="52"/>
       <c r="U615" s="52"/>
       <c r="V615" s="52"/>
+      <c r="W615" s="52"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="Q616" s="52"/>
@@ -16268,6 +16750,7 @@
       <c r="T616" s="52"/>
       <c r="U616" s="52"/>
       <c r="V616" s="52"/>
+      <c r="W616" s="52"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="Q617" s="52"/>
@@ -16276,6 +16759,7 @@
       <c r="T617" s="52"/>
       <c r="U617" s="52"/>
       <c r="V617" s="52"/>
+      <c r="W617" s="52"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="Q618" s="52"/>
@@ -16284,6 +16768,7 @@
       <c r="T618" s="52"/>
       <c r="U618" s="52"/>
       <c r="V618" s="52"/>
+      <c r="W618" s="52"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="Q619" s="52"/>
@@ -16292,6 +16777,7 @@
       <c r="T619" s="52"/>
       <c r="U619" s="52"/>
       <c r="V619" s="52"/>
+      <c r="W619" s="52"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="Q620" s="52"/>
@@ -16300,6 +16786,7 @@
       <c r="T620" s="52"/>
       <c r="U620" s="52"/>
       <c r="V620" s="52"/>
+      <c r="W620" s="52"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="Q621" s="52"/>
@@ -16308,6 +16795,7 @@
       <c r="T621" s="52"/>
       <c r="U621" s="52"/>
       <c r="V621" s="52"/>
+      <c r="W621" s="52"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="Q622" s="52"/>
@@ -16316,6 +16804,7 @@
       <c r="T622" s="52"/>
       <c r="U622" s="52"/>
       <c r="V622" s="52"/>
+      <c r="W622" s="52"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="Q623" s="52"/>
@@ -16324,6 +16813,7 @@
       <c r="T623" s="52"/>
       <c r="U623" s="52"/>
       <c r="V623" s="52"/>
+      <c r="W623" s="52"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="Q624" s="52"/>
@@ -16332,6 +16822,7 @@
       <c r="T624" s="52"/>
       <c r="U624" s="52"/>
       <c r="V624" s="52"/>
+      <c r="W624" s="52"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="Q625" s="52"/>
@@ -16340,6 +16831,7 @@
       <c r="T625" s="52"/>
       <c r="U625" s="52"/>
       <c r="V625" s="52"/>
+      <c r="W625" s="52"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="Q626" s="52"/>
@@ -16348,6 +16840,7 @@
       <c r="T626" s="52"/>
       <c r="U626" s="52"/>
       <c r="V626" s="52"/>
+      <c r="W626" s="52"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="Q627" s="52"/>
@@ -16356,6 +16849,7 @@
       <c r="T627" s="52"/>
       <c r="U627" s="52"/>
       <c r="V627" s="52"/>
+      <c r="W627" s="52"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="Q628" s="52"/>
@@ -16364,6 +16858,7 @@
       <c r="T628" s="52"/>
       <c r="U628" s="52"/>
       <c r="V628" s="52"/>
+      <c r="W628" s="52"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="Q629" s="52"/>
@@ -16372,6 +16867,7 @@
       <c r="T629" s="52"/>
       <c r="U629" s="52"/>
       <c r="V629" s="52"/>
+      <c r="W629" s="52"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="Q630" s="52"/>
@@ -16380,6 +16876,7 @@
       <c r="T630" s="52"/>
       <c r="U630" s="52"/>
       <c r="V630" s="52"/>
+      <c r="W630" s="52"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="Q631" s="52"/>
@@ -16388,6 +16885,7 @@
       <c r="T631" s="52"/>
       <c r="U631" s="52"/>
       <c r="V631" s="52"/>
+      <c r="W631" s="52"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="Q632" s="52"/>
@@ -16396,6 +16894,7 @@
       <c r="T632" s="52"/>
       <c r="U632" s="52"/>
       <c r="V632" s="52"/>
+      <c r="W632" s="52"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="Q633" s="52"/>
@@ -16404,6 +16903,7 @@
       <c r="T633" s="52"/>
       <c r="U633" s="52"/>
       <c r="V633" s="52"/>
+      <c r="W633" s="52"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="Q634" s="52"/>
@@ -16412,6 +16912,7 @@
       <c r="T634" s="52"/>
       <c r="U634" s="52"/>
       <c r="V634" s="52"/>
+      <c r="W634" s="52"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="Q635" s="52"/>
@@ -16420,6 +16921,7 @@
       <c r="T635" s="52"/>
       <c r="U635" s="52"/>
       <c r="V635" s="52"/>
+      <c r="W635" s="52"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="Q636" s="52"/>
@@ -16428,6 +16930,7 @@
       <c r="T636" s="52"/>
       <c r="U636" s="52"/>
       <c r="V636" s="52"/>
+      <c r="W636" s="52"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="Q637" s="52"/>
@@ -16436,6 +16939,7 @@
       <c r="T637" s="52"/>
       <c r="U637" s="52"/>
       <c r="V637" s="52"/>
+      <c r="W637" s="52"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="Q638" s="52"/>
@@ -16444,6 +16948,7 @@
       <c r="T638" s="52"/>
       <c r="U638" s="52"/>
       <c r="V638" s="52"/>
+      <c r="W638" s="52"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="Q639" s="52"/>
@@ -16452,6 +16957,7 @@
       <c r="T639" s="52"/>
       <c r="U639" s="52"/>
       <c r="V639" s="52"/>
+      <c r="W639" s="52"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="Q640" s="52"/>
@@ -16460,6 +16966,7 @@
       <c r="T640" s="52"/>
       <c r="U640" s="52"/>
       <c r="V640" s="52"/>
+      <c r="W640" s="52"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="Q641" s="52"/>
@@ -16468,6 +16975,7 @@
       <c r="T641" s="52"/>
       <c r="U641" s="52"/>
       <c r="V641" s="52"/>
+      <c r="W641" s="52"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="Q642" s="52"/>
@@ -16476,6 +16984,7 @@
       <c r="T642" s="52"/>
       <c r="U642" s="52"/>
       <c r="V642" s="52"/>
+      <c r="W642" s="52"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="Q643" s="52"/>
@@ -16484,6 +16993,7 @@
       <c r="T643" s="52"/>
       <c r="U643" s="52"/>
       <c r="V643" s="52"/>
+      <c r="W643" s="52"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="Q644" s="52"/>
@@ -16492,6 +17002,7 @@
       <c r="T644" s="52"/>
       <c r="U644" s="52"/>
       <c r="V644" s="52"/>
+      <c r="W644" s="52"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="Q645" s="52"/>
@@ -16500,6 +17011,7 @@
       <c r="T645" s="52"/>
       <c r="U645" s="52"/>
       <c r="V645" s="52"/>
+      <c r="W645" s="52"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="Q646" s="52"/>
@@ -16508,6 +17020,7 @@
       <c r="T646" s="52"/>
       <c r="U646" s="52"/>
       <c r="V646" s="52"/>
+      <c r="W646" s="52"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="Q647" s="52"/>
@@ -16516,6 +17029,7 @@
       <c r="T647" s="52"/>
       <c r="U647" s="52"/>
       <c r="V647" s="52"/>
+      <c r="W647" s="52"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="Q648" s="52"/>
@@ -16524,6 +17038,7 @@
       <c r="T648" s="52"/>
       <c r="U648" s="52"/>
       <c r="V648" s="52"/>
+      <c r="W648" s="52"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="Q649" s="52"/>
@@ -16532,6 +17047,7 @@
       <c r="T649" s="52"/>
       <c r="U649" s="52"/>
       <c r="V649" s="52"/>
+      <c r="W649" s="52"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="Q650" s="52"/>
@@ -16540,6 +17056,7 @@
       <c r="T650" s="52"/>
       <c r="U650" s="52"/>
       <c r="V650" s="52"/>
+      <c r="W650" s="52"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="Q651" s="52"/>
@@ -16548,6 +17065,7 @@
       <c r="T651" s="52"/>
       <c r="U651" s="52"/>
       <c r="V651" s="52"/>
+      <c r="W651" s="52"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="Q652" s="52"/>
@@ -16556,6 +17074,7 @@
       <c r="T652" s="52"/>
       <c r="U652" s="52"/>
       <c r="V652" s="52"/>
+      <c r="W652" s="52"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="Q653" s="52"/>
@@ -16564,6 +17083,7 @@
       <c r="T653" s="52"/>
       <c r="U653" s="52"/>
       <c r="V653" s="52"/>
+      <c r="W653" s="52"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="Q654" s="52"/>
@@ -16572,6 +17092,7 @@
       <c r="T654" s="52"/>
       <c r="U654" s="52"/>
       <c r="V654" s="52"/>
+      <c r="W654" s="52"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="Q655" s="52"/>
@@ -16580,6 +17101,7 @@
       <c r="T655" s="52"/>
       <c r="U655" s="52"/>
       <c r="V655" s="52"/>
+      <c r="W655" s="52"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="Q656" s="52"/>
@@ -16588,6 +17110,7 @@
       <c r="T656" s="52"/>
       <c r="U656" s="52"/>
       <c r="V656" s="52"/>
+      <c r="W656" s="52"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="Q657" s="52"/>
@@ -16596,6 +17119,7 @@
       <c r="T657" s="52"/>
       <c r="U657" s="52"/>
       <c r="V657" s="52"/>
+      <c r="W657" s="52"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="Q658" s="52"/>
@@ -16604,6 +17128,7 @@
       <c r="T658" s="52"/>
       <c r="U658" s="52"/>
       <c r="V658" s="52"/>
+      <c r="W658" s="52"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="Q659" s="52"/>
@@ -16612,6 +17137,7 @@
       <c r="T659" s="52"/>
       <c r="U659" s="52"/>
       <c r="V659" s="52"/>
+      <c r="W659" s="52"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="Q660" s="52"/>
@@ -16620,6 +17146,7 @@
       <c r="T660" s="52"/>
       <c r="U660" s="52"/>
       <c r="V660" s="52"/>
+      <c r="W660" s="52"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="Q661" s="52"/>
@@ -16628,6 +17155,7 @@
       <c r="T661" s="52"/>
       <c r="U661" s="52"/>
       <c r="V661" s="52"/>
+      <c r="W661" s="52"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="Q662" s="52"/>
@@ -16636,6 +17164,7 @@
       <c r="T662" s="52"/>
       <c r="U662" s="52"/>
       <c r="V662" s="52"/>
+      <c r="W662" s="52"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
       <c r="Q663" s="52"/>
@@ -16644,6 +17173,7 @@
       <c r="T663" s="52"/>
       <c r="U663" s="52"/>
       <c r="V663" s="52"/>
+      <c r="W663" s="52"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="Q664" s="52"/>
@@ -16652,6 +17182,7 @@
       <c r="T664" s="52"/>
       <c r="U664" s="52"/>
       <c r="V664" s="52"/>
+      <c r="W664" s="52"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="Q665" s="52"/>
@@ -16660,6 +17191,7 @@
       <c r="T665" s="52"/>
       <c r="U665" s="52"/>
       <c r="V665" s="52"/>
+      <c r="W665" s="52"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="Q666" s="52"/>
@@ -16668,6 +17200,7 @@
       <c r="T666" s="52"/>
       <c r="U666" s="52"/>
       <c r="V666" s="52"/>
+      <c r="W666" s="52"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="Q667" s="52"/>
@@ -16676,6 +17209,7 @@
       <c r="T667" s="52"/>
       <c r="U667" s="52"/>
       <c r="V667" s="52"/>
+      <c r="W667" s="52"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
       <c r="Q668" s="52"/>
@@ -16684,6 +17218,7 @@
       <c r="T668" s="52"/>
       <c r="U668" s="52"/>
       <c r="V668" s="52"/>
+      <c r="W668" s="52"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="Q669" s="52"/>
@@ -16692,6 +17227,7 @@
       <c r="T669" s="52"/>
       <c r="U669" s="52"/>
       <c r="V669" s="52"/>
+      <c r="W669" s="52"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="Q670" s="52"/>
@@ -16700,6 +17236,7 @@
       <c r="T670" s="52"/>
       <c r="U670" s="52"/>
       <c r="V670" s="52"/>
+      <c r="W670" s="52"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="Q671" s="52"/>
@@ -16708,6 +17245,7 @@
       <c r="T671" s="52"/>
       <c r="U671" s="52"/>
       <c r="V671" s="52"/>
+      <c r="W671" s="52"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="Q672" s="52"/>
@@ -16716,6 +17254,7 @@
       <c r="T672" s="52"/>
       <c r="U672" s="52"/>
       <c r="V672" s="52"/>
+      <c r="W672" s="52"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="Q673" s="52"/>
@@ -16724,6 +17263,7 @@
       <c r="T673" s="52"/>
       <c r="U673" s="52"/>
       <c r="V673" s="52"/>
+      <c r="W673" s="52"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="Q674" s="52"/>
@@ -16732,6 +17272,7 @@
       <c r="T674" s="52"/>
       <c r="U674" s="52"/>
       <c r="V674" s="52"/>
+      <c r="W674" s="52"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="Q675" s="52"/>
@@ -16740,6 +17281,7 @@
       <c r="T675" s="52"/>
       <c r="U675" s="52"/>
       <c r="V675" s="52"/>
+      <c r="W675" s="52"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="Q676" s="52"/>
@@ -16748,6 +17290,7 @@
       <c r="T676" s="52"/>
       <c r="U676" s="52"/>
       <c r="V676" s="52"/>
+      <c r="W676" s="52"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="Q677" s="52"/>
@@ -16756,6 +17299,7 @@
       <c r="T677" s="52"/>
       <c r="U677" s="52"/>
       <c r="V677" s="52"/>
+      <c r="W677" s="52"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="Q678" s="52"/>
@@ -16764,6 +17308,7 @@
       <c r="T678" s="52"/>
       <c r="U678" s="52"/>
       <c r="V678" s="52"/>
+      <c r="W678" s="52"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="Q679" s="52"/>
@@ -16772,6 +17317,7 @@
       <c r="T679" s="52"/>
       <c r="U679" s="52"/>
       <c r="V679" s="52"/>
+      <c r="W679" s="52"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="Q680" s="52"/>
@@ -16780,6 +17326,7 @@
       <c r="T680" s="52"/>
       <c r="U680" s="52"/>
       <c r="V680" s="52"/>
+      <c r="W680" s="52"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="Q681" s="52"/>
@@ -16788,6 +17335,7 @@
       <c r="T681" s="52"/>
       <c r="U681" s="52"/>
       <c r="V681" s="52"/>
+      <c r="W681" s="52"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="Q682" s="52"/>
@@ -16796,6 +17344,7 @@
       <c r="T682" s="52"/>
       <c r="U682" s="52"/>
       <c r="V682" s="52"/>
+      <c r="W682" s="52"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="Q683" s="52"/>
@@ -16804,6 +17353,7 @@
       <c r="T683" s="52"/>
       <c r="U683" s="52"/>
       <c r="V683" s="52"/>
+      <c r="W683" s="52"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="Q684" s="52"/>
@@ -16812,6 +17362,7 @@
       <c r="T684" s="52"/>
       <c r="U684" s="52"/>
       <c r="V684" s="52"/>
+      <c r="W684" s="52"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="Q685" s="52"/>
@@ -16820,6 +17371,7 @@
       <c r="T685" s="52"/>
       <c r="U685" s="52"/>
       <c r="V685" s="52"/>
+      <c r="W685" s="52"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="Q686" s="52"/>
@@ -16828,6 +17380,7 @@
       <c r="T686" s="52"/>
       <c r="U686" s="52"/>
       <c r="V686" s="52"/>
+      <c r="W686" s="52"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="Q687" s="52"/>
@@ -16836,6 +17389,7 @@
       <c r="T687" s="52"/>
       <c r="U687" s="52"/>
       <c r="V687" s="52"/>
+      <c r="W687" s="52"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="Q688" s="52"/>
@@ -16844,6 +17398,7 @@
       <c r="T688" s="52"/>
       <c r="U688" s="52"/>
       <c r="V688" s="52"/>
+      <c r="W688" s="52"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="Q689" s="52"/>
@@ -16852,6 +17407,7 @@
       <c r="T689" s="52"/>
       <c r="U689" s="52"/>
       <c r="V689" s="52"/>
+      <c r="W689" s="52"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="Q690" s="52"/>
@@ -16860,6 +17416,7 @@
       <c r="T690" s="52"/>
       <c r="U690" s="52"/>
       <c r="V690" s="52"/>
+      <c r="W690" s="52"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="Q691" s="52"/>
@@ -16868,6 +17425,7 @@
       <c r="T691" s="52"/>
       <c r="U691" s="52"/>
       <c r="V691" s="52"/>
+      <c r="W691" s="52"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
       <c r="Q692" s="52"/>
@@ -16876,6 +17434,7 @@
       <c r="T692" s="52"/>
       <c r="U692" s="52"/>
       <c r="V692" s="52"/>
+      <c r="W692" s="52"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="Q693" s="52"/>
@@ -16884,6 +17443,7 @@
       <c r="T693" s="52"/>
       <c r="U693" s="52"/>
       <c r="V693" s="52"/>
+      <c r="W693" s="52"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="Q694" s="52"/>
@@ -16892,6 +17452,7 @@
       <c r="T694" s="52"/>
       <c r="U694" s="52"/>
       <c r="V694" s="52"/>
+      <c r="W694" s="52"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="Q695" s="52"/>
@@ -16900,6 +17461,7 @@
       <c r="T695" s="52"/>
       <c r="U695" s="52"/>
       <c r="V695" s="52"/>
+      <c r="W695" s="52"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="Q696" s="52"/>
@@ -16908,6 +17470,7 @@
       <c r="T696" s="52"/>
       <c r="U696" s="52"/>
       <c r="V696" s="52"/>
+      <c r="W696" s="52"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="Q697" s="52"/>
@@ -16916,6 +17479,7 @@
       <c r="T697" s="52"/>
       <c r="U697" s="52"/>
       <c r="V697" s="52"/>
+      <c r="W697" s="52"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="Q698" s="52"/>
@@ -16924,6 +17488,7 @@
       <c r="T698" s="52"/>
       <c r="U698" s="52"/>
       <c r="V698" s="52"/>
+      <c r="W698" s="52"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="Q699" s="52"/>
@@ -16932,6 +17497,7 @@
       <c r="T699" s="52"/>
       <c r="U699" s="52"/>
       <c r="V699" s="52"/>
+      <c r="W699" s="52"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="Q700" s="52"/>
@@ -16940,6 +17506,7 @@
       <c r="T700" s="52"/>
       <c r="U700" s="52"/>
       <c r="V700" s="52"/>
+      <c r="W700" s="52"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="Q701" s="52"/>
@@ -16948,6 +17515,7 @@
       <c r="T701" s="52"/>
       <c r="U701" s="52"/>
       <c r="V701" s="52"/>
+      <c r="W701" s="52"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
       <c r="Q702" s="52"/>
@@ -16956,6 +17524,7 @@
       <c r="T702" s="52"/>
       <c r="U702" s="52"/>
       <c r="V702" s="52"/>
+      <c r="W702" s="52"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="Q703" s="52"/>
@@ -16964,6 +17533,7 @@
       <c r="T703" s="52"/>
       <c r="U703" s="52"/>
       <c r="V703" s="52"/>
+      <c r="W703" s="52"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="Q704" s="52"/>
@@ -16972,6 +17542,7 @@
       <c r="T704" s="52"/>
       <c r="U704" s="52"/>
       <c r="V704" s="52"/>
+      <c r="W704" s="52"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="Q705" s="52"/>
@@ -16980,6 +17551,7 @@
       <c r="T705" s="52"/>
       <c r="U705" s="52"/>
       <c r="V705" s="52"/>
+      <c r="W705" s="52"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="Q706" s="52"/>
@@ -16988,6 +17560,7 @@
       <c r="T706" s="52"/>
       <c r="U706" s="52"/>
       <c r="V706" s="52"/>
+      <c r="W706" s="52"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="Q707" s="52"/>
@@ -16996,6 +17569,7 @@
       <c r="T707" s="52"/>
       <c r="U707" s="52"/>
       <c r="V707" s="52"/>
+      <c r="W707" s="52"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="Q708" s="52"/>
@@ -17004,6 +17578,7 @@
       <c r="T708" s="52"/>
       <c r="U708" s="52"/>
       <c r="V708" s="52"/>
+      <c r="W708" s="52"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="Q709" s="52"/>
@@ -17012,6 +17587,7 @@
       <c r="T709" s="52"/>
       <c r="U709" s="52"/>
       <c r="V709" s="52"/>
+      <c r="W709" s="52"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="Q710" s="52"/>
@@ -17020,6 +17596,7 @@
       <c r="T710" s="52"/>
       <c r="U710" s="52"/>
       <c r="V710" s="52"/>
+      <c r="W710" s="52"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="Q711" s="52"/>
@@ -17028,6 +17605,7 @@
       <c r="T711" s="52"/>
       <c r="U711" s="52"/>
       <c r="V711" s="52"/>
+      <c r="W711" s="52"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="Q712" s="52"/>
@@ -17036,6 +17614,7 @@
       <c r="T712" s="52"/>
       <c r="U712" s="52"/>
       <c r="V712" s="52"/>
+      <c r="W712" s="52"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="Q713" s="52"/>
@@ -17044,6 +17623,7 @@
       <c r="T713" s="52"/>
       <c r="U713" s="52"/>
       <c r="V713" s="52"/>
+      <c r="W713" s="52"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="Q714" s="52"/>
@@ -17052,6 +17632,7 @@
       <c r="T714" s="52"/>
       <c r="U714" s="52"/>
       <c r="V714" s="52"/>
+      <c r="W714" s="52"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="Q715" s="52"/>
@@ -17060,6 +17641,7 @@
       <c r="T715" s="52"/>
       <c r="U715" s="52"/>
       <c r="V715" s="52"/>
+      <c r="W715" s="52"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="Q716" s="52"/>
@@ -17068,6 +17650,7 @@
       <c r="T716" s="52"/>
       <c r="U716" s="52"/>
       <c r="V716" s="52"/>
+      <c r="W716" s="52"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="Q717" s="52"/>
@@ -17076,6 +17659,7 @@
       <c r="T717" s="52"/>
       <c r="U717" s="52"/>
       <c r="V717" s="52"/>
+      <c r="W717" s="52"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="Q718" s="52"/>
@@ -17084,6 +17668,7 @@
       <c r="T718" s="52"/>
       <c r="U718" s="52"/>
       <c r="V718" s="52"/>
+      <c r="W718" s="52"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="Q719" s="52"/>
@@ -17092,6 +17677,7 @@
       <c r="T719" s="52"/>
       <c r="U719" s="52"/>
       <c r="V719" s="52"/>
+      <c r="W719" s="52"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="Q720" s="52"/>
@@ -17100,6 +17686,7 @@
       <c r="T720" s="52"/>
       <c r="U720" s="52"/>
       <c r="V720" s="52"/>
+      <c r="W720" s="52"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="Q721" s="52"/>
@@ -17108,6 +17695,7 @@
       <c r="T721" s="52"/>
       <c r="U721" s="52"/>
       <c r="V721" s="52"/>
+      <c r="W721" s="52"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="Q722" s="52"/>
@@ -17116,6 +17704,7 @@
       <c r="T722" s="52"/>
       <c r="U722" s="52"/>
       <c r="V722" s="52"/>
+      <c r="W722" s="52"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="Q723" s="52"/>
@@ -17124,6 +17713,7 @@
       <c r="T723" s="52"/>
       <c r="U723" s="52"/>
       <c r="V723" s="52"/>
+      <c r="W723" s="52"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="Q724" s="52"/>
@@ -17132,6 +17722,7 @@
       <c r="T724" s="52"/>
       <c r="U724" s="52"/>
       <c r="V724" s="52"/>
+      <c r="W724" s="52"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="Q725" s="52"/>
@@ -17140,6 +17731,7 @@
       <c r="T725" s="52"/>
       <c r="U725" s="52"/>
       <c r="V725" s="52"/>
+      <c r="W725" s="52"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="Q726" s="52"/>
@@ -17148,6 +17740,7 @@
       <c r="T726" s="52"/>
       <c r="U726" s="52"/>
       <c r="V726" s="52"/>
+      <c r="W726" s="52"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="Q727" s="52"/>
@@ -17156,6 +17749,7 @@
       <c r="T727" s="52"/>
       <c r="U727" s="52"/>
       <c r="V727" s="52"/>
+      <c r="W727" s="52"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="Q728" s="52"/>
@@ -17164,6 +17758,7 @@
       <c r="T728" s="52"/>
       <c r="U728" s="52"/>
       <c r="V728" s="52"/>
+      <c r="W728" s="52"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="Q729" s="52"/>
@@ -17172,6 +17767,7 @@
       <c r="T729" s="52"/>
       <c r="U729" s="52"/>
       <c r="V729" s="52"/>
+      <c r="W729" s="52"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="Q730" s="52"/>
@@ -17180,6 +17776,7 @@
       <c r="T730" s="52"/>
       <c r="U730" s="52"/>
       <c r="V730" s="52"/>
+      <c r="W730" s="52"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="Q731" s="52"/>
@@ -17188,6 +17785,7 @@
       <c r="T731" s="52"/>
       <c r="U731" s="52"/>
       <c r="V731" s="52"/>
+      <c r="W731" s="52"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="Q732" s="52"/>
@@ -17196,6 +17794,7 @@
       <c r="T732" s="52"/>
       <c r="U732" s="52"/>
       <c r="V732" s="52"/>
+      <c r="W732" s="52"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="Q733" s="52"/>
@@ -17204,6 +17803,7 @@
       <c r="T733" s="52"/>
       <c r="U733" s="52"/>
       <c r="V733" s="52"/>
+      <c r="W733" s="52"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="Q734" s="52"/>
@@ -17212,6 +17812,7 @@
       <c r="T734" s="52"/>
       <c r="U734" s="52"/>
       <c r="V734" s="52"/>
+      <c r="W734" s="52"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="Q735" s="52"/>
@@ -17220,6 +17821,7 @@
       <c r="T735" s="52"/>
       <c r="U735" s="52"/>
       <c r="V735" s="52"/>
+      <c r="W735" s="52"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="Q736" s="52"/>
@@ -17228,6 +17830,7 @@
       <c r="T736" s="52"/>
       <c r="U736" s="52"/>
       <c r="V736" s="52"/>
+      <c r="W736" s="52"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="Q737" s="52"/>
@@ -17236,6 +17839,7 @@
       <c r="T737" s="52"/>
       <c r="U737" s="52"/>
       <c r="V737" s="52"/>
+      <c r="W737" s="52"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="Q738" s="52"/>
@@ -17244,6 +17848,7 @@
       <c r="T738" s="52"/>
       <c r="U738" s="52"/>
       <c r="V738" s="52"/>
+      <c r="W738" s="52"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="Q739" s="52"/>
@@ -17252,6 +17857,7 @@
       <c r="T739" s="52"/>
       <c r="U739" s="52"/>
       <c r="V739" s="52"/>
+      <c r="W739" s="52"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="Q740" s="52"/>
@@ -17260,6 +17866,7 @@
       <c r="T740" s="52"/>
       <c r="U740" s="52"/>
       <c r="V740" s="52"/>
+      <c r="W740" s="52"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="Q741" s="52"/>
@@ -17268,6 +17875,7 @@
       <c r="T741" s="52"/>
       <c r="U741" s="52"/>
       <c r="V741" s="52"/>
+      <c r="W741" s="52"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="Q742" s="52"/>
@@ -17276,6 +17884,7 @@
       <c r="T742" s="52"/>
       <c r="U742" s="52"/>
       <c r="V742" s="52"/>
+      <c r="W742" s="52"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="Q743" s="52"/>
@@ -17284,6 +17893,7 @@
       <c r="T743" s="52"/>
       <c r="U743" s="52"/>
       <c r="V743" s="52"/>
+      <c r="W743" s="52"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="Q744" s="52"/>
@@ -17292,6 +17902,7 @@
       <c r="T744" s="52"/>
       <c r="U744" s="52"/>
       <c r="V744" s="52"/>
+      <c r="W744" s="52"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="Q745" s="52"/>
@@ -17300,6 +17911,7 @@
       <c r="T745" s="52"/>
       <c r="U745" s="52"/>
       <c r="V745" s="52"/>
+      <c r="W745" s="52"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="Q746" s="52"/>
@@ -17308,6 +17920,7 @@
       <c r="T746" s="52"/>
       <c r="U746" s="52"/>
       <c r="V746" s="52"/>
+      <c r="W746" s="52"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="Q747" s="52"/>
@@ -17316,6 +17929,7 @@
       <c r="T747" s="52"/>
       <c r="U747" s="52"/>
       <c r="V747" s="52"/>
+      <c r="W747" s="52"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="Q748" s="52"/>
@@ -17324,6 +17938,7 @@
       <c r="T748" s="52"/>
       <c r="U748" s="52"/>
       <c r="V748" s="52"/>
+      <c r="W748" s="52"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="Q749" s="52"/>
@@ -17332,6 +17947,7 @@
       <c r="T749" s="52"/>
       <c r="U749" s="52"/>
       <c r="V749" s="52"/>
+      <c r="W749" s="52"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="Q750" s="52"/>
@@ -17340,6 +17956,7 @@
       <c r="T750" s="52"/>
       <c r="U750" s="52"/>
       <c r="V750" s="52"/>
+      <c r="W750" s="52"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="Q751" s="52"/>
@@ -17348,6 +17965,7 @@
       <c r="T751" s="52"/>
       <c r="U751" s="52"/>
       <c r="V751" s="52"/>
+      <c r="W751" s="52"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="Q752" s="52"/>
@@ -17356,6 +17974,7 @@
       <c r="T752" s="52"/>
       <c r="U752" s="52"/>
       <c r="V752" s="52"/>
+      <c r="W752" s="52"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="Q753" s="52"/>
@@ -17364,6 +17983,7 @@
       <c r="T753" s="52"/>
       <c r="U753" s="52"/>
       <c r="V753" s="52"/>
+      <c r="W753" s="52"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="Q754" s="52"/>
@@ -17372,6 +17992,7 @@
       <c r="T754" s="52"/>
       <c r="U754" s="52"/>
       <c r="V754" s="52"/>
+      <c r="W754" s="52"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="Q755" s="52"/>
@@ -17380,6 +18001,7 @@
       <c r="T755" s="52"/>
       <c r="U755" s="52"/>
       <c r="V755" s="52"/>
+      <c r="W755" s="52"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="Q756" s="52"/>
@@ -17388,6 +18010,7 @@
       <c r="T756" s="52"/>
       <c r="U756" s="52"/>
       <c r="V756" s="52"/>
+      <c r="W756" s="52"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
       <c r="Q757" s="52"/>
@@ -17396,6 +18019,7 @@
       <c r="T757" s="52"/>
       <c r="U757" s="52"/>
       <c r="V757" s="52"/>
+      <c r="W757" s="52"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="Q758" s="52"/>
@@ -17404,6 +18028,7 @@
       <c r="T758" s="52"/>
       <c r="U758" s="52"/>
       <c r="V758" s="52"/>
+      <c r="W758" s="52"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="Q759" s="52"/>
@@ -17412,6 +18037,7 @@
       <c r="T759" s="52"/>
       <c r="U759" s="52"/>
       <c r="V759" s="52"/>
+      <c r="W759" s="52"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="Q760" s="52"/>
@@ -17420,6 +18046,7 @@
       <c r="T760" s="52"/>
       <c r="U760" s="52"/>
       <c r="V760" s="52"/>
+      <c r="W760" s="52"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="Q761" s="52"/>
@@ -17428,6 +18055,7 @@
       <c r="T761" s="52"/>
       <c r="U761" s="52"/>
       <c r="V761" s="52"/>
+      <c r="W761" s="52"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="Q762" s="52"/>
@@ -17436,6 +18064,7 @@
       <c r="T762" s="52"/>
       <c r="U762" s="52"/>
       <c r="V762" s="52"/>
+      <c r="W762" s="52"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="Q763" s="52"/>
@@ -17444,6 +18073,7 @@
       <c r="T763" s="52"/>
       <c r="U763" s="52"/>
       <c r="V763" s="52"/>
+      <c r="W763" s="52"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
       <c r="Q764" s="52"/>
@@ -17452,6 +18082,7 @@
       <c r="T764" s="52"/>
       <c r="U764" s="52"/>
       <c r="V764" s="52"/>
+      <c r="W764" s="52"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="Q765" s="52"/>
@@ -17460,6 +18091,7 @@
       <c r="T765" s="52"/>
       <c r="U765" s="52"/>
       <c r="V765" s="52"/>
+      <c r="W765" s="52"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="Q766" s="52"/>
@@ -17468,6 +18100,7 @@
       <c r="T766" s="52"/>
       <c r="U766" s="52"/>
       <c r="V766" s="52"/>
+      <c r="W766" s="52"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
       <c r="Q767" s="52"/>
@@ -17476,6 +18109,7 @@
       <c r="T767" s="52"/>
       <c r="U767" s="52"/>
       <c r="V767" s="52"/>
+      <c r="W767" s="52"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
       <c r="Q768" s="52"/>
@@ -17484,6 +18118,7 @@
       <c r="T768" s="52"/>
       <c r="U768" s="52"/>
       <c r="V768" s="52"/>
+      <c r="W768" s="52"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="Q769" s="52"/>
@@ -17492,6 +18127,7 @@
       <c r="T769" s="52"/>
       <c r="U769" s="52"/>
       <c r="V769" s="52"/>
+      <c r="W769" s="52"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="Q770" s="52"/>
@@ -17500,6 +18136,7 @@
       <c r="T770" s="52"/>
       <c r="U770" s="52"/>
       <c r="V770" s="52"/>
+      <c r="W770" s="52"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
       <c r="Q771" s="52"/>
@@ -17508,6 +18145,7 @@
       <c r="T771" s="52"/>
       <c r="U771" s="52"/>
       <c r="V771" s="52"/>
+      <c r="W771" s="52"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
       <c r="Q772" s="52"/>
@@ -17516,6 +18154,7 @@
       <c r="T772" s="52"/>
       <c r="U772" s="52"/>
       <c r="V772" s="52"/>
+      <c r="W772" s="52"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="Q773" s="52"/>
@@ -17524,6 +18163,7 @@
       <c r="T773" s="52"/>
       <c r="U773" s="52"/>
       <c r="V773" s="52"/>
+      <c r="W773" s="52"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
       <c r="Q774" s="52"/>
@@ -17532,6 +18172,7 @@
       <c r="T774" s="52"/>
       <c r="U774" s="52"/>
       <c r="V774" s="52"/>
+      <c r="W774" s="52"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="Q775" s="52"/>
@@ -17540,6 +18181,7 @@
       <c r="T775" s="52"/>
       <c r="U775" s="52"/>
       <c r="V775" s="52"/>
+      <c r="W775" s="52"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="Q776" s="52"/>
@@ -17548,6 +18190,7 @@
       <c r="T776" s="52"/>
       <c r="U776" s="52"/>
       <c r="V776" s="52"/>
+      <c r="W776" s="52"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
       <c r="Q777" s="52"/>
@@ -17556,6 +18199,7 @@
       <c r="T777" s="52"/>
       <c r="U777" s="52"/>
       <c r="V777" s="52"/>
+      <c r="W777" s="52"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
       <c r="Q778" s="52"/>
@@ -17564,6 +18208,7 @@
       <c r="T778" s="52"/>
       <c r="U778" s="52"/>
       <c r="V778" s="52"/>
+      <c r="W778" s="52"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
       <c r="Q779" s="52"/>
@@ -17572,6 +18217,7 @@
       <c r="T779" s="52"/>
       <c r="U779" s="52"/>
       <c r="V779" s="52"/>
+      <c r="W779" s="52"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
       <c r="Q780" s="52"/>
@@ -17580,6 +18226,7 @@
       <c r="T780" s="52"/>
       <c r="U780" s="52"/>
       <c r="V780" s="52"/>
+      <c r="W780" s="52"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
       <c r="Q781" s="52"/>
@@ -17588,6 +18235,7 @@
       <c r="T781" s="52"/>
       <c r="U781" s="52"/>
       <c r="V781" s="52"/>
+      <c r="W781" s="52"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="Q782" s="52"/>
@@ -17596,6 +18244,7 @@
       <c r="T782" s="52"/>
       <c r="U782" s="52"/>
       <c r="V782" s="52"/>
+      <c r="W782" s="52"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
       <c r="Q783" s="52"/>
@@ -17604,6 +18253,7 @@
       <c r="T783" s="52"/>
       <c r="U783" s="52"/>
       <c r="V783" s="52"/>
+      <c r="W783" s="52"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
       <c r="Q784" s="52"/>
@@ -17612,6 +18262,7 @@
       <c r="T784" s="52"/>
       <c r="U784" s="52"/>
       <c r="V784" s="52"/>
+      <c r="W784" s="52"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="Q785" s="52"/>
@@ -17620,6 +18271,7 @@
       <c r="T785" s="52"/>
       <c r="U785" s="52"/>
       <c r="V785" s="52"/>
+      <c r="W785" s="52"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="Q786" s="52"/>
@@ -17628,6 +18280,7 @@
       <c r="T786" s="52"/>
       <c r="U786" s="52"/>
       <c r="V786" s="52"/>
+      <c r="W786" s="52"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
       <c r="Q787" s="52"/>
@@ -17636,6 +18289,7 @@
       <c r="T787" s="52"/>
       <c r="U787" s="52"/>
       <c r="V787" s="52"/>
+      <c r="W787" s="52"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
       <c r="Q788" s="52"/>
@@ -17644,6 +18298,7 @@
       <c r="T788" s="52"/>
       <c r="U788" s="52"/>
       <c r="V788" s="52"/>
+      <c r="W788" s="52"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
       <c r="Q789" s="52"/>
@@ -17652,6 +18307,7 @@
       <c r="T789" s="52"/>
       <c r="U789" s="52"/>
       <c r="V789" s="52"/>
+      <c r="W789" s="52"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="Q790" s="52"/>
@@ -17660,6 +18316,7 @@
       <c r="T790" s="52"/>
       <c r="U790" s="52"/>
       <c r="V790" s="52"/>
+      <c r="W790" s="52"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
       <c r="Q791" s="52"/>
@@ -17668,6 +18325,7 @@
       <c r="T791" s="52"/>
       <c r="U791" s="52"/>
       <c r="V791" s="52"/>
+      <c r="W791" s="52"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
       <c r="Q792" s="52"/>
@@ -17676,6 +18334,7 @@
       <c r="T792" s="52"/>
       <c r="U792" s="52"/>
       <c r="V792" s="52"/>
+      <c r="W792" s="52"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
       <c r="Q793" s="52"/>
@@ -17684,6 +18343,7 @@
       <c r="T793" s="52"/>
       <c r="U793" s="52"/>
       <c r="V793" s="52"/>
+      <c r="W793" s="52"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
       <c r="Q794" s="52"/>
@@ -17692,6 +18352,7 @@
       <c r="T794" s="52"/>
       <c r="U794" s="52"/>
       <c r="V794" s="52"/>
+      <c r="W794" s="52"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="Q795" s="52"/>
@@ -17700,6 +18361,7 @@
       <c r="T795" s="52"/>
       <c r="U795" s="52"/>
       <c r="V795" s="52"/>
+      <c r="W795" s="52"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
       <c r="Q796" s="52"/>
@@ -17708,6 +18370,7 @@
       <c r="T796" s="52"/>
       <c r="U796" s="52"/>
       <c r="V796" s="52"/>
+      <c r="W796" s="52"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
       <c r="Q797" s="52"/>
@@ -17716,6 +18379,7 @@
       <c r="T797" s="52"/>
       <c r="U797" s="52"/>
       <c r="V797" s="52"/>
+      <c r="W797" s="52"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
       <c r="Q798" s="52"/>
@@ -17724,6 +18388,7 @@
       <c r="T798" s="52"/>
       <c r="U798" s="52"/>
       <c r="V798" s="52"/>
+      <c r="W798" s="52"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="Q799" s="52"/>
@@ -17732,6 +18397,7 @@
       <c r="T799" s="52"/>
       <c r="U799" s="52"/>
       <c r="V799" s="52"/>
+      <c r="W799" s="52"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="Q800" s="52"/>
@@ -17740,6 +18406,7 @@
       <c r="T800" s="52"/>
       <c r="U800" s="52"/>
       <c r="V800" s="52"/>
+      <c r="W800" s="52"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
       <c r="Q801" s="52"/>
@@ -17748,6 +18415,7 @@
       <c r="T801" s="52"/>
       <c r="U801" s="52"/>
       <c r="V801" s="52"/>
+      <c r="W801" s="52"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
       <c r="Q802" s="52"/>
@@ -17756,6 +18424,7 @@
       <c r="T802" s="52"/>
       <c r="U802" s="52"/>
       <c r="V802" s="52"/>
+      <c r="W802" s="52"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
       <c r="Q803" s="52"/>
@@ -17764,6 +18433,7 @@
       <c r="T803" s="52"/>
       <c r="U803" s="52"/>
       <c r="V803" s="52"/>
+      <c r="W803" s="52"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
       <c r="Q804" s="52"/>
@@ -17772,6 +18442,7 @@
       <c r="T804" s="52"/>
       <c r="U804" s="52"/>
       <c r="V804" s="52"/>
+      <c r="W804" s="52"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="Q805" s="52"/>
@@ -17780,6 +18451,7 @@
       <c r="T805" s="52"/>
       <c r="U805" s="52"/>
       <c r="V805" s="52"/>
+      <c r="W805" s="52"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="Q806" s="52"/>
@@ -17788,6 +18460,7 @@
       <c r="T806" s="52"/>
       <c r="U806" s="52"/>
       <c r="V806" s="52"/>
+      <c r="W806" s="52"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
       <c r="Q807" s="52"/>
@@ -17796,6 +18469,7 @@
       <c r="T807" s="52"/>
       <c r="U807" s="52"/>
       <c r="V807" s="52"/>
+      <c r="W807" s="52"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
       <c r="Q808" s="52"/>
@@ -17804,6 +18478,7 @@
       <c r="T808" s="52"/>
       <c r="U808" s="52"/>
       <c r="V808" s="52"/>
+      <c r="W808" s="52"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="Q809" s="52"/>
@@ -17812,6 +18487,7 @@
       <c r="T809" s="52"/>
       <c r="U809" s="52"/>
       <c r="V809" s="52"/>
+      <c r="W809" s="52"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="Q810" s="52"/>
@@ -17820,6 +18496,7 @@
       <c r="T810" s="52"/>
       <c r="U810" s="52"/>
       <c r="V810" s="52"/>
+      <c r="W810" s="52"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
       <c r="Q811" s="52"/>
@@ -17828,6 +18505,7 @@
       <c r="T811" s="52"/>
       <c r="U811" s="52"/>
       <c r="V811" s="52"/>
+      <c r="W811" s="52"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
       <c r="Q812" s="52"/>
@@ -17836,6 +18514,7 @@
       <c r="T812" s="52"/>
       <c r="U812" s="52"/>
       <c r="V812" s="52"/>
+      <c r="W812" s="52"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
       <c r="Q813" s="52"/>
@@ -17844,6 +18523,7 @@
       <c r="T813" s="52"/>
       <c r="U813" s="52"/>
       <c r="V813" s="52"/>
+      <c r="W813" s="52"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="Q814" s="52"/>
@@ -17852,6 +18532,7 @@
       <c r="T814" s="52"/>
       <c r="U814" s="52"/>
       <c r="V814" s="52"/>
+      <c r="W814" s="52"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
       <c r="Q815" s="52"/>
@@ -17860,6 +18541,7 @@
       <c r="T815" s="52"/>
       <c r="U815" s="52"/>
       <c r="V815" s="52"/>
+      <c r="W815" s="52"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
       <c r="Q816" s="52"/>
@@ -17868,6 +18550,7 @@
       <c r="T816" s="52"/>
       <c r="U816" s="52"/>
       <c r="V816" s="52"/>
+      <c r="W816" s="52"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
       <c r="Q817" s="52"/>
@@ -17876,6 +18559,7 @@
       <c r="T817" s="52"/>
       <c r="U817" s="52"/>
       <c r="V817" s="52"/>
+      <c r="W817" s="52"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
       <c r="Q818" s="52"/>
@@ -17884,6 +18568,7 @@
       <c r="T818" s="52"/>
       <c r="U818" s="52"/>
       <c r="V818" s="52"/>
+      <c r="W818" s="52"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
       <c r="Q819" s="52"/>
@@ -17892,6 +18577,7 @@
       <c r="T819" s="52"/>
       <c r="U819" s="52"/>
       <c r="V819" s="52"/>
+      <c r="W819" s="52"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
       <c r="Q820" s="52"/>
@@ -17900,6 +18586,7 @@
       <c r="T820" s="52"/>
       <c r="U820" s="52"/>
       <c r="V820" s="52"/>
+      <c r="W820" s="52"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="Q821" s="52"/>
@@ -17908,6 +18595,7 @@
       <c r="T821" s="52"/>
       <c r="U821" s="52"/>
       <c r="V821" s="52"/>
+      <c r="W821" s="52"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="Q822" s="52"/>
@@ -17916,6 +18604,7 @@
       <c r="T822" s="52"/>
       <c r="U822" s="52"/>
       <c r="V822" s="52"/>
+      <c r="W822" s="52"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
       <c r="Q823" s="52"/>
@@ -17924,6 +18613,7 @@
       <c r="T823" s="52"/>
       <c r="U823" s="52"/>
       <c r="V823" s="52"/>
+      <c r="W823" s="52"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
       <c r="Q824" s="52"/>
@@ -17932,6 +18622,7 @@
       <c r="T824" s="52"/>
       <c r="U824" s="52"/>
       <c r="V824" s="52"/>
+      <c r="W824" s="52"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
       <c r="Q825" s="52"/>
@@ -17940,6 +18631,7 @@
       <c r="T825" s="52"/>
       <c r="U825" s="52"/>
       <c r="V825" s="52"/>
+      <c r="W825" s="52"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
       <c r="Q826" s="52"/>
@@ -17948,6 +18640,7 @@
       <c r="T826" s="52"/>
       <c r="U826" s="52"/>
       <c r="V826" s="52"/>
+      <c r="W826" s="52"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
       <c r="Q827" s="52"/>
@@ -17956,6 +18649,7 @@
       <c r="T827" s="52"/>
       <c r="U827" s="52"/>
       <c r="V827" s="52"/>
+      <c r="W827" s="52"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
       <c r="Q828" s="52"/>
@@ -17964,6 +18658,7 @@
       <c r="T828" s="52"/>
       <c r="U828" s="52"/>
       <c r="V828" s="52"/>
+      <c r="W828" s="52"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
       <c r="Q829" s="52"/>
@@ -17972,6 +18667,7 @@
       <c r="T829" s="52"/>
       <c r="U829" s="52"/>
       <c r="V829" s="52"/>
+      <c r="W829" s="52"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
       <c r="Q830" s="52"/>
@@ -17980,6 +18676,7 @@
       <c r="T830" s="52"/>
       <c r="U830" s="52"/>
       <c r="V830" s="52"/>
+      <c r="W830" s="52"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
       <c r="Q831" s="52"/>
@@ -17988,6 +18685,7 @@
       <c r="T831" s="52"/>
       <c r="U831" s="52"/>
       <c r="V831" s="52"/>
+      <c r="W831" s="52"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
       <c r="Q832" s="52"/>
@@ -17996,6 +18694,7 @@
       <c r="T832" s="52"/>
       <c r="U832" s="52"/>
       <c r="V832" s="52"/>
+      <c r="W832" s="52"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
       <c r="Q833" s="52"/>
@@ -18004,6 +18703,7 @@
       <c r="T833" s="52"/>
       <c r="U833" s="52"/>
       <c r="V833" s="52"/>
+      <c r="W833" s="52"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
       <c r="Q834" s="52"/>
@@ -18012,6 +18712,7 @@
       <c r="T834" s="52"/>
       <c r="U834" s="52"/>
       <c r="V834" s="52"/>
+      <c r="W834" s="52"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
       <c r="Q835" s="52"/>
@@ -18020,6 +18721,7 @@
       <c r="T835" s="52"/>
       <c r="U835" s="52"/>
       <c r="V835" s="52"/>
+      <c r="W835" s="52"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
       <c r="Q836" s="52"/>
@@ -18028,6 +18730,7 @@
       <c r="T836" s="52"/>
       <c r="U836" s="52"/>
       <c r="V836" s="52"/>
+      <c r="W836" s="52"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
       <c r="Q837" s="52"/>
@@ -18036,6 +18739,7 @@
       <c r="T837" s="52"/>
       <c r="U837" s="52"/>
       <c r="V837" s="52"/>
+      <c r="W837" s="52"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
       <c r="Q838" s="52"/>
@@ -18044,6 +18748,7 @@
       <c r="T838" s="52"/>
       <c r="U838" s="52"/>
       <c r="V838" s="52"/>
+      <c r="W838" s="52"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
       <c r="Q839" s="52"/>
@@ -18052,6 +18757,7 @@
       <c r="T839" s="52"/>
       <c r="U839" s="52"/>
       <c r="V839" s="52"/>
+      <c r="W839" s="52"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
       <c r="Q840" s="52"/>
@@ -18060,6 +18766,7 @@
       <c r="T840" s="52"/>
       <c r="U840" s="52"/>
       <c r="V840" s="52"/>
+      <c r="W840" s="52"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
       <c r="Q841" s="52"/>
@@ -18068,6 +18775,7 @@
       <c r="T841" s="52"/>
       <c r="U841" s="52"/>
       <c r="V841" s="52"/>
+      <c r="W841" s="52"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
       <c r="Q842" s="52"/>
@@ -18076,6 +18784,7 @@
       <c r="T842" s="52"/>
       <c r="U842" s="52"/>
       <c r="V842" s="52"/>
+      <c r="W842" s="52"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
       <c r="Q843" s="52"/>
@@ -18084,6 +18793,7 @@
       <c r="T843" s="52"/>
       <c r="U843" s="52"/>
       <c r="V843" s="52"/>
+      <c r="W843" s="52"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
       <c r="Q844" s="52"/>
@@ -18092,6 +18802,7 @@
       <c r="T844" s="52"/>
       <c r="U844" s="52"/>
       <c r="V844" s="52"/>
+      <c r="W844" s="52"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
       <c r="Q845" s="52"/>
@@ -18100,6 +18811,7 @@
       <c r="T845" s="52"/>
       <c r="U845" s="52"/>
       <c r="V845" s="52"/>
+      <c r="W845" s="52"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
       <c r="Q846" s="52"/>
@@ -18108,6 +18820,7 @@
       <c r="T846" s="52"/>
       <c r="U846" s="52"/>
       <c r="V846" s="52"/>
+      <c r="W846" s="52"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
       <c r="Q847" s="52"/>
@@ -18116,6 +18829,7 @@
       <c r="T847" s="52"/>
       <c r="U847" s="52"/>
       <c r="V847" s="52"/>
+      <c r="W847" s="52"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
       <c r="Q848" s="52"/>
@@ -18124,6 +18838,7 @@
       <c r="T848" s="52"/>
       <c r="U848" s="52"/>
       <c r="V848" s="52"/>
+      <c r="W848" s="52"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
       <c r="Q849" s="52"/>
@@ -18132,6 +18847,7 @@
       <c r="T849" s="52"/>
       <c r="U849" s="52"/>
       <c r="V849" s="52"/>
+      <c r="W849" s="52"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
       <c r="Q850" s="52"/>
@@ -18140,6 +18856,7 @@
       <c r="T850" s="52"/>
       <c r="U850" s="52"/>
       <c r="V850" s="52"/>
+      <c r="W850" s="52"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
       <c r="Q851" s="52"/>
@@ -18148,6 +18865,7 @@
       <c r="T851" s="52"/>
       <c r="U851" s="52"/>
       <c r="V851" s="52"/>
+      <c r="W851" s="52"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
       <c r="Q852" s="52"/>
@@ -18156,6 +18874,7 @@
       <c r="T852" s="52"/>
       <c r="U852" s="52"/>
       <c r="V852" s="52"/>
+      <c r="W852" s="52"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
       <c r="Q853" s="52"/>
@@ -18164,6 +18883,7 @@
       <c r="T853" s="52"/>
       <c r="U853" s="52"/>
       <c r="V853" s="52"/>
+      <c r="W853" s="52"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
       <c r="Q854" s="52"/>
@@ -18172,6 +18892,7 @@
       <c r="T854" s="52"/>
       <c r="U854" s="52"/>
       <c r="V854" s="52"/>
+      <c r="W854" s="52"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
       <c r="Q855" s="52"/>
@@ -18180,6 +18901,7 @@
       <c r="T855" s="52"/>
       <c r="U855" s="52"/>
       <c r="V855" s="52"/>
+      <c r="W855" s="52"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
       <c r="Q856" s="52"/>
@@ -18188,6 +18910,7 @@
       <c r="T856" s="52"/>
       <c r="U856" s="52"/>
       <c r="V856" s="52"/>
+      <c r="W856" s="52"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
       <c r="Q857" s="52"/>
@@ -18196,6 +18919,7 @@
       <c r="T857" s="52"/>
       <c r="U857" s="52"/>
       <c r="V857" s="52"/>
+      <c r="W857" s="52"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
       <c r="Q858" s="52"/>
@@ -18204,6 +18928,7 @@
       <c r="T858" s="52"/>
       <c r="U858" s="52"/>
       <c r="V858" s="52"/>
+      <c r="W858" s="52"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
       <c r="Q859" s="52"/>
@@ -18212,6 +18937,7 @@
       <c r="T859" s="52"/>
       <c r="U859" s="52"/>
       <c r="V859" s="52"/>
+      <c r="W859" s="52"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
       <c r="Q860" s="52"/>
@@ -18220,6 +18946,7 @@
       <c r="T860" s="52"/>
       <c r="U860" s="52"/>
       <c r="V860" s="52"/>
+      <c r="W860" s="52"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
       <c r="Q861" s="52"/>
@@ -18228,6 +18955,7 @@
       <c r="T861" s="52"/>
       <c r="U861" s="52"/>
       <c r="V861" s="52"/>
+      <c r="W861" s="52"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
       <c r="Q862" s="52"/>
@@ -18236,6 +18964,7 @@
       <c r="T862" s="52"/>
       <c r="U862" s="52"/>
       <c r="V862" s="52"/>
+      <c r="W862" s="52"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
       <c r="Q863" s="52"/>
@@ -18244,6 +18973,7 @@
       <c r="T863" s="52"/>
       <c r="U863" s="52"/>
       <c r="V863" s="52"/>
+      <c r="W863" s="52"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
       <c r="Q864" s="52"/>
@@ -18252,6 +18982,7 @@
       <c r="T864" s="52"/>
       <c r="U864" s="52"/>
       <c r="V864" s="52"/>
+      <c r="W864" s="52"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
       <c r="Q865" s="52"/>
@@ -18260,6 +18991,7 @@
       <c r="T865" s="52"/>
       <c r="U865" s="52"/>
       <c r="V865" s="52"/>
+      <c r="W865" s="52"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
       <c r="Q866" s="52"/>
@@ -18268,6 +19000,7 @@
       <c r="T866" s="52"/>
       <c r="U866" s="52"/>
       <c r="V866" s="52"/>
+      <c r="W866" s="52"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
       <c r="Q867" s="52"/>
@@ -18276,6 +19009,7 @@
       <c r="T867" s="52"/>
       <c r="U867" s="52"/>
       <c r="V867" s="52"/>
+      <c r="W867" s="52"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
       <c r="Q868" s="52"/>
@@ -18284,6 +19018,7 @@
       <c r="T868" s="52"/>
       <c r="U868" s="52"/>
       <c r="V868" s="52"/>
+      <c r="W868" s="52"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
       <c r="Q869" s="52"/>
@@ -18292,6 +19027,7 @@
       <c r="T869" s="52"/>
       <c r="U869" s="52"/>
       <c r="V869" s="52"/>
+      <c r="W869" s="52"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
       <c r="Q870" s="52"/>
@@ -18300,6 +19036,7 @@
       <c r="T870" s="52"/>
       <c r="U870" s="52"/>
       <c r="V870" s="52"/>
+      <c r="W870" s="52"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
       <c r="Q871" s="52"/>
@@ -18308,6 +19045,7 @@
       <c r="T871" s="52"/>
       <c r="U871" s="52"/>
       <c r="V871" s="52"/>
+      <c r="W871" s="52"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
       <c r="Q872" s="52"/>
@@ -18316,6 +19054,7 @@
       <c r="T872" s="52"/>
       <c r="U872" s="52"/>
       <c r="V872" s="52"/>
+      <c r="W872" s="52"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
       <c r="Q873" s="52"/>
@@ -18324,6 +19063,7 @@
       <c r="T873" s="52"/>
       <c r="U873" s="52"/>
       <c r="V873" s="52"/>
+      <c r="W873" s="52"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
       <c r="Q874" s="52"/>
@@ -18332,6 +19072,7 @@
       <c r="T874" s="52"/>
       <c r="U874" s="52"/>
       <c r="V874" s="52"/>
+      <c r="W874" s="52"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
       <c r="Q875" s="52"/>
@@ -18340,6 +19081,7 @@
       <c r="T875" s="52"/>
       <c r="U875" s="52"/>
       <c r="V875" s="52"/>
+      <c r="W875" s="52"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
       <c r="Q876" s="52"/>
@@ -18348,6 +19090,7 @@
       <c r="T876" s="52"/>
       <c r="U876" s="52"/>
       <c r="V876" s="52"/>
+      <c r="W876" s="52"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
       <c r="Q877" s="52"/>
@@ -18356,6 +19099,7 @@
       <c r="T877" s="52"/>
       <c r="U877" s="52"/>
       <c r="V877" s="52"/>
+      <c r="W877" s="52"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
       <c r="Q878" s="52"/>
@@ -18364,6 +19108,7 @@
       <c r="T878" s="52"/>
       <c r="U878" s="52"/>
       <c r="V878" s="52"/>
+      <c r="W878" s="52"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
       <c r="Q879" s="52"/>
@@ -18372,6 +19117,7 @@
       <c r="T879" s="52"/>
       <c r="U879" s="52"/>
       <c r="V879" s="52"/>
+      <c r="W879" s="52"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
       <c r="Q880" s="52"/>
@@ -18380,6 +19126,7 @@
       <c r="T880" s="52"/>
       <c r="U880" s="52"/>
       <c r="V880" s="52"/>
+      <c r="W880" s="52"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
       <c r="Q881" s="52"/>
@@ -18388,6 +19135,7 @@
       <c r="T881" s="52"/>
       <c r="U881" s="52"/>
       <c r="V881" s="52"/>
+      <c r="W881" s="52"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
       <c r="Q882" s="52"/>
@@ -18396,6 +19144,7 @@
       <c r="T882" s="52"/>
       <c r="U882" s="52"/>
       <c r="V882" s="52"/>
+      <c r="W882" s="52"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
       <c r="Q883" s="52"/>
@@ -18404,6 +19153,7 @@
       <c r="T883" s="52"/>
       <c r="U883" s="52"/>
       <c r="V883" s="52"/>
+      <c r="W883" s="52"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
       <c r="Q884" s="52"/>
@@ -18412,6 +19162,7 @@
       <c r="T884" s="52"/>
       <c r="U884" s="52"/>
       <c r="V884" s="52"/>
+      <c r="W884" s="52"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
       <c r="Q885" s="52"/>
@@ -18420,6 +19171,7 @@
       <c r="T885" s="52"/>
       <c r="U885" s="52"/>
       <c r="V885" s="52"/>
+      <c r="W885" s="52"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
       <c r="Q886" s="52"/>
@@ -18428,6 +19180,7 @@
       <c r="T886" s="52"/>
       <c r="U886" s="52"/>
       <c r="V886" s="52"/>
+      <c r="W886" s="52"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
       <c r="Q887" s="52"/>
@@ -18436,6 +19189,7 @@
       <c r="T887" s="52"/>
       <c r="U887" s="52"/>
       <c r="V887" s="52"/>
+      <c r="W887" s="52"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
       <c r="Q888" s="52"/>
@@ -18444,6 +19198,7 @@
       <c r="T888" s="52"/>
       <c r="U888" s="52"/>
       <c r="V888" s="52"/>
+      <c r="W888" s="52"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
       <c r="Q889" s="52"/>
@@ -18452,6 +19207,7 @@
       <c r="T889" s="52"/>
       <c r="U889" s="52"/>
       <c r="V889" s="52"/>
+      <c r="W889" s="52"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
       <c r="Q890" s="52"/>
@@ -18460,6 +19216,7 @@
       <c r="T890" s="52"/>
       <c r="U890" s="52"/>
       <c r="V890" s="52"/>
+      <c r="W890" s="52"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
       <c r="Q891" s="52"/>
@@ -18468,6 +19225,7 @@
       <c r="T891" s="52"/>
       <c r="U891" s="52"/>
       <c r="V891" s="52"/>
+      <c r="W891" s="52"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
       <c r="Q892" s="52"/>
@@ -18476,6 +19234,7 @@
       <c r="T892" s="52"/>
       <c r="U892" s="52"/>
       <c r="V892" s="52"/>
+      <c r="W892" s="52"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
       <c r="Q893" s="52"/>
@@ -18484,6 +19243,7 @@
       <c r="T893" s="52"/>
       <c r="U893" s="52"/>
       <c r="V893" s="52"/>
+      <c r="W893" s="52"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
       <c r="Q894" s="52"/>
@@ -18492,6 +19252,7 @@
       <c r="T894" s="52"/>
       <c r="U894" s="52"/>
       <c r="V894" s="52"/>
+      <c r="W894" s="52"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
       <c r="Q895" s="52"/>
@@ -18500,6 +19261,7 @@
       <c r="T895" s="52"/>
       <c r="U895" s="52"/>
       <c r="V895" s="52"/>
+      <c r="W895" s="52"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
       <c r="Q896" s="52"/>
@@ -18508,6 +19270,7 @@
       <c r="T896" s="52"/>
       <c r="U896" s="52"/>
       <c r="V896" s="52"/>
+      <c r="W896" s="52"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
       <c r="Q897" s="52"/>
@@ -18516,6 +19279,7 @@
       <c r="T897" s="52"/>
       <c r="U897" s="52"/>
       <c r="V897" s="52"/>
+      <c r="W897" s="52"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
       <c r="Q898" s="52"/>
@@ -18524,6 +19288,7 @@
       <c r="T898" s="52"/>
       <c r="U898" s="52"/>
       <c r="V898" s="52"/>
+      <c r="W898" s="52"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
       <c r="Q899" s="52"/>
@@ -18532,6 +19297,7 @@
       <c r="T899" s="52"/>
       <c r="U899" s="52"/>
       <c r="V899" s="52"/>
+      <c r="W899" s="52"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
       <c r="Q900" s="52"/>
@@ -18540,6 +19306,7 @@
       <c r="T900" s="52"/>
       <c r="U900" s="52"/>
       <c r="V900" s="52"/>
+      <c r="W900" s="52"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
       <c r="Q901" s="52"/>
@@ -18548,6 +19315,7 @@
       <c r="T901" s="52"/>
       <c r="U901" s="52"/>
       <c r="V901" s="52"/>
+      <c r="W901" s="52"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
       <c r="Q902" s="52"/>
@@ -18556,6 +19324,7 @@
       <c r="T902" s="52"/>
       <c r="U902" s="52"/>
       <c r="V902" s="52"/>
+      <c r="W902" s="52"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
       <c r="Q903" s="52"/>
@@ -18564,6 +19333,7 @@
       <c r="T903" s="52"/>
       <c r="U903" s="52"/>
       <c r="V903" s="52"/>
+      <c r="W903" s="52"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
       <c r="Q904" s="52"/>
@@ -18572,6 +19342,7 @@
       <c r="T904" s="52"/>
       <c r="U904" s="52"/>
       <c r="V904" s="52"/>
+      <c r="W904" s="52"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
       <c r="Q905" s="52"/>
@@ -18580,6 +19351,7 @@
       <c r="T905" s="52"/>
       <c r="U905" s="52"/>
       <c r="V905" s="52"/>
+      <c r="W905" s="52"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
       <c r="Q906" s="52"/>
@@ -18588,6 +19360,7 @@
       <c r="T906" s="52"/>
       <c r="U906" s="52"/>
       <c r="V906" s="52"/>
+      <c r="W906" s="52"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
       <c r="Q907" s="52"/>
@@ -18596,6 +19369,7 @@
       <c r="T907" s="52"/>
       <c r="U907" s="52"/>
       <c r="V907" s="52"/>
+      <c r="W907" s="52"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
       <c r="Q908" s="52"/>
@@ -18604,6 +19378,7 @@
       <c r="T908" s="52"/>
       <c r="U908" s="52"/>
       <c r="V908" s="52"/>
+      <c r="W908" s="52"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
       <c r="Q909" s="52"/>
@@ -18612,6 +19387,7 @@
       <c r="T909" s="52"/>
       <c r="U909" s="52"/>
       <c r="V909" s="52"/>
+      <c r="W909" s="52"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
       <c r="Q910" s="52"/>
@@ -18620,6 +19396,7 @@
       <c r="T910" s="52"/>
       <c r="U910" s="52"/>
       <c r="V910" s="52"/>
+      <c r="W910" s="52"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
       <c r="Q911" s="52"/>
@@ -18628,6 +19405,7 @@
       <c r="T911" s="52"/>
       <c r="U911" s="52"/>
       <c r="V911" s="52"/>
+      <c r="W911" s="52"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
       <c r="Q912" s="52"/>
@@ -18636,6 +19414,7 @@
       <c r="T912" s="52"/>
       <c r="U912" s="52"/>
       <c r="V912" s="52"/>
+      <c r="W912" s="52"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
       <c r="Q913" s="52"/>
@@ -18644,6 +19423,7 @@
       <c r="T913" s="52"/>
       <c r="U913" s="52"/>
       <c r="V913" s="52"/>
+      <c r="W913" s="52"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
       <c r="Q914" s="52"/>
@@ -18652,6 +19432,7 @@
       <c r="T914" s="52"/>
       <c r="U914" s="52"/>
       <c r="V914" s="52"/>
+      <c r="W914" s="52"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
       <c r="Q915" s="52"/>
@@ -18660,6 +19441,7 @@
       <c r="T915" s="52"/>
       <c r="U915" s="52"/>
       <c r="V915" s="52"/>
+      <c r="W915" s="52"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
       <c r="Q916" s="52"/>
@@ -18668,6 +19450,7 @@
       <c r="T916" s="52"/>
       <c r="U916" s="52"/>
       <c r="V916" s="52"/>
+      <c r="W916" s="52"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
       <c r="Q917" s="52"/>
@@ -18676,6 +19459,7 @@
       <c r="T917" s="52"/>
       <c r="U917" s="52"/>
       <c r="V917" s="52"/>
+      <c r="W917" s="52"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
       <c r="Q918" s="52"/>
@@ -18684,6 +19468,7 @@
       <c r="T918" s="52"/>
       <c r="U918" s="52"/>
       <c r="V918" s="52"/>
+      <c r="W918" s="52"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
       <c r="Q919" s="52"/>
@@ -18692,6 +19477,7 @@
       <c r="T919" s="52"/>
       <c r="U919" s="52"/>
       <c r="V919" s="52"/>
+      <c r="W919" s="52"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
       <c r="Q920" s="52"/>
@@ -18700,6 +19486,7 @@
       <c r="T920" s="52"/>
       <c r="U920" s="52"/>
       <c r="V920" s="52"/>
+      <c r="W920" s="52"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
       <c r="Q921" s="52"/>
@@ -18708,6 +19495,7 @@
       <c r="T921" s="52"/>
       <c r="U921" s="52"/>
       <c r="V921" s="52"/>
+      <c r="W921" s="52"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
       <c r="Q922" s="52"/>
@@ -18716,6 +19504,7 @@
       <c r="T922" s="52"/>
       <c r="U922" s="52"/>
       <c r="V922" s="52"/>
+      <c r="W922" s="52"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
       <c r="Q923" s="52"/>
@@ -18724,6 +19513,7 @@
       <c r="T923" s="52"/>
       <c r="U923" s="52"/>
       <c r="V923" s="52"/>
+      <c r="W923" s="52"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
       <c r="Q924" s="52"/>
@@ -18732,6 +19522,7 @@
       <c r="T924" s="52"/>
       <c r="U924" s="52"/>
       <c r="V924" s="52"/>
+      <c r="W924" s="52"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
       <c r="Q925" s="52"/>
@@ -18740,6 +19531,7 @@
       <c r="T925" s="52"/>
       <c r="U925" s="52"/>
       <c r="V925" s="52"/>
+      <c r="W925" s="52"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
       <c r="Q926" s="52"/>
@@ -18748,6 +19540,7 @@
       <c r="T926" s="52"/>
       <c r="U926" s="52"/>
       <c r="V926" s="52"/>
+      <c r="W926" s="52"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
       <c r="Q927" s="52"/>
@@ -18756,6 +19549,7 @@
       <c r="T927" s="52"/>
       <c r="U927" s="52"/>
       <c r="V927" s="52"/>
+      <c r="W927" s="52"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
       <c r="Q928" s="52"/>
@@ -18764,6 +19558,7 @@
       <c r="T928" s="52"/>
       <c r="U928" s="52"/>
       <c r="V928" s="52"/>
+      <c r="W928" s="52"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
       <c r="Q929" s="52"/>
@@ -18772,6 +19567,7 @@
       <c r="T929" s="52"/>
       <c r="U929" s="52"/>
       <c r="V929" s="52"/>
+      <c r="W929" s="52"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
       <c r="Q930" s="52"/>
@@ -18780,6 +19576,7 @@
       <c r="T930" s="52"/>
       <c r="U930" s="52"/>
       <c r="V930" s="52"/>
+      <c r="W930" s="52"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
       <c r="Q931" s="52"/>
@@ -18788,6 +19585,7 @@
       <c r="T931" s="52"/>
       <c r="U931" s="52"/>
       <c r="V931" s="52"/>
+      <c r="W931" s="52"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
       <c r="Q932" s="52"/>
@@ -18796,6 +19594,7 @@
       <c r="T932" s="52"/>
       <c r="U932" s="52"/>
       <c r="V932" s="52"/>
+      <c r="W932" s="52"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
       <c r="Q933" s="52"/>
@@ -18804,6 +19603,7 @@
       <c r="T933" s="52"/>
       <c r="U933" s="52"/>
       <c r="V933" s="52"/>
+      <c r="W933" s="52"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
       <c r="Q934" s="52"/>
@@ -18812,6 +19612,7 @@
       <c r="T934" s="52"/>
       <c r="U934" s="52"/>
       <c r="V934" s="52"/>
+      <c r="W934" s="52"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
       <c r="Q935" s="52"/>
@@ -18820,6 +19621,7 @@
       <c r="T935" s="52"/>
       <c r="U935" s="52"/>
       <c r="V935" s="52"/>
+      <c r="W935" s="52"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
       <c r="Q936" s="52"/>
@@ -18828,6 +19630,7 @@
       <c r="T936" s="52"/>
       <c r="U936" s="52"/>
       <c r="V936" s="52"/>
+      <c r="W936" s="52"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
       <c r="Q937" s="52"/>
@@ -18836,6 +19639,7 @@
       <c r="T937" s="52"/>
       <c r="U937" s="52"/>
       <c r="V937" s="52"/>
+      <c r="W937" s="52"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
       <c r="Q938" s="52"/>
@@ -18844,6 +19648,7 @@
       <c r="T938" s="52"/>
       <c r="U938" s="52"/>
       <c r="V938" s="52"/>
+      <c r="W938" s="52"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
       <c r="Q939" s="52"/>
@@ -18852,6 +19657,7 @@
       <c r="T939" s="52"/>
       <c r="U939" s="52"/>
       <c r="V939" s="52"/>
+      <c r="W939" s="52"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
       <c r="Q940" s="52"/>
@@ -18860,6 +19666,7 @@
       <c r="T940" s="52"/>
       <c r="U940" s="52"/>
       <c r="V940" s="52"/>
+      <c r="W940" s="52"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
       <c r="Q941" s="52"/>
@@ -18868,6 +19675,7 @@
       <c r="T941" s="52"/>
       <c r="U941" s="52"/>
       <c r="V941" s="52"/>
+      <c r="W941" s="52"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
       <c r="Q942" s="52"/>
@@ -18876,6 +19684,7 @@
       <c r="T942" s="52"/>
       <c r="U942" s="52"/>
       <c r="V942" s="52"/>
+      <c r="W942" s="52"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
       <c r="Q943" s="52"/>
@@ -18884,6 +19693,7 @@
       <c r="T943" s="52"/>
       <c r="U943" s="52"/>
       <c r="V943" s="52"/>
+      <c r="W943" s="52"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
       <c r="Q944" s="52"/>
@@ -18892,6 +19702,7 @@
       <c r="T944" s="52"/>
       <c r="U944" s="52"/>
       <c r="V944" s="52"/>
+      <c r="W944" s="52"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
       <c r="Q945" s="52"/>
@@ -18900,6 +19711,7 @@
       <c r="T945" s="52"/>
       <c r="U945" s="52"/>
       <c r="V945" s="52"/>
+      <c r="W945" s="52"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
       <c r="Q946" s="52"/>
@@ -18908,6 +19720,7 @@
       <c r="T946" s="52"/>
       <c r="U946" s="52"/>
       <c r="V946" s="52"/>
+      <c r="W946" s="52"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
       <c r="Q947" s="52"/>
@@ -18916,6 +19729,7 @@
       <c r="T947" s="52"/>
       <c r="U947" s="52"/>
       <c r="V947" s="52"/>
+      <c r="W947" s="52"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
       <c r="Q948" s="52"/>
@@ -18924,6 +19738,7 @@
       <c r="T948" s="52"/>
       <c r="U948" s="52"/>
       <c r="V948" s="52"/>
+      <c r="W948" s="52"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
       <c r="Q949" s="52"/>
@@ -18932,6 +19747,7 @@
       <c r="T949" s="52"/>
       <c r="U949" s="52"/>
       <c r="V949" s="52"/>
+      <c r="W949" s="52"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
       <c r="Q950" s="52"/>
@@ -18940,6 +19756,7 @@
       <c r="T950" s="52"/>
       <c r="U950" s="52"/>
       <c r="V950" s="52"/>
+      <c r="W950" s="52"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
       <c r="Q951" s="52"/>
@@ -18948,6 +19765,7 @@
       <c r="T951" s="52"/>
       <c r="U951" s="52"/>
       <c r="V951" s="52"/>
+      <c r="W951" s="52"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
       <c r="Q952" s="52"/>
@@ -18956,6 +19774,7 @@
       <c r="T952" s="52"/>
       <c r="U952" s="52"/>
       <c r="V952" s="52"/>
+      <c r="W952" s="52"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
       <c r="Q953" s="52"/>
@@ -18964,6 +19783,7 @@
       <c r="T953" s="52"/>
       <c r="U953" s="52"/>
       <c r="V953" s="52"/>
+      <c r="W953" s="52"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
       <c r="Q954" s="52"/>
@@ -18972,6 +19792,7 @@
       <c r="T954" s="52"/>
       <c r="U954" s="52"/>
       <c r="V954" s="52"/>
+      <c r="W954" s="52"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
       <c r="Q955" s="52"/>
@@ -18980,6 +19801,7 @@
       <c r="T955" s="52"/>
       <c r="U955" s="52"/>
       <c r="V955" s="52"/>
+      <c r="W955" s="52"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
       <c r="Q956" s="52"/>
@@ -18988,6 +19810,7 @@
       <c r="T956" s="52"/>
       <c r="U956" s="52"/>
       <c r="V956" s="52"/>
+      <c r="W956" s="52"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
       <c r="Q957" s="52"/>
@@ -18996,6 +19819,7 @@
       <c r="T957" s="52"/>
       <c r="U957" s="52"/>
       <c r="V957" s="52"/>
+      <c r="W957" s="52"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
       <c r="Q958" s="52"/>
@@ -19004,6 +19828,7 @@
       <c r="T958" s="52"/>
       <c r="U958" s="52"/>
       <c r="V958" s="52"/>
+      <c r="W958" s="52"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
       <c r="Q959" s="52"/>
@@ -19012,6 +19837,7 @@
       <c r="T959" s="52"/>
       <c r="U959" s="52"/>
       <c r="V959" s="52"/>
+      <c r="W959" s="52"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
       <c r="Q960" s="52"/>
@@ -19020,6 +19846,7 @@
       <c r="T960" s="52"/>
       <c r="U960" s="52"/>
       <c r="V960" s="52"/>
+      <c r="W960" s="52"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
       <c r="Q961" s="52"/>
@@ -19028,6 +19855,7 @@
       <c r="T961" s="52"/>
       <c r="U961" s="52"/>
       <c r="V961" s="52"/>
+      <c r="W961" s="52"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
       <c r="Q962" s="52"/>
@@ -19036,6 +19864,7 @@
       <c r="T962" s="52"/>
       <c r="U962" s="52"/>
       <c r="V962" s="52"/>
+      <c r="W962" s="52"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
       <c r="Q963" s="52"/>
@@ -19044,6 +19873,7 @@
       <c r="T963" s="52"/>
       <c r="U963" s="52"/>
       <c r="V963" s="52"/>
+      <c r="W963" s="52"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
       <c r="Q964" s="52"/>
@@ -19052,6 +19882,7 @@
       <c r="T964" s="52"/>
       <c r="U964" s="52"/>
       <c r="V964" s="52"/>
+      <c r="W964" s="52"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
       <c r="Q965" s="52"/>
@@ -19060,6 +19891,7 @@
       <c r="T965" s="52"/>
       <c r="U965" s="52"/>
       <c r="V965" s="52"/>
+      <c r="W965" s="52"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
       <c r="Q966" s="52"/>
@@ -19068,6 +19900,7 @@
       <c r="T966" s="52"/>
       <c r="U966" s="52"/>
       <c r="V966" s="52"/>
+      <c r="W966" s="52"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
       <c r="Q967" s="52"/>
@@ -19076,6 +19909,7 @@
       <c r="T967" s="52"/>
       <c r="U967" s="52"/>
       <c r="V967" s="52"/>
+      <c r="W967" s="52"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
       <c r="Q968" s="52"/>
@@ -19084,6 +19918,7 @@
       <c r="T968" s="52"/>
       <c r="U968" s="52"/>
       <c r="V968" s="52"/>
+      <c r="W968" s="52"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
       <c r="Q969" s="52"/>
@@ -19092,6 +19927,7 @@
       <c r="T969" s="52"/>
       <c r="U969" s="52"/>
       <c r="V969" s="52"/>
+      <c r="W969" s="52"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
       <c r="Q970" s="52"/>
@@ -19100,6 +19936,7 @@
       <c r="T970" s="52"/>
       <c r="U970" s="52"/>
       <c r="V970" s="52"/>
+      <c r="W970" s="52"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
       <c r="Q971" s="52"/>
@@ -19108,6 +19945,7 @@
       <c r="T971" s="52"/>
       <c r="U971" s="52"/>
       <c r="V971" s="52"/>
+      <c r="W971" s="52"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
       <c r="Q972" s="52"/>
@@ -19116,6 +19954,7 @@
       <c r="T972" s="52"/>
       <c r="U972" s="52"/>
       <c r="V972" s="52"/>
+      <c r="W972" s="52"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
       <c r="Q973" s="52"/>
@@ -19124,6 +19963,7 @@
       <c r="T973" s="52"/>
       <c r="U973" s="52"/>
       <c r="V973" s="52"/>
+      <c r="W973" s="52"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
       <c r="Q974" s="52"/>
@@ -19132,6 +19972,7 @@
       <c r="T974" s="52"/>
       <c r="U974" s="52"/>
       <c r="V974" s="52"/>
+      <c r="W974" s="52"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
       <c r="Q975" s="52"/>
@@ -19140,6 +19981,7 @@
       <c r="T975" s="52"/>
       <c r="U975" s="52"/>
       <c r="V975" s="52"/>
+      <c r="W975" s="52"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
       <c r="Q976" s="52"/>
@@ -19148,6 +19990,7 @@
       <c r="T976" s="52"/>
       <c r="U976" s="52"/>
       <c r="V976" s="52"/>
+      <c r="W976" s="52"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
       <c r="Q977" s="52"/>
@@ -19156,6 +19999,7 @@
       <c r="T977" s="52"/>
       <c r="U977" s="52"/>
       <c r="V977" s="52"/>
+      <c r="W977" s="52"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
       <c r="Q978" s="52"/>
@@ -19164,6 +20008,7 @@
       <c r="T978" s="52"/>
       <c r="U978" s="52"/>
       <c r="V978" s="52"/>
+      <c r="W978" s="52"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
       <c r="Q979" s="52"/>
@@ -19172,6 +20017,7 @@
       <c r="T979" s="52"/>
       <c r="U979" s="52"/>
       <c r="V979" s="52"/>
+      <c r="W979" s="52"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
       <c r="Q980" s="52"/>
@@ -19180,6 +20026,7 @@
       <c r="T980" s="52"/>
       <c r="U980" s="52"/>
       <c r="V980" s="52"/>
+      <c r="W980" s="52"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
       <c r="Q981" s="52"/>
@@ -19188,6 +20035,7 @@
       <c r="T981" s="52"/>
       <c r="U981" s="52"/>
       <c r="V981" s="52"/>
+      <c r="W981" s="52"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
       <c r="Q982" s="52"/>
@@ -19196,6 +20044,7 @@
       <c r="T982" s="52"/>
       <c r="U982" s="52"/>
       <c r="V982" s="52"/>
+      <c r="W982" s="52"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
       <c r="Q983" s="52"/>
@@ -19204,6 +20053,7 @@
       <c r="T983" s="52"/>
       <c r="U983" s="52"/>
       <c r="V983" s="52"/>
+      <c r="W983" s="52"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
       <c r="Q984" s="52"/>
@@ -19212,6 +20062,7 @@
       <c r="T984" s="52"/>
       <c r="U984" s="52"/>
       <c r="V984" s="52"/>
+      <c r="W984" s="52"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
       <c r="Q985" s="52"/>
@@ -19220,6 +20071,7 @@
       <c r="T985" s="52"/>
       <c r="U985" s="52"/>
       <c r="V985" s="52"/>
+      <c r="W985" s="52"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
       <c r="Q986" s="52"/>
@@ -19228,6 +20080,7 @@
       <c r="T986" s="52"/>
       <c r="U986" s="52"/>
       <c r="V986" s="52"/>
+      <c r="W986" s="52"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
       <c r="Q987" s="52"/>
@@ -19236,6 +20089,7 @@
       <c r="T987" s="52"/>
       <c r="U987" s="52"/>
       <c r="V987" s="52"/>
+      <c r="W987" s="52"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
       <c r="Q988" s="52"/>
@@ -19244,6 +20098,7 @@
       <c r="T988" s="52"/>
       <c r="U988" s="52"/>
       <c r="V988" s="52"/>
+      <c r="W988" s="52"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
       <c r="Q989" s="52"/>
@@ -19252,6 +20107,7 @@
       <c r="T989" s="52"/>
       <c r="U989" s="52"/>
       <c r="V989" s="52"/>
+      <c r="W989" s="52"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
       <c r="Q990" s="52"/>
@@ -19260,6 +20116,7 @@
       <c r="T990" s="52"/>
       <c r="U990" s="52"/>
       <c r="V990" s="52"/>
+      <c r="W990" s="52"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
       <c r="Q991" s="52"/>
@@ -19268,6 +20125,7 @@
       <c r="T991" s="52"/>
       <c r="U991" s="52"/>
       <c r="V991" s="52"/>
+      <c r="W991" s="52"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
       <c r="Q992" s="52"/>
@@ -19276,6 +20134,7 @@
       <c r="T992" s="52"/>
       <c r="U992" s="52"/>
       <c r="V992" s="52"/>
+      <c r="W992" s="52"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
       <c r="Q993" s="52"/>
@@ -19284,6 +20143,7 @@
       <c r="T993" s="52"/>
       <c r="U993" s="52"/>
       <c r="V993" s="52"/>
+      <c r="W993" s="52"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
       <c r="Q994" s="52"/>
@@ -19292,6 +20152,7 @@
       <c r="T994" s="52"/>
       <c r="U994" s="52"/>
       <c r="V994" s="52"/>
+      <c r="W994" s="52"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
       <c r="Q995" s="52"/>
@@ -19300,6 +20161,7 @@
       <c r="T995" s="52"/>
       <c r="U995" s="52"/>
       <c r="V995" s="52"/>
+      <c r="W995" s="52"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
       <c r="Q996" s="52"/>
@@ -19308,6 +20170,7 @@
       <c r="T996" s="52"/>
       <c r="U996" s="52"/>
       <c r="V996" s="52"/>
+      <c r="W996" s="52"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="Q997" s="52"/>
@@ -19316,6 +20179,7 @@
       <c r="T997" s="52"/>
       <c r="U997" s="52"/>
       <c r="V997" s="52"/>
+      <c r="W997" s="52"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
       <c r="Q998" s="52"/>
@@ -19324,6 +20188,7 @@
       <c r="T998" s="52"/>
       <c r="U998" s="52"/>
       <c r="V998" s="52"/>
+      <c r="W998" s="52"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
       <c r="Q999" s="52"/>
@@ -19332,6 +20197,7 @@
       <c r="T999" s="52"/>
       <c r="U999" s="52"/>
       <c r="V999" s="52"/>
+      <c r="W999" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$6:$AA$91"/>
